--- a/NXT.L.xlsx
+++ b/NXT.L.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888A6ADF-7194-4ECA-A535-B76AC57156A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45F38D6-6478-4D05-8D07-DC3EB156D646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{0F543347-D4D0-4782-A0BE-24D35C709E73}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{0F543347-D4D0-4782-A0BE-24D35C709E73}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Next PLC</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>IR</t>
-  </si>
-  <si>
-    <t>Q224</t>
   </si>
   <si>
     <t>Main</t>
@@ -240,6 +237,15 @@
   <si>
     <t>Levis, Babour, Adidas, Nike, Boss, The North Face etc.</t>
   </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>H122</t>
+  </si>
+  <si>
+    <t>H222</t>
+  </si>
 </sst>
 </file>
 
@@ -251,13 +257,19 @@
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
     <numFmt numFmtId="167" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -459,37 +471,40 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -829,7 +844,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -853,18 +868,18 @@
         <v>2</v>
       </c>
       <c r="I2" s="3">
-        <v>101.55</v>
+        <v>118.8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="3">
-        <v>126.044</v>
+      <c r="I3" s="22">
+        <v>117.1</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>10</v>
+      <c r="J3" s="25" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -876,7 +891,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>12799.768199999999</v>
+        <v>13911.48</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -887,10 +902,10 @@
         <v>5</v>
       </c>
       <c r="I5" s="3">
-        <v>153.6</v>
+        <v>441.1</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>10</v>
+      <c r="J5" s="25" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -898,19 +913,19 @@
         <v>6</v>
       </c>
       <c r="I6" s="3">
-        <f>71.3+0.6+791.6</f>
-        <v>863.5</v>
+        <f>15.1+712.1+54.1</f>
+        <v>781.30000000000007</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>10</v>
+      <c r="J6" s="25" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
@@ -919,12 +934,12 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>13509.668199999998</v>
+        <v>14251.679999999998</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="10">
         <v>0.51767420719555257</v>
@@ -934,7 +949,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="14">
         <v>0.29967483654417681</v>
@@ -943,7 +958,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="14">
         <v>9.1871710123638137E-2</v>
@@ -952,7 +967,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="17">
         <v>0.13017027376665155</v>
@@ -962,22 +977,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -990,13 +1005,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4EA1A9-CAE9-46C3-8DE3-A737E516BE83}">
-  <dimension ref="A1:AS628"/>
+  <dimension ref="A1:AU628"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1006,59 +1021,65 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="C2" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -1070,7 +1091,9 @@
         <v>487</v>
       </c>
       <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="I3" s="21">
+        <v>457</v>
+      </c>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
@@ -1107,10 +1130,12 @@
       <c r="AQ3" s="21"/>
       <c r="AR3" s="21"/>
       <c r="AS3" s="21"/>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT3" s="21"/>
+      <c r="AU3" s="21"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -1122,7 +1147,9 @@
         <v>8075</v>
       </c>
       <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="I4" s="21">
+        <v>8078</v>
+      </c>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
@@ -1159,8 +1186,10 @@
       <c r="AQ4" s="21"/>
       <c r="AR4" s="21"/>
       <c r="AS4" s="21"/>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="21"/>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -1192,10 +1221,12 @@
       <c r="AE5" s="22"/>
       <c r="AF5" s="22"/>
       <c r="AG5" s="22"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -1207,7 +1238,10 @@
         <v>1480.6</v>
       </c>
       <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="I6" s="22">
+        <f>1156.1+591.8</f>
+        <v>1747.8999999999999</v>
+      </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
@@ -1232,10 +1266,12 @@
       <c r="AE6" s="22"/>
       <c r="AF6" s="22"/>
       <c r="AG6" s="22"/>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -1247,7 +1283,9 @@
         <v>857.1</v>
       </c>
       <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="I7" s="22">
+        <v>878.4</v>
+      </c>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
@@ -1272,10 +1310,12 @@
       <c r="AE7" s="22"/>
       <c r="AF7" s="22"/>
       <c r="AG7" s="22"/>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -1287,7 +1327,9 @@
         <v>150.1</v>
       </c>
       <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="I8" s="22">
+        <v>151.1</v>
+      </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
@@ -1312,10 +1354,12 @@
       <c r="AE8" s="22"/>
       <c r="AF8" s="22"/>
       <c r="AG8" s="22"/>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -1329,7 +1373,10 @@
         <v>372.30000000000007</v>
       </c>
       <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+      <c r="I9" s="22">
+        <f>318.9+48.2</f>
+        <v>367.09999999999997</v>
+      </c>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
@@ -1354,10 +1401,12 @@
       <c r="AE9" s="22"/>
       <c r="AF9" s="22"/>
       <c r="AG9" s="22"/>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -1369,7 +1418,9 @@
         <v>2860.1</v>
       </c>
       <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+      <c r="I10" s="23">
+        <v>3144.5</v>
+      </c>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
@@ -1378,8 +1429,8 @@
       <c r="O10" s="23"/>
       <c r="P10" s="23"/>
       <c r="Q10" s="23"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
@@ -1394,10 +1445,12 @@
       <c r="AE10" s="22"/>
       <c r="AF10" s="22"/>
       <c r="AG10" s="22"/>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -1409,7 +1462,9 @@
         <v>1633.8</v>
       </c>
       <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="I11" s="22">
+        <v>1767.8</v>
+      </c>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
@@ -1434,10 +1489,12 @@
       <c r="AE11" s="22"/>
       <c r="AF11" s="22"/>
       <c r="AG11" s="22"/>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="22"/>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -1449,7 +1506,9 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="I12" s="22">
+        <v>1.7</v>
+      </c>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
@@ -1474,10 +1533,12 @@
       <c r="AE12" s="22"/>
       <c r="AF12" s="22"/>
       <c r="AG12" s="22"/>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="22">
         <f t="shared" ref="C13:F13" si="0">+C10-C11-C12</f>
@@ -1500,10 +1561,13 @@
         <v>1221.3999999999999</v>
       </c>
       <c r="H13" s="22">
-        <f t="shared" ref="H13" si="1">+H10-H11-H12</f>
+        <f t="shared" ref="H13:I13" si="1">+H10-H11-H12</f>
         <v>0</v>
       </c>
-      <c r="I13" s="22"/>
+      <c r="I13" s="22">
+        <f t="shared" si="1"/>
+        <v>1375</v>
+      </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
@@ -1528,10 +1592,12 @@
       <c r="AE13" s="22"/>
       <c r="AF13" s="22"/>
       <c r="AG13" s="22"/>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -1543,7 +1609,9 @@
         <v>422.8</v>
       </c>
       <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="I14" s="22">
+        <v>482.7</v>
+      </c>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
@@ -1568,10 +1636,12 @@
       <c r="AE14" s="22"/>
       <c r="AF14" s="22"/>
       <c r="AG14" s="22"/>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -1583,7 +1653,9 @@
         <v>313.60000000000002</v>
       </c>
       <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
+      <c r="I15" s="22">
+        <v>345.2</v>
+      </c>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
@@ -1608,10 +1680,12 @@
       <c r="AE15" s="22"/>
       <c r="AF15" s="22"/>
       <c r="AG15" s="22"/>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -1623,7 +1697,9 @@
         <v>3.3</v>
       </c>
       <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+      <c r="I16" s="22">
+        <v>2.4</v>
+      </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
@@ -1648,10 +1724,12 @@
       <c r="AE16" s="22"/>
       <c r="AF16" s="22"/>
       <c r="AG16" s="22"/>
-    </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+    </row>
+    <row r="17" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -1663,7 +1741,9 @@
         <v>1.9</v>
       </c>
       <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="I17" s="22">
+        <v>3.1</v>
+      </c>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
@@ -1688,10 +1768,12 @@
       <c r="AE17" s="22"/>
       <c r="AF17" s="22"/>
       <c r="AG17" s="22"/>
-    </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
+    </row>
+    <row r="18" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
@@ -1703,7 +1785,9 @@
         <v>-14.5</v>
       </c>
       <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
+      <c r="I18" s="22">
+        <v>0</v>
+      </c>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
@@ -1728,10 +1812,12 @@
       <c r="AE18" s="22"/>
       <c r="AF18" s="22"/>
       <c r="AG18" s="22"/>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
+    </row>
+    <row r="19" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="22">
         <f t="shared" ref="C19:F19" si="2">+C13-SUM(C14:C15)+C16+C17+C18</f>
@@ -1754,10 +1840,13 @@
         <v>475.69999999999976</v>
       </c>
       <c r="H19" s="22">
-        <f t="shared" ref="H19" si="3">+H13-SUM(H14:H15)+H16+H17+H18</f>
+        <f t="shared" ref="H19:I19" si="3">+H13-SUM(H14:H15)+H16+H17+H18</f>
         <v>0</v>
       </c>
-      <c r="I19" s="22"/>
+      <c r="I19" s="22">
+        <f t="shared" si="3"/>
+        <v>552.6</v>
+      </c>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
@@ -1782,10 +1871,12 @@
       <c r="AE19" s="22"/>
       <c r="AF19" s="22"/>
       <c r="AG19" s="22"/>
-    </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="22"/>
+    </row>
+    <row r="20" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -1797,7 +1888,9 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
+      <c r="I20" s="22">
+        <v>5.4</v>
+      </c>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
@@ -1822,10 +1915,12 @@
       <c r="AE20" s="22"/>
       <c r="AF20" s="22"/>
       <c r="AG20" s="22"/>
-    </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
+    </row>
+    <row r="21" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -1837,7 +1932,9 @@
         <v>47.7</v>
       </c>
       <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="I21" s="22">
+        <v>49</v>
+      </c>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
@@ -1862,10 +1959,12 @@
       <c r="AE21" s="22"/>
       <c r="AF21" s="22"/>
       <c r="AG21" s="22"/>
-    </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="22"/>
+    </row>
+    <row r="22" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="22">
         <f t="shared" ref="C22:F22" si="4">+C19+C20-C21</f>
@@ -1888,10 +1987,13 @@
         <v>432.0999999999998</v>
       </c>
       <c r="H22" s="22">
-        <f t="shared" ref="H22" si="5">+H19+H20-H21</f>
+        <f t="shared" ref="H22:I22" si="5">+H19+H20-H21</f>
         <v>0</v>
       </c>
-      <c r="I22" s="22"/>
+      <c r="I22" s="22">
+        <f t="shared" si="5"/>
+        <v>509</v>
+      </c>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
@@ -1916,10 +2018,12 @@
       <c r="AE22" s="22"/>
       <c r="AF22" s="22"/>
       <c r="AG22" s="22"/>
-    </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="22"/>
+    </row>
+    <row r="23" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -1931,7 +2035,9 @@
         <v>106.7</v>
       </c>
       <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
+      <c r="I23" s="22">
+        <v>126.7</v>
+      </c>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
@@ -1956,10 +2062,12 @@
       <c r="AE23" s="22"/>
       <c r="AF23" s="22"/>
       <c r="AG23" s="22"/>
-    </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="22"/>
+    </row>
+    <row r="24" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -1972,8 +2080,14 @@
         <f>+G22-G23</f>
         <v>325.39999999999981</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
+      <c r="H24" s="22">
+        <f t="shared" ref="H24:I24" si="6">+H22-H23</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="22">
+        <f t="shared" si="6"/>
+        <v>382.3</v>
+      </c>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
@@ -1998,10 +2112,12 @@
       <c r="AE24" s="22"/>
       <c r="AF24" s="22"/>
       <c r="AG24" s="22"/>
-    </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="22"/>
+    </row>
+    <row r="25" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -2013,7 +2129,9 @@
         <v>2.5</v>
       </c>
       <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
+      <c r="I25" s="22">
+        <v>2.8</v>
+      </c>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
@@ -2038,25 +2156,27 @@
       <c r="AE25" s="22"/>
       <c r="AF25" s="22"/>
       <c r="AG25" s="22"/>
-    </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH25" s="22"/>
+      <c r="AI25" s="22"/>
+    </row>
+    <row r="26" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B26" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="22">
-        <f t="shared" ref="C26:F26" si="6">+C24-C25</f>
+        <f t="shared" ref="C26:F26" si="7">+C24-C25</f>
         <v>0</v>
       </c>
       <c r="D26" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E26" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>321.79999999999995</v>
       </c>
       <c r="F26" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G26" s="22">
@@ -2064,10 +2184,13 @@
         <v>322.89999999999981</v>
       </c>
       <c r="H26" s="22">
-        <f t="shared" ref="H26" si="7">+H24-H25</f>
+        <f t="shared" ref="H26:I26" si="8">+H24-H25</f>
         <v>0</v>
       </c>
-      <c r="I26" s="22"/>
+      <c r="I26" s="22">
+        <f t="shared" si="8"/>
+        <v>379.5</v>
+      </c>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
@@ -2092,8 +2215,10 @@
       <c r="AE26" s="22"/>
       <c r="AF26" s="22"/>
       <c r="AG26" s="22"/>
-    </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH26" s="22"/>
+      <c r="AI26" s="22"/>
+    </row>
+    <row r="27" spans="2:35" x14ac:dyDescent="0.2">
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -2125,17 +2250,19 @@
       <c r="AE27" s="22"/>
       <c r="AF27" s="22"/>
       <c r="AG27" s="22"/>
-    </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH27" s="22"/>
+      <c r="AI27" s="22"/>
+    </row>
+    <row r="28" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="24" t="e">
-        <f t="shared" ref="C28:D28" si="8">+C26/C29</f>
+        <f t="shared" ref="C28:D28" si="9">+C26/C29</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D28" s="24" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E28" s="24">
@@ -2143,19 +2270,25 @@
         <v>2.6442070665571071</v>
       </c>
       <c r="F28" s="24" t="e">
-        <f t="shared" ref="F28:H28" si="9">+F26/F29</f>
+        <f t="shared" ref="F28:J28" si="10">+F26/F29</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G28" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.6796680497925296</v>
       </c>
       <c r="H28" s="24" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="I28" s="24">
+        <f t="shared" si="10"/>
+        <v>3.240819812126388</v>
+      </c>
+      <c r="J28" s="24" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
@@ -2179,8 +2312,10 @@
       <c r="AE28" s="22"/>
       <c r="AF28" s="22"/>
       <c r="AG28" s="22"/>
-    </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH28" s="22"/>
+      <c r="AI28" s="22"/>
+    </row>
+    <row r="29" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
@@ -2194,7 +2329,9 @@
         <v>120.5</v>
       </c>
       <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
+      <c r="I29" s="22">
+        <v>117.1</v>
+      </c>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
@@ -2219,8 +2356,10 @@
       <c r="AE29" s="22"/>
       <c r="AF29" s="22"/>
       <c r="AG29" s="22"/>
-    </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH29" s="22"/>
+      <c r="AI29" s="22"/>
+    </row>
+    <row r="30" spans="2:35" x14ac:dyDescent="0.2">
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -2252,8 +2391,10 @@
       <c r="AE30" s="22"/>
       <c r="AF30" s="22"/>
       <c r="AG30" s="22"/>
-    </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH30" s="22"/>
+      <c r="AI30" s="22"/>
+    </row>
+    <row r="31" spans="2:35" x14ac:dyDescent="0.2">
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -2285,8 +2426,10 @@
       <c r="AE31" s="22"/>
       <c r="AF31" s="22"/>
       <c r="AG31" s="22"/>
-    </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH31" s="22"/>
+      <c r="AI31" s="22"/>
+    </row>
+    <row r="32" spans="2:35" x14ac:dyDescent="0.2">
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -2318,8 +2461,10 @@
       <c r="AE32" s="22"/>
       <c r="AF32" s="22"/>
       <c r="AG32" s="22"/>
-    </row>
-    <row r="33" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH32" s="22"/>
+      <c r="AI32" s="22"/>
+    </row>
+    <row r="33" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -2351,8 +2496,10 @@
       <c r="AE33" s="22"/>
       <c r="AF33" s="22"/>
       <c r="AG33" s="22"/>
-    </row>
-    <row r="34" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH33" s="22"/>
+      <c r="AI33" s="22"/>
+    </row>
+    <row r="34" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -2384,8 +2531,10 @@
       <c r="AE34" s="22"/>
       <c r="AF34" s="22"/>
       <c r="AG34" s="22"/>
-    </row>
-    <row r="35" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH34" s="22"/>
+      <c r="AI34" s="22"/>
+    </row>
+    <row r="35" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -2417,8 +2566,10 @@
       <c r="AE35" s="22"/>
       <c r="AF35" s="22"/>
       <c r="AG35" s="22"/>
-    </row>
-    <row r="36" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH35" s="22"/>
+      <c r="AI35" s="22"/>
+    </row>
+    <row r="36" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -2450,8 +2601,10 @@
       <c r="AE36" s="22"/>
       <c r="AF36" s="22"/>
       <c r="AG36" s="22"/>
-    </row>
-    <row r="37" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH36" s="22"/>
+      <c r="AI36" s="22"/>
+    </row>
+    <row r="37" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -2483,8 +2636,10 @@
       <c r="AE37" s="22"/>
       <c r="AF37" s="22"/>
       <c r="AG37" s="22"/>
-    </row>
-    <row r="38" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH37" s="22"/>
+      <c r="AI37" s="22"/>
+    </row>
+    <row r="38" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -2516,8 +2671,10 @@
       <c r="AE38" s="22"/>
       <c r="AF38" s="22"/>
       <c r="AG38" s="22"/>
-    </row>
-    <row r="39" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH38" s="22"/>
+      <c r="AI38" s="22"/>
+    </row>
+    <row r="39" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -2549,8 +2706,10 @@
       <c r="AE39" s="22"/>
       <c r="AF39" s="22"/>
       <c r="AG39" s="22"/>
-    </row>
-    <row r="40" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH39" s="22"/>
+      <c r="AI39" s="22"/>
+    </row>
+    <row r="40" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -2582,8 +2741,10 @@
       <c r="AE40" s="22"/>
       <c r="AF40" s="22"/>
       <c r="AG40" s="22"/>
-    </row>
-    <row r="41" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH40" s="22"/>
+      <c r="AI40" s="22"/>
+    </row>
+    <row r="41" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -2615,8 +2776,10 @@
       <c r="AE41" s="22"/>
       <c r="AF41" s="22"/>
       <c r="AG41" s="22"/>
-    </row>
-    <row r="42" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH41" s="22"/>
+      <c r="AI41" s="22"/>
+    </row>
+    <row r="42" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
@@ -2648,8 +2811,10 @@
       <c r="AE42" s="22"/>
       <c r="AF42" s="22"/>
       <c r="AG42" s="22"/>
-    </row>
-    <row r="43" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH42" s="22"/>
+      <c r="AI42" s="22"/>
+    </row>
+    <row r="43" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -2681,8 +2846,10 @@
       <c r="AE43" s="22"/>
       <c r="AF43" s="22"/>
       <c r="AG43" s="22"/>
-    </row>
-    <row r="44" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH43" s="22"/>
+      <c r="AI43" s="22"/>
+    </row>
+    <row r="44" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
@@ -2714,8 +2881,10 @@
       <c r="AE44" s="22"/>
       <c r="AF44" s="22"/>
       <c r="AG44" s="22"/>
-    </row>
-    <row r="45" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH44" s="22"/>
+      <c r="AI44" s="22"/>
+    </row>
+    <row r="45" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
@@ -2747,8 +2916,10 @@
       <c r="AE45" s="22"/>
       <c r="AF45" s="22"/>
       <c r="AG45" s="22"/>
-    </row>
-    <row r="46" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH45" s="22"/>
+      <c r="AI45" s="22"/>
+    </row>
+    <row r="46" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
@@ -2780,8 +2951,10 @@
       <c r="AE46" s="22"/>
       <c r="AF46" s="22"/>
       <c r="AG46" s="22"/>
-    </row>
-    <row r="47" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH46" s="22"/>
+      <c r="AI46" s="22"/>
+    </row>
+    <row r="47" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
@@ -2813,8 +2986,10 @@
       <c r="AE47" s="22"/>
       <c r="AF47" s="22"/>
       <c r="AG47" s="22"/>
-    </row>
-    <row r="48" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH47" s="22"/>
+      <c r="AI47" s="22"/>
+    </row>
+    <row r="48" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
@@ -2846,8 +3021,10 @@
       <c r="AE48" s="22"/>
       <c r="AF48" s="22"/>
       <c r="AG48" s="22"/>
-    </row>
-    <row r="49" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH48" s="22"/>
+      <c r="AI48" s="22"/>
+    </row>
+    <row r="49" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
@@ -2879,8 +3056,10 @@
       <c r="AE49" s="22"/>
       <c r="AF49" s="22"/>
       <c r="AG49" s="22"/>
-    </row>
-    <row r="50" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH49" s="22"/>
+      <c r="AI49" s="22"/>
+    </row>
+    <row r="50" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
@@ -2912,8 +3091,10 @@
       <c r="AE50" s="22"/>
       <c r="AF50" s="22"/>
       <c r="AG50" s="22"/>
-    </row>
-    <row r="51" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH50" s="22"/>
+      <c r="AI50" s="22"/>
+    </row>
+    <row r="51" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -2945,8 +3126,10 @@
       <c r="AE51" s="22"/>
       <c r="AF51" s="22"/>
       <c r="AG51" s="22"/>
-    </row>
-    <row r="52" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH51" s="22"/>
+      <c r="AI51" s="22"/>
+    </row>
+    <row r="52" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
@@ -2978,8 +3161,10 @@
       <c r="AE52" s="22"/>
       <c r="AF52" s="22"/>
       <c r="AG52" s="22"/>
-    </row>
-    <row r="53" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH52" s="22"/>
+      <c r="AI52" s="22"/>
+    </row>
+    <row r="53" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
@@ -3011,8 +3196,10 @@
       <c r="AE53" s="22"/>
       <c r="AF53" s="22"/>
       <c r="AG53" s="22"/>
-    </row>
-    <row r="54" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH53" s="22"/>
+      <c r="AI53" s="22"/>
+    </row>
+    <row r="54" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
@@ -3044,8 +3231,10 @@
       <c r="AE54" s="22"/>
       <c r="AF54" s="22"/>
       <c r="AG54" s="22"/>
-    </row>
-    <row r="55" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH54" s="22"/>
+      <c r="AI54" s="22"/>
+    </row>
+    <row r="55" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
@@ -3077,8 +3266,10 @@
       <c r="AE55" s="22"/>
       <c r="AF55" s="22"/>
       <c r="AG55" s="22"/>
-    </row>
-    <row r="56" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH55" s="22"/>
+      <c r="AI55" s="22"/>
+    </row>
+    <row r="56" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
@@ -3110,8 +3301,10 @@
       <c r="AE56" s="22"/>
       <c r="AF56" s="22"/>
       <c r="AG56" s="22"/>
-    </row>
-    <row r="57" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH56" s="22"/>
+      <c r="AI56" s="22"/>
+    </row>
+    <row r="57" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
@@ -3143,8 +3336,10 @@
       <c r="AE57" s="22"/>
       <c r="AF57" s="22"/>
       <c r="AG57" s="22"/>
-    </row>
-    <row r="58" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH57" s="22"/>
+      <c r="AI57" s="22"/>
+    </row>
+    <row r="58" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
@@ -3176,8 +3371,10 @@
       <c r="AE58" s="22"/>
       <c r="AF58" s="22"/>
       <c r="AG58" s="22"/>
-    </row>
-    <row r="59" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH58" s="22"/>
+      <c r="AI58" s="22"/>
+    </row>
+    <row r="59" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
@@ -3209,8 +3406,10 @@
       <c r="AE59" s="22"/>
       <c r="AF59" s="22"/>
       <c r="AG59" s="22"/>
-    </row>
-    <row r="60" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH59" s="22"/>
+      <c r="AI59" s="22"/>
+    </row>
+    <row r="60" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
@@ -3242,8 +3441,10 @@
       <c r="AE60" s="22"/>
       <c r="AF60" s="22"/>
       <c r="AG60" s="22"/>
-    </row>
-    <row r="61" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH60" s="22"/>
+      <c r="AI60" s="22"/>
+    </row>
+    <row r="61" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
@@ -3275,8 +3476,10 @@
       <c r="AE61" s="22"/>
       <c r="AF61" s="22"/>
       <c r="AG61" s="22"/>
-    </row>
-    <row r="62" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH61" s="22"/>
+      <c r="AI61" s="22"/>
+    </row>
+    <row r="62" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
@@ -3308,8 +3511,10 @@
       <c r="AE62" s="22"/>
       <c r="AF62" s="22"/>
       <c r="AG62" s="22"/>
-    </row>
-    <row r="63" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH62" s="22"/>
+      <c r="AI62" s="22"/>
+    </row>
+    <row r="63" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
@@ -3341,8 +3546,10 @@
       <c r="AE63" s="22"/>
       <c r="AF63" s="22"/>
       <c r="AG63" s="22"/>
-    </row>
-    <row r="64" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH63" s="22"/>
+      <c r="AI63" s="22"/>
+    </row>
+    <row r="64" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22"/>
@@ -3374,8 +3581,10 @@
       <c r="AE64" s="22"/>
       <c r="AF64" s="22"/>
       <c r="AG64" s="22"/>
-    </row>
-    <row r="65" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH64" s="22"/>
+      <c r="AI64" s="22"/>
+    </row>
+    <row r="65" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C65" s="22"/>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
@@ -3407,8 +3616,10 @@
       <c r="AE65" s="22"/>
       <c r="AF65" s="22"/>
       <c r="AG65" s="22"/>
-    </row>
-    <row r="66" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH65" s="22"/>
+      <c r="AI65" s="22"/>
+    </row>
+    <row r="66" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C66" s="22"/>
       <c r="D66" s="22"/>
       <c r="E66" s="22"/>
@@ -3440,8 +3651,10 @@
       <c r="AE66" s="22"/>
       <c r="AF66" s="22"/>
       <c r="AG66" s="22"/>
-    </row>
-    <row r="67" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH66" s="22"/>
+      <c r="AI66" s="22"/>
+    </row>
+    <row r="67" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
@@ -3473,8 +3686,10 @@
       <c r="AE67" s="22"/>
       <c r="AF67" s="22"/>
       <c r="AG67" s="22"/>
-    </row>
-    <row r="68" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH67" s="22"/>
+      <c r="AI67" s="22"/>
+    </row>
+    <row r="68" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
@@ -3506,8 +3721,10 @@
       <c r="AE68" s="22"/>
       <c r="AF68" s="22"/>
       <c r="AG68" s="22"/>
-    </row>
-    <row r="69" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH68" s="22"/>
+      <c r="AI68" s="22"/>
+    </row>
+    <row r="69" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
@@ -3539,8 +3756,10 @@
       <c r="AE69" s="22"/>
       <c r="AF69" s="22"/>
       <c r="AG69" s="22"/>
-    </row>
-    <row r="70" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH69" s="22"/>
+      <c r="AI69" s="22"/>
+    </row>
+    <row r="70" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
@@ -3572,8 +3791,10 @@
       <c r="AE70" s="22"/>
       <c r="AF70" s="22"/>
       <c r="AG70" s="22"/>
-    </row>
-    <row r="71" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH70" s="22"/>
+      <c r="AI70" s="22"/>
+    </row>
+    <row r="71" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
       <c r="E71" s="22"/>
@@ -3605,8 +3826,10 @@
       <c r="AE71" s="22"/>
       <c r="AF71" s="22"/>
       <c r="AG71" s="22"/>
-    </row>
-    <row r="72" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH71" s="22"/>
+      <c r="AI71" s="22"/>
+    </row>
+    <row r="72" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C72" s="22"/>
       <c r="D72" s="22"/>
       <c r="E72" s="22"/>
@@ -3638,8 +3861,10 @@
       <c r="AE72" s="22"/>
       <c r="AF72" s="22"/>
       <c r="AG72" s="22"/>
-    </row>
-    <row r="73" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH72" s="22"/>
+      <c r="AI72" s="22"/>
+    </row>
+    <row r="73" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C73" s="22"/>
       <c r="D73" s="22"/>
       <c r="E73" s="22"/>
@@ -3671,8 +3896,10 @@
       <c r="AE73" s="22"/>
       <c r="AF73" s="22"/>
       <c r="AG73" s="22"/>
-    </row>
-    <row r="74" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH73" s="22"/>
+      <c r="AI73" s="22"/>
+    </row>
+    <row r="74" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
@@ -3704,8 +3931,10 @@
       <c r="AE74" s="22"/>
       <c r="AF74" s="22"/>
       <c r="AG74" s="22"/>
-    </row>
-    <row r="75" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH74" s="22"/>
+      <c r="AI74" s="22"/>
+    </row>
+    <row r="75" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C75" s="22"/>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
@@ -3737,8 +3966,10 @@
       <c r="AE75" s="22"/>
       <c r="AF75" s="22"/>
       <c r="AG75" s="22"/>
-    </row>
-    <row r="76" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH75" s="22"/>
+      <c r="AI75" s="22"/>
+    </row>
+    <row r="76" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C76" s="22"/>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
@@ -3770,8 +4001,10 @@
       <c r="AE76" s="22"/>
       <c r="AF76" s="22"/>
       <c r="AG76" s="22"/>
-    </row>
-    <row r="77" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH76" s="22"/>
+      <c r="AI76" s="22"/>
+    </row>
+    <row r="77" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C77" s="22"/>
       <c r="D77" s="22"/>
       <c r="E77" s="22"/>
@@ -3803,8 +4036,10 @@
       <c r="AE77" s="22"/>
       <c r="AF77" s="22"/>
       <c r="AG77" s="22"/>
-    </row>
-    <row r="78" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH77" s="22"/>
+      <c r="AI77" s="22"/>
+    </row>
+    <row r="78" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C78" s="22"/>
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
@@ -3836,8 +4071,10 @@
       <c r="AE78" s="22"/>
       <c r="AF78" s="22"/>
       <c r="AG78" s="22"/>
-    </row>
-    <row r="79" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH78" s="22"/>
+      <c r="AI78" s="22"/>
+    </row>
+    <row r="79" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C79" s="22"/>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
@@ -3869,8 +4106,10 @@
       <c r="AE79" s="22"/>
       <c r="AF79" s="22"/>
       <c r="AG79" s="22"/>
-    </row>
-    <row r="80" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH79" s="22"/>
+      <c r="AI79" s="22"/>
+    </row>
+    <row r="80" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C80" s="22"/>
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
@@ -3902,8 +4141,10 @@
       <c r="AE80" s="22"/>
       <c r="AF80" s="22"/>
       <c r="AG80" s="22"/>
-    </row>
-    <row r="81" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH80" s="22"/>
+      <c r="AI80" s="22"/>
+    </row>
+    <row r="81" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C81" s="22"/>
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
@@ -3935,8 +4176,10 @@
       <c r="AE81" s="22"/>
       <c r="AF81" s="22"/>
       <c r="AG81" s="22"/>
-    </row>
-    <row r="82" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH81" s="22"/>
+      <c r="AI81" s="22"/>
+    </row>
+    <row r="82" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C82" s="22"/>
       <c r="D82" s="22"/>
       <c r="E82" s="22"/>
@@ -3968,8 +4211,10 @@
       <c r="AE82" s="22"/>
       <c r="AF82" s="22"/>
       <c r="AG82" s="22"/>
-    </row>
-    <row r="83" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH82" s="22"/>
+      <c r="AI82" s="22"/>
+    </row>
+    <row r="83" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C83" s="22"/>
       <c r="D83" s="22"/>
       <c r="E83" s="22"/>
@@ -4001,8 +4246,10 @@
       <c r="AE83" s="22"/>
       <c r="AF83" s="22"/>
       <c r="AG83" s="22"/>
-    </row>
-    <row r="84" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH83" s="22"/>
+      <c r="AI83" s="22"/>
+    </row>
+    <row r="84" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C84" s="22"/>
       <c r="D84" s="22"/>
       <c r="E84" s="22"/>
@@ -4034,8 +4281,10 @@
       <c r="AE84" s="22"/>
       <c r="AF84" s="22"/>
       <c r="AG84" s="22"/>
-    </row>
-    <row r="85" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH84" s="22"/>
+      <c r="AI84" s="22"/>
+    </row>
+    <row r="85" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
       <c r="E85" s="22"/>
@@ -4067,8 +4316,10 @@
       <c r="AE85" s="22"/>
       <c r="AF85" s="22"/>
       <c r="AG85" s="22"/>
-    </row>
-    <row r="86" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH85" s="22"/>
+      <c r="AI85" s="22"/>
+    </row>
+    <row r="86" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C86" s="22"/>
       <c r="D86" s="22"/>
       <c r="E86" s="22"/>
@@ -4100,8 +4351,10 @@
       <c r="AE86" s="22"/>
       <c r="AF86" s="22"/>
       <c r="AG86" s="22"/>
-    </row>
-    <row r="87" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH86" s="22"/>
+      <c r="AI86" s="22"/>
+    </row>
+    <row r="87" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C87" s="22"/>
       <c r="D87" s="22"/>
       <c r="E87" s="22"/>
@@ -4133,8 +4386,10 @@
       <c r="AE87" s="22"/>
       <c r="AF87" s="22"/>
       <c r="AG87" s="22"/>
-    </row>
-    <row r="88" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH87" s="22"/>
+      <c r="AI87" s="22"/>
+    </row>
+    <row r="88" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C88" s="22"/>
       <c r="D88" s="22"/>
       <c r="E88" s="22"/>
@@ -4166,8 +4421,10 @@
       <c r="AE88" s="22"/>
       <c r="AF88" s="22"/>
       <c r="AG88" s="22"/>
-    </row>
-    <row r="89" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH88" s="22"/>
+      <c r="AI88" s="22"/>
+    </row>
+    <row r="89" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C89" s="22"/>
       <c r="D89" s="22"/>
       <c r="E89" s="22"/>
@@ -4199,8 +4456,10 @@
       <c r="AE89" s="22"/>
       <c r="AF89" s="22"/>
       <c r="AG89" s="22"/>
-    </row>
-    <row r="90" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH89" s="22"/>
+      <c r="AI89" s="22"/>
+    </row>
+    <row r="90" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
       <c r="E90" s="22"/>
@@ -4232,8 +4491,10 @@
       <c r="AE90" s="22"/>
       <c r="AF90" s="22"/>
       <c r="AG90" s="22"/>
-    </row>
-    <row r="91" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH90" s="22"/>
+      <c r="AI90" s="22"/>
+    </row>
+    <row r="91" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C91" s="22"/>
       <c r="D91" s="22"/>
       <c r="E91" s="22"/>
@@ -4265,8 +4526,10 @@
       <c r="AE91" s="22"/>
       <c r="AF91" s="22"/>
       <c r="AG91" s="22"/>
-    </row>
-    <row r="92" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH91" s="22"/>
+      <c r="AI91" s="22"/>
+    </row>
+    <row r="92" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C92" s="22"/>
       <c r="D92" s="22"/>
       <c r="E92" s="22"/>
@@ -4298,8 +4561,10 @@
       <c r="AE92" s="22"/>
       <c r="AF92" s="22"/>
       <c r="AG92" s="22"/>
-    </row>
-    <row r="93" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH92" s="22"/>
+      <c r="AI92" s="22"/>
+    </row>
+    <row r="93" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C93" s="22"/>
       <c r="D93" s="22"/>
       <c r="E93" s="22"/>
@@ -4331,8 +4596,10 @@
       <c r="AE93" s="22"/>
       <c r="AF93" s="22"/>
       <c r="AG93" s="22"/>
-    </row>
-    <row r="94" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH93" s="22"/>
+      <c r="AI93" s="22"/>
+    </row>
+    <row r="94" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C94" s="22"/>
       <c r="D94" s="22"/>
       <c r="E94" s="22"/>
@@ -4364,8 +4631,10 @@
       <c r="AE94" s="22"/>
       <c r="AF94" s="22"/>
       <c r="AG94" s="22"/>
-    </row>
-    <row r="95" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH94" s="22"/>
+      <c r="AI94" s="22"/>
+    </row>
+    <row r="95" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C95" s="22"/>
       <c r="D95" s="22"/>
       <c r="E95" s="22"/>
@@ -4397,8 +4666,10 @@
       <c r="AE95" s="22"/>
       <c r="AF95" s="22"/>
       <c r="AG95" s="22"/>
-    </row>
-    <row r="96" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH95" s="22"/>
+      <c r="AI95" s="22"/>
+    </row>
+    <row r="96" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C96" s="22"/>
       <c r="D96" s="22"/>
       <c r="E96" s="22"/>
@@ -4430,8 +4701,10 @@
       <c r="AE96" s="22"/>
       <c r="AF96" s="22"/>
       <c r="AG96" s="22"/>
-    </row>
-    <row r="97" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH96" s="22"/>
+      <c r="AI96" s="22"/>
+    </row>
+    <row r="97" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C97" s="22"/>
       <c r="D97" s="22"/>
       <c r="E97" s="22"/>
@@ -4463,8 +4736,10 @@
       <c r="AE97" s="22"/>
       <c r="AF97" s="22"/>
       <c r="AG97" s="22"/>
-    </row>
-    <row r="98" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH97" s="22"/>
+      <c r="AI97" s="22"/>
+    </row>
+    <row r="98" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C98" s="22"/>
       <c r="D98" s="22"/>
       <c r="E98" s="22"/>
@@ -4496,8 +4771,10 @@
       <c r="AE98" s="22"/>
       <c r="AF98" s="22"/>
       <c r="AG98" s="22"/>
-    </row>
-    <row r="99" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH98" s="22"/>
+      <c r="AI98" s="22"/>
+    </row>
+    <row r="99" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C99" s="22"/>
       <c r="D99" s="22"/>
       <c r="E99" s="22"/>
@@ -4529,8 +4806,10 @@
       <c r="AE99" s="22"/>
       <c r="AF99" s="22"/>
       <c r="AG99" s="22"/>
-    </row>
-    <row r="100" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH99" s="22"/>
+      <c r="AI99" s="22"/>
+    </row>
+    <row r="100" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C100" s="22"/>
       <c r="D100" s="22"/>
       <c r="E100" s="22"/>
@@ -4562,8 +4841,10 @@
       <c r="AE100" s="22"/>
       <c r="AF100" s="22"/>
       <c r="AG100" s="22"/>
-    </row>
-    <row r="101" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH100" s="22"/>
+      <c r="AI100" s="22"/>
+    </row>
+    <row r="101" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C101" s="22"/>
       <c r="D101" s="22"/>
       <c r="E101" s="22"/>
@@ -4595,8 +4876,10 @@
       <c r="AE101" s="22"/>
       <c r="AF101" s="22"/>
       <c r="AG101" s="22"/>
-    </row>
-    <row r="102" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH101" s="22"/>
+      <c r="AI101" s="22"/>
+    </row>
+    <row r="102" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C102" s="22"/>
       <c r="D102" s="22"/>
       <c r="E102" s="22"/>
@@ -4628,8 +4911,10 @@
       <c r="AE102" s="22"/>
       <c r="AF102" s="22"/>
       <c r="AG102" s="22"/>
-    </row>
-    <row r="103" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH102" s="22"/>
+      <c r="AI102" s="22"/>
+    </row>
+    <row r="103" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C103" s="22"/>
       <c r="D103" s="22"/>
       <c r="E103" s="22"/>
@@ -4661,8 +4946,10 @@
       <c r="AE103" s="22"/>
       <c r="AF103" s="22"/>
       <c r="AG103" s="22"/>
-    </row>
-    <row r="104" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH103" s="22"/>
+      <c r="AI103" s="22"/>
+    </row>
+    <row r="104" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C104" s="22"/>
       <c r="D104" s="22"/>
       <c r="E104" s="22"/>
@@ -4694,8 +4981,10 @@
       <c r="AE104" s="22"/>
       <c r="AF104" s="22"/>
       <c r="AG104" s="22"/>
-    </row>
-    <row r="105" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH104" s="22"/>
+      <c r="AI104" s="22"/>
+    </row>
+    <row r="105" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C105" s="22"/>
       <c r="D105" s="22"/>
       <c r="E105" s="22"/>
@@ -4727,8 +5016,10 @@
       <c r="AE105" s="22"/>
       <c r="AF105" s="22"/>
       <c r="AG105" s="22"/>
-    </row>
-    <row r="106" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH105" s="22"/>
+      <c r="AI105" s="22"/>
+    </row>
+    <row r="106" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C106" s="22"/>
       <c r="D106" s="22"/>
       <c r="E106" s="22"/>
@@ -4760,8 +5051,10 @@
       <c r="AE106" s="22"/>
       <c r="AF106" s="22"/>
       <c r="AG106" s="22"/>
-    </row>
-    <row r="107" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH106" s="22"/>
+      <c r="AI106" s="22"/>
+    </row>
+    <row r="107" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C107" s="22"/>
       <c r="D107" s="22"/>
       <c r="E107" s="22"/>
@@ -4793,8 +5086,10 @@
       <c r="AE107" s="22"/>
       <c r="AF107" s="22"/>
       <c r="AG107" s="22"/>
-    </row>
-    <row r="108" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH107" s="22"/>
+      <c r="AI107" s="22"/>
+    </row>
+    <row r="108" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C108" s="22"/>
       <c r="D108" s="22"/>
       <c r="E108" s="22"/>
@@ -4826,8 +5121,10 @@
       <c r="AE108" s="22"/>
       <c r="AF108" s="22"/>
       <c r="AG108" s="22"/>
-    </row>
-    <row r="109" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH108" s="22"/>
+      <c r="AI108" s="22"/>
+    </row>
+    <row r="109" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C109" s="22"/>
       <c r="D109" s="22"/>
       <c r="E109" s="22"/>
@@ -4859,8 +5156,10 @@
       <c r="AE109" s="22"/>
       <c r="AF109" s="22"/>
       <c r="AG109" s="22"/>
-    </row>
-    <row r="110" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH109" s="22"/>
+      <c r="AI109" s="22"/>
+    </row>
+    <row r="110" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C110" s="22"/>
       <c r="D110" s="22"/>
       <c r="E110" s="22"/>
@@ -4892,8 +5191,10 @@
       <c r="AE110" s="22"/>
       <c r="AF110" s="22"/>
       <c r="AG110" s="22"/>
-    </row>
-    <row r="111" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH110" s="22"/>
+      <c r="AI110" s="22"/>
+    </row>
+    <row r="111" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C111" s="22"/>
       <c r="D111" s="22"/>
       <c r="E111" s="22"/>
@@ -4925,8 +5226,10 @@
       <c r="AE111" s="22"/>
       <c r="AF111" s="22"/>
       <c r="AG111" s="22"/>
-    </row>
-    <row r="112" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH111" s="22"/>
+      <c r="AI111" s="22"/>
+    </row>
+    <row r="112" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C112" s="22"/>
       <c r="D112" s="22"/>
       <c r="E112" s="22"/>
@@ -4958,8 +5261,10 @@
       <c r="AE112" s="22"/>
       <c r="AF112" s="22"/>
       <c r="AG112" s="22"/>
-    </row>
-    <row r="113" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH112" s="22"/>
+      <c r="AI112" s="22"/>
+    </row>
+    <row r="113" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C113" s="22"/>
       <c r="D113" s="22"/>
       <c r="E113" s="22"/>
@@ -4991,8 +5296,10 @@
       <c r="AE113" s="22"/>
       <c r="AF113" s="22"/>
       <c r="AG113" s="22"/>
-    </row>
-    <row r="114" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH113" s="22"/>
+      <c r="AI113" s="22"/>
+    </row>
+    <row r="114" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C114" s="22"/>
       <c r="D114" s="22"/>
       <c r="E114" s="22"/>
@@ -5024,8 +5331,10 @@
       <c r="AE114" s="22"/>
       <c r="AF114" s="22"/>
       <c r="AG114" s="22"/>
-    </row>
-    <row r="115" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH114" s="22"/>
+      <c r="AI114" s="22"/>
+    </row>
+    <row r="115" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C115" s="22"/>
       <c r="D115" s="22"/>
       <c r="E115" s="22"/>
@@ -5057,8 +5366,10 @@
       <c r="AE115" s="22"/>
       <c r="AF115" s="22"/>
       <c r="AG115" s="22"/>
-    </row>
-    <row r="116" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH115" s="22"/>
+      <c r="AI115" s="22"/>
+    </row>
+    <row r="116" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C116" s="22"/>
       <c r="D116" s="22"/>
       <c r="E116" s="22"/>
@@ -5090,8 +5401,10 @@
       <c r="AE116" s="22"/>
       <c r="AF116" s="22"/>
       <c r="AG116" s="22"/>
-    </row>
-    <row r="117" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH116" s="22"/>
+      <c r="AI116" s="22"/>
+    </row>
+    <row r="117" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C117" s="22"/>
       <c r="D117" s="22"/>
       <c r="E117" s="22"/>
@@ -5123,8 +5436,10 @@
       <c r="AE117" s="22"/>
       <c r="AF117" s="22"/>
       <c r="AG117" s="22"/>
-    </row>
-    <row r="118" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH117" s="22"/>
+      <c r="AI117" s="22"/>
+    </row>
+    <row r="118" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C118" s="22"/>
       <c r="D118" s="22"/>
       <c r="E118" s="22"/>
@@ -5156,8 +5471,10 @@
       <c r="AE118" s="22"/>
       <c r="AF118" s="22"/>
       <c r="AG118" s="22"/>
-    </row>
-    <row r="119" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH118" s="22"/>
+      <c r="AI118" s="22"/>
+    </row>
+    <row r="119" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C119" s="22"/>
       <c r="D119" s="22"/>
       <c r="E119" s="22"/>
@@ -5189,8 +5506,10 @@
       <c r="AE119" s="22"/>
       <c r="AF119" s="22"/>
       <c r="AG119" s="22"/>
-    </row>
-    <row r="120" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH119" s="22"/>
+      <c r="AI119" s="22"/>
+    </row>
+    <row r="120" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C120" s="22"/>
       <c r="D120" s="22"/>
       <c r="E120" s="22"/>
@@ -5222,8 +5541,10 @@
       <c r="AE120" s="22"/>
       <c r="AF120" s="22"/>
       <c r="AG120" s="22"/>
-    </row>
-    <row r="121" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH120" s="22"/>
+      <c r="AI120" s="22"/>
+    </row>
+    <row r="121" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C121" s="22"/>
       <c r="D121" s="22"/>
       <c r="E121" s="22"/>
@@ -5255,8 +5576,10 @@
       <c r="AE121" s="22"/>
       <c r="AF121" s="22"/>
       <c r="AG121" s="22"/>
-    </row>
-    <row r="122" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH121" s="22"/>
+      <c r="AI121" s="22"/>
+    </row>
+    <row r="122" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C122" s="22"/>
       <c r="D122" s="22"/>
       <c r="E122" s="22"/>
@@ -5288,8 +5611,10 @@
       <c r="AE122" s="22"/>
       <c r="AF122" s="22"/>
       <c r="AG122" s="22"/>
-    </row>
-    <row r="123" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH122" s="22"/>
+      <c r="AI122" s="22"/>
+    </row>
+    <row r="123" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C123" s="22"/>
       <c r="D123" s="22"/>
       <c r="E123" s="22"/>
@@ -5321,8 +5646,10 @@
       <c r="AE123" s="22"/>
       <c r="AF123" s="22"/>
       <c r="AG123" s="22"/>
-    </row>
-    <row r="124" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH123" s="22"/>
+      <c r="AI123" s="22"/>
+    </row>
+    <row r="124" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C124" s="22"/>
       <c r="D124" s="22"/>
       <c r="E124" s="22"/>
@@ -5354,8 +5681,10 @@
       <c r="AE124" s="22"/>
       <c r="AF124" s="22"/>
       <c r="AG124" s="22"/>
-    </row>
-    <row r="125" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH124" s="22"/>
+      <c r="AI124" s="22"/>
+    </row>
+    <row r="125" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C125" s="22"/>
       <c r="D125" s="22"/>
       <c r="E125" s="22"/>
@@ -5387,8 +5716,10 @@
       <c r="AE125" s="22"/>
       <c r="AF125" s="22"/>
       <c r="AG125" s="22"/>
-    </row>
-    <row r="126" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH125" s="22"/>
+      <c r="AI125" s="22"/>
+    </row>
+    <row r="126" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C126" s="22"/>
       <c r="D126" s="22"/>
       <c r="E126" s="22"/>
@@ -5420,8 +5751,10 @@
       <c r="AE126" s="22"/>
       <c r="AF126" s="22"/>
       <c r="AG126" s="22"/>
-    </row>
-    <row r="127" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH126" s="22"/>
+      <c r="AI126" s="22"/>
+    </row>
+    <row r="127" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C127" s="22"/>
       <c r="D127" s="22"/>
       <c r="E127" s="22"/>
@@ -5453,8 +5786,10 @@
       <c r="AE127" s="22"/>
       <c r="AF127" s="22"/>
       <c r="AG127" s="22"/>
-    </row>
-    <row r="128" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH127" s="22"/>
+      <c r="AI127" s="22"/>
+    </row>
+    <row r="128" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C128" s="22"/>
       <c r="D128" s="22"/>
       <c r="E128" s="22"/>
@@ -5486,8 +5821,10 @@
       <c r="AE128" s="22"/>
       <c r="AF128" s="22"/>
       <c r="AG128" s="22"/>
-    </row>
-    <row r="129" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH128" s="22"/>
+      <c r="AI128" s="22"/>
+    </row>
+    <row r="129" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C129" s="22"/>
       <c r="D129" s="22"/>
       <c r="E129" s="22"/>
@@ -5519,8 +5856,10 @@
       <c r="AE129" s="22"/>
       <c r="AF129" s="22"/>
       <c r="AG129" s="22"/>
-    </row>
-    <row r="130" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH129" s="22"/>
+      <c r="AI129" s="22"/>
+    </row>
+    <row r="130" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C130" s="22"/>
       <c r="D130" s="22"/>
       <c r="E130" s="22"/>
@@ -5552,8 +5891,10 @@
       <c r="AE130" s="22"/>
       <c r="AF130" s="22"/>
       <c r="AG130" s="22"/>
-    </row>
-    <row r="131" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH130" s="22"/>
+      <c r="AI130" s="22"/>
+    </row>
+    <row r="131" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C131" s="22"/>
       <c r="D131" s="22"/>
       <c r="E131" s="22"/>
@@ -5585,8 +5926,10 @@
       <c r="AE131" s="22"/>
       <c r="AF131" s="22"/>
       <c r="AG131" s="22"/>
-    </row>
-    <row r="132" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH131" s="22"/>
+      <c r="AI131" s="22"/>
+    </row>
+    <row r="132" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C132" s="22"/>
       <c r="D132" s="22"/>
       <c r="E132" s="22"/>
@@ -5618,8 +5961,10 @@
       <c r="AE132" s="22"/>
       <c r="AF132" s="22"/>
       <c r="AG132" s="22"/>
-    </row>
-    <row r="133" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH132" s="22"/>
+      <c r="AI132" s="22"/>
+    </row>
+    <row r="133" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C133" s="22"/>
       <c r="D133" s="22"/>
       <c r="E133" s="22"/>
@@ -5651,8 +5996,10 @@
       <c r="AE133" s="22"/>
       <c r="AF133" s="22"/>
       <c r="AG133" s="22"/>
-    </row>
-    <row r="134" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH133" s="22"/>
+      <c r="AI133" s="22"/>
+    </row>
+    <row r="134" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C134" s="22"/>
       <c r="D134" s="22"/>
       <c r="E134" s="22"/>
@@ -5684,8 +6031,10 @@
       <c r="AE134" s="22"/>
       <c r="AF134" s="22"/>
       <c r="AG134" s="22"/>
-    </row>
-    <row r="135" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH134" s="22"/>
+      <c r="AI134" s="22"/>
+    </row>
+    <row r="135" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C135" s="22"/>
       <c r="D135" s="22"/>
       <c r="E135" s="22"/>
@@ -5717,8 +6066,10 @@
       <c r="AE135" s="22"/>
       <c r="AF135" s="22"/>
       <c r="AG135" s="22"/>
-    </row>
-    <row r="136" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH135" s="22"/>
+      <c r="AI135" s="22"/>
+    </row>
+    <row r="136" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C136" s="22"/>
       <c r="D136" s="22"/>
       <c r="E136" s="22"/>
@@ -5750,8 +6101,10 @@
       <c r="AE136" s="22"/>
       <c r="AF136" s="22"/>
       <c r="AG136" s="22"/>
-    </row>
-    <row r="137" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH136" s="22"/>
+      <c r="AI136" s="22"/>
+    </row>
+    <row r="137" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C137" s="22"/>
       <c r="D137" s="22"/>
       <c r="E137" s="22"/>
@@ -5783,8 +6136,10 @@
       <c r="AE137" s="22"/>
       <c r="AF137" s="22"/>
       <c r="AG137" s="22"/>
-    </row>
-    <row r="138" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH137" s="22"/>
+      <c r="AI137" s="22"/>
+    </row>
+    <row r="138" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C138" s="22"/>
       <c r="D138" s="22"/>
       <c r="E138" s="22"/>
@@ -5816,8 +6171,10 @@
       <c r="AE138" s="22"/>
       <c r="AF138" s="22"/>
       <c r="AG138" s="22"/>
-    </row>
-    <row r="139" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH138" s="22"/>
+      <c r="AI138" s="22"/>
+    </row>
+    <row r="139" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C139" s="22"/>
       <c r="D139" s="22"/>
       <c r="E139" s="22"/>
@@ -5849,8 +6206,10 @@
       <c r="AE139" s="22"/>
       <c r="AF139" s="22"/>
       <c r="AG139" s="22"/>
-    </row>
-    <row r="140" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH139" s="22"/>
+      <c r="AI139" s="22"/>
+    </row>
+    <row r="140" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C140" s="22"/>
       <c r="D140" s="22"/>
       <c r="E140" s="22"/>
@@ -5882,8 +6241,10 @@
       <c r="AE140" s="22"/>
       <c r="AF140" s="22"/>
       <c r="AG140" s="22"/>
-    </row>
-    <row r="141" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH140" s="22"/>
+      <c r="AI140" s="22"/>
+    </row>
+    <row r="141" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C141" s="22"/>
       <c r="D141" s="22"/>
       <c r="E141" s="22"/>
@@ -5915,8 +6276,10 @@
       <c r="AE141" s="22"/>
       <c r="AF141" s="22"/>
       <c r="AG141" s="22"/>
-    </row>
-    <row r="142" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH141" s="22"/>
+      <c r="AI141" s="22"/>
+    </row>
+    <row r="142" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C142" s="22"/>
       <c r="D142" s="22"/>
       <c r="E142" s="22"/>
@@ -5948,8 +6311,10 @@
       <c r="AE142" s="22"/>
       <c r="AF142" s="22"/>
       <c r="AG142" s="22"/>
-    </row>
-    <row r="143" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH142" s="22"/>
+      <c r="AI142" s="22"/>
+    </row>
+    <row r="143" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C143" s="22"/>
       <c r="D143" s="22"/>
       <c r="E143" s="22"/>
@@ -5981,8 +6346,10 @@
       <c r="AE143" s="22"/>
       <c r="AF143" s="22"/>
       <c r="AG143" s="22"/>
-    </row>
-    <row r="144" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH143" s="22"/>
+      <c r="AI143" s="22"/>
+    </row>
+    <row r="144" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C144" s="22"/>
       <c r="D144" s="22"/>
       <c r="E144" s="22"/>
@@ -6014,8 +6381,10 @@
       <c r="AE144" s="22"/>
       <c r="AF144" s="22"/>
       <c r="AG144" s="22"/>
-    </row>
-    <row r="145" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH144" s="22"/>
+      <c r="AI144" s="22"/>
+    </row>
+    <row r="145" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C145" s="22"/>
       <c r="D145" s="22"/>
       <c r="E145" s="22"/>
@@ -6047,8 +6416,10 @@
       <c r="AE145" s="22"/>
       <c r="AF145" s="22"/>
       <c r="AG145" s="22"/>
-    </row>
-    <row r="146" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH145" s="22"/>
+      <c r="AI145" s="22"/>
+    </row>
+    <row r="146" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C146" s="22"/>
       <c r="D146" s="22"/>
       <c r="E146" s="22"/>
@@ -6080,8 +6451,10 @@
       <c r="AE146" s="22"/>
       <c r="AF146" s="22"/>
       <c r="AG146" s="22"/>
-    </row>
-    <row r="147" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH146" s="22"/>
+      <c r="AI146" s="22"/>
+    </row>
+    <row r="147" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C147" s="22"/>
       <c r="D147" s="22"/>
       <c r="E147" s="22"/>
@@ -6113,8 +6486,10 @@
       <c r="AE147" s="22"/>
       <c r="AF147" s="22"/>
       <c r="AG147" s="22"/>
-    </row>
-    <row r="148" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH147" s="22"/>
+      <c r="AI147" s="22"/>
+    </row>
+    <row r="148" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C148" s="22"/>
       <c r="D148" s="22"/>
       <c r="E148" s="22"/>
@@ -6146,8 +6521,10 @@
       <c r="AE148" s="22"/>
       <c r="AF148" s="22"/>
       <c r="AG148" s="22"/>
-    </row>
-    <row r="149" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH148" s="22"/>
+      <c r="AI148" s="22"/>
+    </row>
+    <row r="149" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C149" s="22"/>
       <c r="D149" s="22"/>
       <c r="E149" s="22"/>
@@ -6179,8 +6556,10 @@
       <c r="AE149" s="22"/>
       <c r="AF149" s="22"/>
       <c r="AG149" s="22"/>
-    </row>
-    <row r="150" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH149" s="22"/>
+      <c r="AI149" s="22"/>
+    </row>
+    <row r="150" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C150" s="22"/>
       <c r="D150" s="22"/>
       <c r="E150" s="22"/>
@@ -6212,8 +6591,10 @@
       <c r="AE150" s="22"/>
       <c r="AF150" s="22"/>
       <c r="AG150" s="22"/>
-    </row>
-    <row r="151" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH150" s="22"/>
+      <c r="AI150" s="22"/>
+    </row>
+    <row r="151" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C151" s="22"/>
       <c r="D151" s="22"/>
       <c r="E151" s="22"/>
@@ -6245,8 +6626,10 @@
       <c r="AE151" s="22"/>
       <c r="AF151" s="22"/>
       <c r="AG151" s="22"/>
-    </row>
-    <row r="152" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH151" s="22"/>
+      <c r="AI151" s="22"/>
+    </row>
+    <row r="152" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C152" s="22"/>
       <c r="D152" s="22"/>
       <c r="E152" s="22"/>
@@ -6278,8 +6661,10 @@
       <c r="AE152" s="22"/>
       <c r="AF152" s="22"/>
       <c r="AG152" s="22"/>
-    </row>
-    <row r="153" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH152" s="22"/>
+      <c r="AI152" s="22"/>
+    </row>
+    <row r="153" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C153" s="22"/>
       <c r="D153" s="22"/>
       <c r="E153" s="22"/>
@@ -6311,8 +6696,10 @@
       <c r="AE153" s="22"/>
       <c r="AF153" s="22"/>
       <c r="AG153" s="22"/>
-    </row>
-    <row r="154" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH153" s="22"/>
+      <c r="AI153" s="22"/>
+    </row>
+    <row r="154" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C154" s="22"/>
       <c r="D154" s="22"/>
       <c r="E154" s="22"/>
@@ -6344,8 +6731,10 @@
       <c r="AE154" s="22"/>
       <c r="AF154" s="22"/>
       <c r="AG154" s="22"/>
-    </row>
-    <row r="155" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH154" s="22"/>
+      <c r="AI154" s="22"/>
+    </row>
+    <row r="155" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C155" s="22"/>
       <c r="D155" s="22"/>
       <c r="E155" s="22"/>
@@ -6377,8 +6766,10 @@
       <c r="AE155" s="22"/>
       <c r="AF155" s="22"/>
       <c r="AG155" s="22"/>
-    </row>
-    <row r="156" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH155" s="22"/>
+      <c r="AI155" s="22"/>
+    </row>
+    <row r="156" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C156" s="22"/>
       <c r="D156" s="22"/>
       <c r="E156" s="22"/>
@@ -6410,8 +6801,10 @@
       <c r="AE156" s="22"/>
       <c r="AF156" s="22"/>
       <c r="AG156" s="22"/>
-    </row>
-    <row r="157" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH156" s="22"/>
+      <c r="AI156" s="22"/>
+    </row>
+    <row r="157" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C157" s="22"/>
       <c r="D157" s="22"/>
       <c r="E157" s="22"/>
@@ -6443,8 +6836,10 @@
       <c r="AE157" s="22"/>
       <c r="AF157" s="22"/>
       <c r="AG157" s="22"/>
-    </row>
-    <row r="158" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH157" s="22"/>
+      <c r="AI157" s="22"/>
+    </row>
+    <row r="158" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C158" s="22"/>
       <c r="D158" s="22"/>
       <c r="E158" s="22"/>
@@ -6476,8 +6871,10 @@
       <c r="AE158" s="22"/>
       <c r="AF158" s="22"/>
       <c r="AG158" s="22"/>
-    </row>
-    <row r="159" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH158" s="22"/>
+      <c r="AI158" s="22"/>
+    </row>
+    <row r="159" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C159" s="22"/>
       <c r="D159" s="22"/>
       <c r="E159" s="22"/>
@@ -6509,8 +6906,10 @@
       <c r="AE159" s="22"/>
       <c r="AF159" s="22"/>
       <c r="AG159" s="22"/>
-    </row>
-    <row r="160" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH159" s="22"/>
+      <c r="AI159" s="22"/>
+    </row>
+    <row r="160" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C160" s="22"/>
       <c r="D160" s="22"/>
       <c r="E160" s="22"/>
@@ -6542,8 +6941,10 @@
       <c r="AE160" s="22"/>
       <c r="AF160" s="22"/>
       <c r="AG160" s="22"/>
-    </row>
-    <row r="161" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH160" s="22"/>
+      <c r="AI160" s="22"/>
+    </row>
+    <row r="161" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C161" s="22"/>
       <c r="D161" s="22"/>
       <c r="E161" s="22"/>
@@ -6575,8 +6976,10 @@
       <c r="AE161" s="22"/>
       <c r="AF161" s="22"/>
       <c r="AG161" s="22"/>
-    </row>
-    <row r="162" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH161" s="22"/>
+      <c r="AI161" s="22"/>
+    </row>
+    <row r="162" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C162" s="22"/>
       <c r="D162" s="22"/>
       <c r="E162" s="22"/>
@@ -6608,8 +7011,10 @@
       <c r="AE162" s="22"/>
       <c r="AF162" s="22"/>
       <c r="AG162" s="22"/>
-    </row>
-    <row r="163" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH162" s="22"/>
+      <c r="AI162" s="22"/>
+    </row>
+    <row r="163" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C163" s="22"/>
       <c r="D163" s="22"/>
       <c r="E163" s="22"/>
@@ -6641,8 +7046,10 @@
       <c r="AE163" s="22"/>
       <c r="AF163" s="22"/>
       <c r="AG163" s="22"/>
-    </row>
-    <row r="164" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH163" s="22"/>
+      <c r="AI163" s="22"/>
+    </row>
+    <row r="164" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C164" s="22"/>
       <c r="D164" s="22"/>
       <c r="E164" s="22"/>
@@ -6674,8 +7081,10 @@
       <c r="AE164" s="22"/>
       <c r="AF164" s="22"/>
       <c r="AG164" s="22"/>
-    </row>
-    <row r="165" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH164" s="22"/>
+      <c r="AI164" s="22"/>
+    </row>
+    <row r="165" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C165" s="22"/>
       <c r="D165" s="22"/>
       <c r="E165" s="22"/>
@@ -6707,8 +7116,10 @@
       <c r="AE165" s="22"/>
       <c r="AF165" s="22"/>
       <c r="AG165" s="22"/>
-    </row>
-    <row r="166" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH165" s="22"/>
+      <c r="AI165" s="22"/>
+    </row>
+    <row r="166" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C166" s="22"/>
       <c r="D166" s="22"/>
       <c r="E166" s="22"/>
@@ -6740,8 +7151,10 @@
       <c r="AE166" s="22"/>
       <c r="AF166" s="22"/>
       <c r="AG166" s="22"/>
-    </row>
-    <row r="167" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH166" s="22"/>
+      <c r="AI166" s="22"/>
+    </row>
+    <row r="167" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C167" s="22"/>
       <c r="D167" s="22"/>
       <c r="E167" s="22"/>
@@ -6773,8 +7186,10 @@
       <c r="AE167" s="22"/>
       <c r="AF167" s="22"/>
       <c r="AG167" s="22"/>
-    </row>
-    <row r="168" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH167" s="22"/>
+      <c r="AI167" s="22"/>
+    </row>
+    <row r="168" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C168" s="22"/>
       <c r="D168" s="22"/>
       <c r="E168" s="22"/>
@@ -6806,8 +7221,10 @@
       <c r="AE168" s="22"/>
       <c r="AF168" s="22"/>
       <c r="AG168" s="22"/>
-    </row>
-    <row r="169" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH168" s="22"/>
+      <c r="AI168" s="22"/>
+    </row>
+    <row r="169" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C169" s="22"/>
       <c r="D169" s="22"/>
       <c r="E169" s="22"/>
@@ -6839,8 +7256,10 @@
       <c r="AE169" s="22"/>
       <c r="AF169" s="22"/>
       <c r="AG169" s="22"/>
-    </row>
-    <row r="170" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH169" s="22"/>
+      <c r="AI169" s="22"/>
+    </row>
+    <row r="170" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C170" s="22"/>
       <c r="D170" s="22"/>
       <c r="E170" s="22"/>
@@ -6872,8 +7291,10 @@
       <c r="AE170" s="22"/>
       <c r="AF170" s="22"/>
       <c r="AG170" s="22"/>
-    </row>
-    <row r="171" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH170" s="22"/>
+      <c r="AI170" s="22"/>
+    </row>
+    <row r="171" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C171" s="22"/>
       <c r="D171" s="22"/>
       <c r="E171" s="22"/>
@@ -6905,8 +7326,10 @@
       <c r="AE171" s="22"/>
       <c r="AF171" s="22"/>
       <c r="AG171" s="22"/>
-    </row>
-    <row r="172" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH171" s="22"/>
+      <c r="AI171" s="22"/>
+    </row>
+    <row r="172" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C172" s="22"/>
       <c r="D172" s="22"/>
       <c r="E172" s="22"/>
@@ -6938,8 +7361,10 @@
       <c r="AE172" s="22"/>
       <c r="AF172" s="22"/>
       <c r="AG172" s="22"/>
-    </row>
-    <row r="173" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH172" s="22"/>
+      <c r="AI172" s="22"/>
+    </row>
+    <row r="173" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C173" s="22"/>
       <c r="D173" s="22"/>
       <c r="E173" s="22"/>
@@ -6971,8 +7396,10 @@
       <c r="AE173" s="22"/>
       <c r="AF173" s="22"/>
       <c r="AG173" s="22"/>
-    </row>
-    <row r="174" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH173" s="22"/>
+      <c r="AI173" s="22"/>
+    </row>
+    <row r="174" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C174" s="22"/>
       <c r="D174" s="22"/>
       <c r="E174" s="22"/>
@@ -7004,8 +7431,10 @@
       <c r="AE174" s="22"/>
       <c r="AF174" s="22"/>
       <c r="AG174" s="22"/>
-    </row>
-    <row r="175" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH174" s="22"/>
+      <c r="AI174" s="22"/>
+    </row>
+    <row r="175" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C175" s="22"/>
       <c r="D175" s="22"/>
       <c r="E175" s="22"/>
@@ -7037,8 +7466,10 @@
       <c r="AE175" s="22"/>
       <c r="AF175" s="22"/>
       <c r="AG175" s="22"/>
-    </row>
-    <row r="176" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH175" s="22"/>
+      <c r="AI175" s="22"/>
+    </row>
+    <row r="176" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C176" s="22"/>
       <c r="D176" s="22"/>
       <c r="E176" s="22"/>
@@ -7070,8 +7501,10 @@
       <c r="AE176" s="22"/>
       <c r="AF176" s="22"/>
       <c r="AG176" s="22"/>
-    </row>
-    <row r="177" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH176" s="22"/>
+      <c r="AI176" s="22"/>
+    </row>
+    <row r="177" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C177" s="22"/>
       <c r="D177" s="22"/>
       <c r="E177" s="22"/>
@@ -7103,8 +7536,10 @@
       <c r="AE177" s="22"/>
       <c r="AF177" s="22"/>
       <c r="AG177" s="22"/>
-    </row>
-    <row r="178" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH177" s="22"/>
+      <c r="AI177" s="22"/>
+    </row>
+    <row r="178" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C178" s="22"/>
       <c r="D178" s="22"/>
       <c r="E178" s="22"/>
@@ -7136,8 +7571,10 @@
       <c r="AE178" s="22"/>
       <c r="AF178" s="22"/>
       <c r="AG178" s="22"/>
-    </row>
-    <row r="179" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH178" s="22"/>
+      <c r="AI178" s="22"/>
+    </row>
+    <row r="179" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C179" s="22"/>
       <c r="D179" s="22"/>
       <c r="E179" s="22"/>
@@ -7169,8 +7606,10 @@
       <c r="AE179" s="22"/>
       <c r="AF179" s="22"/>
       <c r="AG179" s="22"/>
-    </row>
-    <row r="180" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH179" s="22"/>
+      <c r="AI179" s="22"/>
+    </row>
+    <row r="180" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C180" s="22"/>
       <c r="D180" s="22"/>
       <c r="E180" s="22"/>
@@ -7202,8 +7641,10 @@
       <c r="AE180" s="22"/>
       <c r="AF180" s="22"/>
       <c r="AG180" s="22"/>
-    </row>
-    <row r="181" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH180" s="22"/>
+      <c r="AI180" s="22"/>
+    </row>
+    <row r="181" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C181" s="22"/>
       <c r="D181" s="22"/>
       <c r="E181" s="22"/>
@@ -7235,8 +7676,10 @@
       <c r="AE181" s="22"/>
       <c r="AF181" s="22"/>
       <c r="AG181" s="22"/>
-    </row>
-    <row r="182" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH181" s="22"/>
+      <c r="AI181" s="22"/>
+    </row>
+    <row r="182" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C182" s="22"/>
       <c r="D182" s="22"/>
       <c r="E182" s="22"/>
@@ -7268,8 +7711,10 @@
       <c r="AE182" s="22"/>
       <c r="AF182" s="22"/>
       <c r="AG182" s="22"/>
-    </row>
-    <row r="183" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH182" s="22"/>
+      <c r="AI182" s="22"/>
+    </row>
+    <row r="183" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C183" s="22"/>
       <c r="D183" s="22"/>
       <c r="E183" s="22"/>
@@ -7301,8 +7746,10 @@
       <c r="AE183" s="22"/>
       <c r="AF183" s="22"/>
       <c r="AG183" s="22"/>
-    </row>
-    <row r="184" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH183" s="22"/>
+      <c r="AI183" s="22"/>
+    </row>
+    <row r="184" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C184" s="22"/>
       <c r="D184" s="22"/>
       <c r="E184" s="22"/>
@@ -7334,8 +7781,10 @@
       <c r="AE184" s="22"/>
       <c r="AF184" s="22"/>
       <c r="AG184" s="22"/>
-    </row>
-    <row r="185" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH184" s="22"/>
+      <c r="AI184" s="22"/>
+    </row>
+    <row r="185" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C185" s="22"/>
       <c r="D185" s="22"/>
       <c r="E185" s="22"/>
@@ -7367,8 +7816,10 @@
       <c r="AE185" s="22"/>
       <c r="AF185" s="22"/>
       <c r="AG185" s="22"/>
-    </row>
-    <row r="186" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH185" s="22"/>
+      <c r="AI185" s="22"/>
+    </row>
+    <row r="186" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C186" s="22"/>
       <c r="D186" s="22"/>
       <c r="E186" s="22"/>
@@ -7400,8 +7851,10 @@
       <c r="AE186" s="22"/>
       <c r="AF186" s="22"/>
       <c r="AG186" s="22"/>
-    </row>
-    <row r="187" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH186" s="22"/>
+      <c r="AI186" s="22"/>
+    </row>
+    <row r="187" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C187" s="22"/>
       <c r="D187" s="22"/>
       <c r="E187" s="22"/>
@@ -7433,8 +7886,10 @@
       <c r="AE187" s="22"/>
       <c r="AF187" s="22"/>
       <c r="AG187" s="22"/>
-    </row>
-    <row r="188" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH187" s="22"/>
+      <c r="AI187" s="22"/>
+    </row>
+    <row r="188" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C188" s="22"/>
       <c r="D188" s="22"/>
       <c r="E188" s="22"/>
@@ -7466,8 +7921,10 @@
       <c r="AE188" s="22"/>
       <c r="AF188" s="22"/>
       <c r="AG188" s="22"/>
-    </row>
-    <row r="189" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH188" s="22"/>
+      <c r="AI188" s="22"/>
+    </row>
+    <row r="189" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C189" s="22"/>
       <c r="D189" s="22"/>
       <c r="E189" s="22"/>
@@ -7499,8 +7956,10 @@
       <c r="AE189" s="22"/>
       <c r="AF189" s="22"/>
       <c r="AG189" s="22"/>
-    </row>
-    <row r="190" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH189" s="22"/>
+      <c r="AI189" s="22"/>
+    </row>
+    <row r="190" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C190" s="22"/>
       <c r="D190" s="22"/>
       <c r="E190" s="22"/>
@@ -7532,8 +7991,10 @@
       <c r="AE190" s="22"/>
       <c r="AF190" s="22"/>
       <c r="AG190" s="22"/>
-    </row>
-    <row r="191" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH190" s="22"/>
+      <c r="AI190" s="22"/>
+    </row>
+    <row r="191" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C191" s="22"/>
       <c r="D191" s="22"/>
       <c r="E191" s="22"/>
@@ -7565,8 +8026,10 @@
       <c r="AE191" s="22"/>
       <c r="AF191" s="22"/>
       <c r="AG191" s="22"/>
-    </row>
-    <row r="192" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH191" s="22"/>
+      <c r="AI191" s="22"/>
+    </row>
+    <row r="192" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C192" s="22"/>
       <c r="D192" s="22"/>
       <c r="E192" s="22"/>
@@ -7598,8 +8061,10 @@
       <c r="AE192" s="22"/>
       <c r="AF192" s="22"/>
       <c r="AG192" s="22"/>
-    </row>
-    <row r="193" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH192" s="22"/>
+      <c r="AI192" s="22"/>
+    </row>
+    <row r="193" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C193" s="22"/>
       <c r="D193" s="22"/>
       <c r="E193" s="22"/>
@@ -7631,8 +8096,10 @@
       <c r="AE193" s="22"/>
       <c r="AF193" s="22"/>
       <c r="AG193" s="22"/>
-    </row>
-    <row r="194" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH193" s="22"/>
+      <c r="AI193" s="22"/>
+    </row>
+    <row r="194" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C194" s="22"/>
       <c r="D194" s="22"/>
       <c r="E194" s="22"/>
@@ -7664,8 +8131,10 @@
       <c r="AE194" s="22"/>
       <c r="AF194" s="22"/>
       <c r="AG194" s="22"/>
-    </row>
-    <row r="195" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH194" s="22"/>
+      <c r="AI194" s="22"/>
+    </row>
+    <row r="195" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C195" s="22"/>
       <c r="D195" s="22"/>
       <c r="E195" s="22"/>
@@ -7697,8 +8166,10 @@
       <c r="AE195" s="22"/>
       <c r="AF195" s="22"/>
       <c r="AG195" s="22"/>
-    </row>
-    <row r="196" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH195" s="22"/>
+      <c r="AI195" s="22"/>
+    </row>
+    <row r="196" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C196" s="22"/>
       <c r="D196" s="22"/>
       <c r="E196" s="22"/>
@@ -7730,8 +8201,10 @@
       <c r="AE196" s="22"/>
       <c r="AF196" s="22"/>
       <c r="AG196" s="22"/>
-    </row>
-    <row r="197" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH196" s="22"/>
+      <c r="AI196" s="22"/>
+    </row>
+    <row r="197" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C197" s="22"/>
       <c r="D197" s="22"/>
       <c r="E197" s="22"/>
@@ -7763,8 +8236,10 @@
       <c r="AE197" s="22"/>
       <c r="AF197" s="22"/>
       <c r="AG197" s="22"/>
-    </row>
-    <row r="198" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH197" s="22"/>
+      <c r="AI197" s="22"/>
+    </row>
+    <row r="198" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C198" s="22"/>
       <c r="D198" s="22"/>
       <c r="E198" s="22"/>
@@ -7796,8 +8271,10 @@
       <c r="AE198" s="22"/>
       <c r="AF198" s="22"/>
       <c r="AG198" s="22"/>
-    </row>
-    <row r="199" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH198" s="22"/>
+      <c r="AI198" s="22"/>
+    </row>
+    <row r="199" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C199" s="22"/>
       <c r="D199" s="22"/>
       <c r="E199" s="22"/>
@@ -7829,8 +8306,10 @@
       <c r="AE199" s="22"/>
       <c r="AF199" s="22"/>
       <c r="AG199" s="22"/>
-    </row>
-    <row r="200" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH199" s="22"/>
+      <c r="AI199" s="22"/>
+    </row>
+    <row r="200" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C200" s="22"/>
       <c r="D200" s="22"/>
       <c r="E200" s="22"/>
@@ -7862,8 +8341,10 @@
       <c r="AE200" s="22"/>
       <c r="AF200" s="22"/>
       <c r="AG200" s="22"/>
-    </row>
-    <row r="201" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH200" s="22"/>
+      <c r="AI200" s="22"/>
+    </row>
+    <row r="201" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C201" s="22"/>
       <c r="D201" s="22"/>
       <c r="E201" s="22"/>
@@ -7895,8 +8376,10 @@
       <c r="AE201" s="22"/>
       <c r="AF201" s="22"/>
       <c r="AG201" s="22"/>
-    </row>
-    <row r="202" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH201" s="22"/>
+      <c r="AI201" s="22"/>
+    </row>
+    <row r="202" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C202" s="22"/>
       <c r="D202" s="22"/>
       <c r="E202" s="22"/>
@@ -7928,8 +8411,10 @@
       <c r="AE202" s="22"/>
       <c r="AF202" s="22"/>
       <c r="AG202" s="22"/>
-    </row>
-    <row r="203" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH202" s="22"/>
+      <c r="AI202" s="22"/>
+    </row>
+    <row r="203" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C203" s="22"/>
       <c r="D203" s="22"/>
       <c r="E203" s="22"/>
@@ -7961,8 +8446,10 @@
       <c r="AE203" s="22"/>
       <c r="AF203" s="22"/>
       <c r="AG203" s="22"/>
-    </row>
-    <row r="204" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH203" s="22"/>
+      <c r="AI203" s="22"/>
+    </row>
+    <row r="204" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C204" s="22"/>
       <c r="D204" s="22"/>
       <c r="E204" s="22"/>
@@ -7994,8 +8481,10 @@
       <c r="AE204" s="22"/>
       <c r="AF204" s="22"/>
       <c r="AG204" s="22"/>
-    </row>
-    <row r="205" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH204" s="22"/>
+      <c r="AI204" s="22"/>
+    </row>
+    <row r="205" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C205" s="22"/>
       <c r="D205" s="22"/>
       <c r="E205" s="22"/>
@@ -8027,8 +8516,10 @@
       <c r="AE205" s="22"/>
       <c r="AF205" s="22"/>
       <c r="AG205" s="22"/>
-    </row>
-    <row r="206" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH205" s="22"/>
+      <c r="AI205" s="22"/>
+    </row>
+    <row r="206" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C206" s="22"/>
       <c r="D206" s="22"/>
       <c r="E206" s="22"/>
@@ -8060,8 +8551,10 @@
       <c r="AE206" s="22"/>
       <c r="AF206" s="22"/>
       <c r="AG206" s="22"/>
-    </row>
-    <row r="207" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH206" s="22"/>
+      <c r="AI206" s="22"/>
+    </row>
+    <row r="207" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C207" s="22"/>
       <c r="D207" s="22"/>
       <c r="E207" s="22"/>
@@ -8093,8 +8586,10 @@
       <c r="AE207" s="22"/>
       <c r="AF207" s="22"/>
       <c r="AG207" s="22"/>
-    </row>
-    <row r="208" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH207" s="22"/>
+      <c r="AI207" s="22"/>
+    </row>
+    <row r="208" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C208" s="22"/>
       <c r="D208" s="22"/>
       <c r="E208" s="22"/>
@@ -8126,8 +8621,10 @@
       <c r="AE208" s="22"/>
       <c r="AF208" s="22"/>
       <c r="AG208" s="22"/>
-    </row>
-    <row r="209" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH208" s="22"/>
+      <c r="AI208" s="22"/>
+    </row>
+    <row r="209" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C209" s="22"/>
       <c r="D209" s="22"/>
       <c r="E209" s="22"/>
@@ -8159,8 +8656,10 @@
       <c r="AE209" s="22"/>
       <c r="AF209" s="22"/>
       <c r="AG209" s="22"/>
-    </row>
-    <row r="210" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH209" s="22"/>
+      <c r="AI209" s="22"/>
+    </row>
+    <row r="210" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C210" s="22"/>
       <c r="D210" s="22"/>
       <c r="E210" s="22"/>
@@ -8192,8 +8691,10 @@
       <c r="AE210" s="22"/>
       <c r="AF210" s="22"/>
       <c r="AG210" s="22"/>
-    </row>
-    <row r="211" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH210" s="22"/>
+      <c r="AI210" s="22"/>
+    </row>
+    <row r="211" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C211" s="22"/>
       <c r="D211" s="22"/>
       <c r="E211" s="22"/>
@@ -8225,8 +8726,10 @@
       <c r="AE211" s="22"/>
       <c r="AF211" s="22"/>
       <c r="AG211" s="22"/>
-    </row>
-    <row r="212" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH211" s="22"/>
+      <c r="AI211" s="22"/>
+    </row>
+    <row r="212" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C212" s="22"/>
       <c r="D212" s="22"/>
       <c r="E212" s="22"/>
@@ -8258,8 +8761,10 @@
       <c r="AE212" s="22"/>
       <c r="AF212" s="22"/>
       <c r="AG212" s="22"/>
-    </row>
-    <row r="213" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH212" s="22"/>
+      <c r="AI212" s="22"/>
+    </row>
+    <row r="213" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C213" s="22"/>
       <c r="D213" s="22"/>
       <c r="E213" s="22"/>
@@ -8291,8 +8796,10 @@
       <c r="AE213" s="22"/>
       <c r="AF213" s="22"/>
       <c r="AG213" s="22"/>
-    </row>
-    <row r="214" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH213" s="22"/>
+      <c r="AI213" s="22"/>
+    </row>
+    <row r="214" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C214" s="22"/>
       <c r="D214" s="22"/>
       <c r="E214" s="22"/>
@@ -8324,8 +8831,10 @@
       <c r="AE214" s="22"/>
       <c r="AF214" s="22"/>
       <c r="AG214" s="22"/>
-    </row>
-    <row r="215" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH214" s="22"/>
+      <c r="AI214" s="22"/>
+    </row>
+    <row r="215" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C215" s="22"/>
       <c r="D215" s="22"/>
       <c r="E215" s="22"/>
@@ -8357,8 +8866,10 @@
       <c r="AE215" s="22"/>
       <c r="AF215" s="22"/>
       <c r="AG215" s="22"/>
-    </row>
-    <row r="216" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH215" s="22"/>
+      <c r="AI215" s="22"/>
+    </row>
+    <row r="216" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C216" s="22"/>
       <c r="D216" s="22"/>
       <c r="E216" s="22"/>
@@ -8390,8 +8901,10 @@
       <c r="AE216" s="22"/>
       <c r="AF216" s="22"/>
       <c r="AG216" s="22"/>
-    </row>
-    <row r="217" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH216" s="22"/>
+      <c r="AI216" s="22"/>
+    </row>
+    <row r="217" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C217" s="22"/>
       <c r="D217" s="22"/>
       <c r="E217" s="22"/>
@@ -8423,8 +8936,10 @@
       <c r="AE217" s="22"/>
       <c r="AF217" s="22"/>
       <c r="AG217" s="22"/>
-    </row>
-    <row r="218" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH217" s="22"/>
+      <c r="AI217" s="22"/>
+    </row>
+    <row r="218" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C218" s="22"/>
       <c r="D218" s="22"/>
       <c r="E218" s="22"/>
@@ -8456,8 +8971,10 @@
       <c r="AE218" s="22"/>
       <c r="AF218" s="22"/>
       <c r="AG218" s="22"/>
-    </row>
-    <row r="219" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH218" s="22"/>
+      <c r="AI218" s="22"/>
+    </row>
+    <row r="219" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C219" s="22"/>
       <c r="D219" s="22"/>
       <c r="E219" s="22"/>
@@ -8489,8 +9006,10 @@
       <c r="AE219" s="22"/>
       <c r="AF219" s="22"/>
       <c r="AG219" s="22"/>
-    </row>
-    <row r="220" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH219" s="22"/>
+      <c r="AI219" s="22"/>
+    </row>
+    <row r="220" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C220" s="22"/>
       <c r="D220" s="22"/>
       <c r="E220" s="22"/>
@@ -8522,8 +9041,10 @@
       <c r="AE220" s="22"/>
       <c r="AF220" s="22"/>
       <c r="AG220" s="22"/>
-    </row>
-    <row r="221" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH220" s="22"/>
+      <c r="AI220" s="22"/>
+    </row>
+    <row r="221" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C221" s="22"/>
       <c r="D221" s="22"/>
       <c r="E221" s="22"/>
@@ -8555,8 +9076,10 @@
       <c r="AE221" s="22"/>
       <c r="AF221" s="22"/>
       <c r="AG221" s="22"/>
-    </row>
-    <row r="222" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH221" s="22"/>
+      <c r="AI221" s="22"/>
+    </row>
+    <row r="222" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C222" s="22"/>
       <c r="D222" s="22"/>
       <c r="E222" s="22"/>
@@ -8588,8 +9111,10 @@
       <c r="AE222" s="22"/>
       <c r="AF222" s="22"/>
       <c r="AG222" s="22"/>
-    </row>
-    <row r="223" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH222" s="22"/>
+      <c r="AI222" s="22"/>
+    </row>
+    <row r="223" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C223" s="22"/>
       <c r="D223" s="22"/>
       <c r="E223" s="22"/>
@@ -8621,8 +9146,10 @@
       <c r="AE223" s="22"/>
       <c r="AF223" s="22"/>
       <c r="AG223" s="22"/>
-    </row>
-    <row r="224" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH223" s="22"/>
+      <c r="AI223" s="22"/>
+    </row>
+    <row r="224" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C224" s="22"/>
       <c r="D224" s="22"/>
       <c r="E224" s="22"/>
@@ -8654,8 +9181,10 @@
       <c r="AE224" s="22"/>
       <c r="AF224" s="22"/>
       <c r="AG224" s="22"/>
-    </row>
-    <row r="225" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH224" s="22"/>
+      <c r="AI224" s="22"/>
+    </row>
+    <row r="225" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C225" s="22"/>
       <c r="D225" s="22"/>
       <c r="E225" s="22"/>
@@ -8687,8 +9216,10 @@
       <c r="AE225" s="22"/>
       <c r="AF225" s="22"/>
       <c r="AG225" s="22"/>
-    </row>
-    <row r="226" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH225" s="22"/>
+      <c r="AI225" s="22"/>
+    </row>
+    <row r="226" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C226" s="22"/>
       <c r="D226" s="22"/>
       <c r="E226" s="22"/>
@@ -8720,8 +9251,10 @@
       <c r="AE226" s="22"/>
       <c r="AF226" s="22"/>
       <c r="AG226" s="22"/>
-    </row>
-    <row r="227" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH226" s="22"/>
+      <c r="AI226" s="22"/>
+    </row>
+    <row r="227" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C227" s="22"/>
       <c r="D227" s="22"/>
       <c r="E227" s="22"/>
@@ -8753,8 +9286,10 @@
       <c r="AE227" s="22"/>
       <c r="AF227" s="22"/>
       <c r="AG227" s="22"/>
-    </row>
-    <row r="228" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH227" s="22"/>
+      <c r="AI227" s="22"/>
+    </row>
+    <row r="228" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C228" s="22"/>
       <c r="D228" s="22"/>
       <c r="E228" s="22"/>
@@ -8786,8 +9321,10 @@
       <c r="AE228" s="22"/>
       <c r="AF228" s="22"/>
       <c r="AG228" s="22"/>
-    </row>
-    <row r="229" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH228" s="22"/>
+      <c r="AI228" s="22"/>
+    </row>
+    <row r="229" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C229" s="22"/>
       <c r="D229" s="22"/>
       <c r="E229" s="22"/>
@@ -8819,8 +9356,10 @@
       <c r="AE229" s="22"/>
       <c r="AF229" s="22"/>
       <c r="AG229" s="22"/>
-    </row>
-    <row r="230" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH229" s="22"/>
+      <c r="AI229" s="22"/>
+    </row>
+    <row r="230" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C230" s="22"/>
       <c r="D230" s="22"/>
       <c r="E230" s="22"/>
@@ -8852,8 +9391,10 @@
       <c r="AE230" s="22"/>
       <c r="AF230" s="22"/>
       <c r="AG230" s="22"/>
-    </row>
-    <row r="231" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH230" s="22"/>
+      <c r="AI230" s="22"/>
+    </row>
+    <row r="231" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C231" s="22"/>
       <c r="D231" s="22"/>
       <c r="E231" s="22"/>
@@ -8885,8 +9426,10 @@
       <c r="AE231" s="22"/>
       <c r="AF231" s="22"/>
       <c r="AG231" s="22"/>
-    </row>
-    <row r="232" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH231" s="22"/>
+      <c r="AI231" s="22"/>
+    </row>
+    <row r="232" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C232" s="22"/>
       <c r="D232" s="22"/>
       <c r="E232" s="22"/>
@@ -8918,8 +9461,10 @@
       <c r="AE232" s="22"/>
       <c r="AF232" s="22"/>
       <c r="AG232" s="22"/>
-    </row>
-    <row r="233" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH232" s="22"/>
+      <c r="AI232" s="22"/>
+    </row>
+    <row r="233" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C233" s="22"/>
       <c r="D233" s="22"/>
       <c r="E233" s="22"/>
@@ -8951,8 +9496,10 @@
       <c r="AE233" s="22"/>
       <c r="AF233" s="22"/>
       <c r="AG233" s="22"/>
-    </row>
-    <row r="234" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH233" s="22"/>
+      <c r="AI233" s="22"/>
+    </row>
+    <row r="234" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C234" s="22"/>
       <c r="D234" s="22"/>
       <c r="E234" s="22"/>
@@ -8984,8 +9531,10 @@
       <c r="AE234" s="22"/>
       <c r="AF234" s="22"/>
       <c r="AG234" s="22"/>
-    </row>
-    <row r="235" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH234" s="22"/>
+      <c r="AI234" s="22"/>
+    </row>
+    <row r="235" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C235" s="22"/>
       <c r="D235" s="22"/>
       <c r="E235" s="22"/>
@@ -9017,8 +9566,10 @@
       <c r="AE235" s="22"/>
       <c r="AF235" s="22"/>
       <c r="AG235" s="22"/>
-    </row>
-    <row r="236" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH235" s="22"/>
+      <c r="AI235" s="22"/>
+    </row>
+    <row r="236" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C236" s="22"/>
       <c r="D236" s="22"/>
       <c r="E236" s="22"/>
@@ -9050,8 +9601,10 @@
       <c r="AE236" s="22"/>
       <c r="AF236" s="22"/>
       <c r="AG236" s="22"/>
-    </row>
-    <row r="237" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH236" s="22"/>
+      <c r="AI236" s="22"/>
+    </row>
+    <row r="237" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C237" s="22"/>
       <c r="D237" s="22"/>
       <c r="E237" s="22"/>
@@ -9083,8 +9636,10 @@
       <c r="AE237" s="22"/>
       <c r="AF237" s="22"/>
       <c r="AG237" s="22"/>
-    </row>
-    <row r="238" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH237" s="22"/>
+      <c r="AI237" s="22"/>
+    </row>
+    <row r="238" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C238" s="22"/>
       <c r="D238" s="22"/>
       <c r="E238" s="22"/>
@@ -9116,8 +9671,10 @@
       <c r="AE238" s="22"/>
       <c r="AF238" s="22"/>
       <c r="AG238" s="22"/>
-    </row>
-    <row r="239" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH238" s="22"/>
+      <c r="AI238" s="22"/>
+    </row>
+    <row r="239" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C239" s="22"/>
       <c r="D239" s="22"/>
       <c r="E239" s="22"/>
@@ -9149,8 +9706,10 @@
       <c r="AE239" s="22"/>
       <c r="AF239" s="22"/>
       <c r="AG239" s="22"/>
-    </row>
-    <row r="240" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH239" s="22"/>
+      <c r="AI239" s="22"/>
+    </row>
+    <row r="240" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C240" s="22"/>
       <c r="D240" s="22"/>
       <c r="E240" s="22"/>
@@ -9182,8 +9741,10 @@
       <c r="AE240" s="22"/>
       <c r="AF240" s="22"/>
       <c r="AG240" s="22"/>
-    </row>
-    <row r="241" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH240" s="22"/>
+      <c r="AI240" s="22"/>
+    </row>
+    <row r="241" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C241" s="22"/>
       <c r="D241" s="22"/>
       <c r="E241" s="22"/>
@@ -9215,8 +9776,10 @@
       <c r="AE241" s="22"/>
       <c r="AF241" s="22"/>
       <c r="AG241" s="22"/>
-    </row>
-    <row r="242" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH241" s="22"/>
+      <c r="AI241" s="22"/>
+    </row>
+    <row r="242" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C242" s="22"/>
       <c r="D242" s="22"/>
       <c r="E242" s="22"/>
@@ -9248,8 +9811,10 @@
       <c r="AE242" s="22"/>
       <c r="AF242" s="22"/>
       <c r="AG242" s="22"/>
-    </row>
-    <row r="243" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH242" s="22"/>
+      <c r="AI242" s="22"/>
+    </row>
+    <row r="243" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C243" s="22"/>
       <c r="D243" s="22"/>
       <c r="E243" s="22"/>
@@ -9281,8 +9846,10 @@
       <c r="AE243" s="22"/>
       <c r="AF243" s="22"/>
       <c r="AG243" s="22"/>
-    </row>
-    <row r="244" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH243" s="22"/>
+      <c r="AI243" s="22"/>
+    </row>
+    <row r="244" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C244" s="22"/>
       <c r="D244" s="22"/>
       <c r="E244" s="22"/>
@@ -9314,8 +9881,10 @@
       <c r="AE244" s="22"/>
       <c r="AF244" s="22"/>
       <c r="AG244" s="22"/>
-    </row>
-    <row r="245" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH244" s="22"/>
+      <c r="AI244" s="22"/>
+    </row>
+    <row r="245" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C245" s="22"/>
       <c r="D245" s="22"/>
       <c r="E245" s="22"/>
@@ -9347,8 +9916,10 @@
       <c r="AE245" s="22"/>
       <c r="AF245" s="22"/>
       <c r="AG245" s="22"/>
-    </row>
-    <row r="246" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH245" s="22"/>
+      <c r="AI245" s="22"/>
+    </row>
+    <row r="246" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C246" s="22"/>
       <c r="D246" s="22"/>
       <c r="E246" s="22"/>
@@ -9380,8 +9951,10 @@
       <c r="AE246" s="22"/>
       <c r="AF246" s="22"/>
       <c r="AG246" s="22"/>
-    </row>
-    <row r="247" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH246" s="22"/>
+      <c r="AI246" s="22"/>
+    </row>
+    <row r="247" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C247" s="22"/>
       <c r="D247" s="22"/>
       <c r="E247" s="22"/>
@@ -9413,8 +9986,10 @@
       <c r="AE247" s="22"/>
       <c r="AF247" s="22"/>
       <c r="AG247" s="22"/>
-    </row>
-    <row r="248" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH247" s="22"/>
+      <c r="AI247" s="22"/>
+    </row>
+    <row r="248" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C248" s="22"/>
       <c r="D248" s="22"/>
       <c r="E248" s="22"/>
@@ -9446,8 +10021,10 @@
       <c r="AE248" s="22"/>
       <c r="AF248" s="22"/>
       <c r="AG248" s="22"/>
-    </row>
-    <row r="249" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH248" s="22"/>
+      <c r="AI248" s="22"/>
+    </row>
+    <row r="249" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C249" s="22"/>
       <c r="D249" s="22"/>
       <c r="E249" s="22"/>
@@ -9479,8 +10056,10 @@
       <c r="AE249" s="22"/>
       <c r="AF249" s="22"/>
       <c r="AG249" s="22"/>
-    </row>
-    <row r="250" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH249" s="22"/>
+      <c r="AI249" s="22"/>
+    </row>
+    <row r="250" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C250" s="22"/>
       <c r="D250" s="22"/>
       <c r="E250" s="22"/>
@@ -9512,8 +10091,10 @@
       <c r="AE250" s="22"/>
       <c r="AF250" s="22"/>
       <c r="AG250" s="22"/>
-    </row>
-    <row r="251" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH250" s="22"/>
+      <c r="AI250" s="22"/>
+    </row>
+    <row r="251" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C251" s="22"/>
       <c r="D251" s="22"/>
       <c r="E251" s="22"/>
@@ -9545,8 +10126,10 @@
       <c r="AE251" s="22"/>
       <c r="AF251" s="22"/>
       <c r="AG251" s="22"/>
-    </row>
-    <row r="252" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH251" s="22"/>
+      <c r="AI251" s="22"/>
+    </row>
+    <row r="252" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C252" s="22"/>
       <c r="D252" s="22"/>
       <c r="E252" s="22"/>
@@ -9578,8 +10161,10 @@
       <c r="AE252" s="22"/>
       <c r="AF252" s="22"/>
       <c r="AG252" s="22"/>
-    </row>
-    <row r="253" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH252" s="22"/>
+      <c r="AI252" s="22"/>
+    </row>
+    <row r="253" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C253" s="22"/>
       <c r="D253" s="22"/>
       <c r="E253" s="22"/>
@@ -9611,8 +10196,10 @@
       <c r="AE253" s="22"/>
       <c r="AF253" s="22"/>
       <c r="AG253" s="22"/>
-    </row>
-    <row r="254" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH253" s="22"/>
+      <c r="AI253" s="22"/>
+    </row>
+    <row r="254" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C254" s="22"/>
       <c r="D254" s="22"/>
       <c r="E254" s="22"/>
@@ -9644,8 +10231,10 @@
       <c r="AE254" s="22"/>
       <c r="AF254" s="22"/>
       <c r="AG254" s="22"/>
-    </row>
-    <row r="255" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH254" s="22"/>
+      <c r="AI254" s="22"/>
+    </row>
+    <row r="255" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C255" s="22"/>
       <c r="D255" s="22"/>
       <c r="E255" s="22"/>
@@ -9677,8 +10266,10 @@
       <c r="AE255" s="22"/>
       <c r="AF255" s="22"/>
       <c r="AG255" s="22"/>
-    </row>
-    <row r="256" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH255" s="22"/>
+      <c r="AI255" s="22"/>
+    </row>
+    <row r="256" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C256" s="22"/>
       <c r="D256" s="22"/>
       <c r="E256" s="22"/>
@@ -9710,8 +10301,10 @@
       <c r="AE256" s="22"/>
       <c r="AF256" s="22"/>
       <c r="AG256" s="22"/>
-    </row>
-    <row r="257" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH256" s="22"/>
+      <c r="AI256" s="22"/>
+    </row>
+    <row r="257" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C257" s="22"/>
       <c r="D257" s="22"/>
       <c r="E257" s="22"/>
@@ -9743,8 +10336,10 @@
       <c r="AE257" s="22"/>
       <c r="AF257" s="22"/>
       <c r="AG257" s="22"/>
-    </row>
-    <row r="258" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH257" s="22"/>
+      <c r="AI257" s="22"/>
+    </row>
+    <row r="258" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C258" s="22"/>
       <c r="D258" s="22"/>
       <c r="E258" s="22"/>
@@ -9776,8 +10371,10 @@
       <c r="AE258" s="22"/>
       <c r="AF258" s="22"/>
       <c r="AG258" s="22"/>
-    </row>
-    <row r="259" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH258" s="22"/>
+      <c r="AI258" s="22"/>
+    </row>
+    <row r="259" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C259" s="22"/>
       <c r="D259" s="22"/>
       <c r="E259" s="22"/>
@@ -9809,8 +10406,10 @@
       <c r="AE259" s="22"/>
       <c r="AF259" s="22"/>
       <c r="AG259" s="22"/>
-    </row>
-    <row r="260" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH259" s="22"/>
+      <c r="AI259" s="22"/>
+    </row>
+    <row r="260" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C260" s="22"/>
       <c r="D260" s="22"/>
       <c r="E260" s="22"/>
@@ -9842,8 +10441,10 @@
       <c r="AE260" s="22"/>
       <c r="AF260" s="22"/>
       <c r="AG260" s="22"/>
-    </row>
-    <row r="261" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH260" s="22"/>
+      <c r="AI260" s="22"/>
+    </row>
+    <row r="261" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C261" s="22"/>
       <c r="D261" s="22"/>
       <c r="E261" s="22"/>
@@ -9875,8 +10476,10 @@
       <c r="AE261" s="22"/>
       <c r="AF261" s="22"/>
       <c r="AG261" s="22"/>
-    </row>
-    <row r="262" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH261" s="22"/>
+      <c r="AI261" s="22"/>
+    </row>
+    <row r="262" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C262" s="22"/>
       <c r="D262" s="22"/>
       <c r="E262" s="22"/>
@@ -9908,8 +10511,10 @@
       <c r="AE262" s="22"/>
       <c r="AF262" s="22"/>
       <c r="AG262" s="22"/>
-    </row>
-    <row r="263" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH262" s="22"/>
+      <c r="AI262" s="22"/>
+    </row>
+    <row r="263" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C263" s="22"/>
       <c r="D263" s="22"/>
       <c r="E263" s="22"/>
@@ -9941,8 +10546,10 @@
       <c r="AE263" s="22"/>
       <c r="AF263" s="22"/>
       <c r="AG263" s="22"/>
-    </row>
-    <row r="264" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH263" s="22"/>
+      <c r="AI263" s="22"/>
+    </row>
+    <row r="264" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C264" s="22"/>
       <c r="D264" s="22"/>
       <c r="E264" s="22"/>
@@ -9974,8 +10581,10 @@
       <c r="AE264" s="22"/>
       <c r="AF264" s="22"/>
       <c r="AG264" s="22"/>
-    </row>
-    <row r="265" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH264" s="22"/>
+      <c r="AI264" s="22"/>
+    </row>
+    <row r="265" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C265" s="22"/>
       <c r="D265" s="22"/>
       <c r="E265" s="22"/>
@@ -10007,8 +10616,10 @@
       <c r="AE265" s="22"/>
       <c r="AF265" s="22"/>
       <c r="AG265" s="22"/>
-    </row>
-    <row r="266" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH265" s="22"/>
+      <c r="AI265" s="22"/>
+    </row>
+    <row r="266" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C266" s="22"/>
       <c r="D266" s="22"/>
       <c r="E266" s="22"/>
@@ -10040,8 +10651,10 @@
       <c r="AE266" s="22"/>
       <c r="AF266" s="22"/>
       <c r="AG266" s="22"/>
-    </row>
-    <row r="267" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH266" s="22"/>
+      <c r="AI266" s="22"/>
+    </row>
+    <row r="267" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C267" s="22"/>
       <c r="D267" s="22"/>
       <c r="E267" s="22"/>
@@ -10073,8 +10686,10 @@
       <c r="AE267" s="22"/>
       <c r="AF267" s="22"/>
       <c r="AG267" s="22"/>
-    </row>
-    <row r="268" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH267" s="22"/>
+      <c r="AI267" s="22"/>
+    </row>
+    <row r="268" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C268" s="22"/>
       <c r="D268" s="22"/>
       <c r="E268" s="22"/>
@@ -10106,8 +10721,10 @@
       <c r="AE268" s="22"/>
       <c r="AF268" s="22"/>
       <c r="AG268" s="22"/>
-    </row>
-    <row r="269" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH268" s="22"/>
+      <c r="AI268" s="22"/>
+    </row>
+    <row r="269" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C269" s="22"/>
       <c r="D269" s="22"/>
       <c r="E269" s="22"/>
@@ -10139,8 +10756,10 @@
       <c r="AE269" s="22"/>
       <c r="AF269" s="22"/>
       <c r="AG269" s="22"/>
-    </row>
-    <row r="270" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH269" s="22"/>
+      <c r="AI269" s="22"/>
+    </row>
+    <row r="270" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C270" s="22"/>
       <c r="D270" s="22"/>
       <c r="E270" s="22"/>
@@ -10172,8 +10791,10 @@
       <c r="AE270" s="22"/>
       <c r="AF270" s="22"/>
       <c r="AG270" s="22"/>
-    </row>
-    <row r="271" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH270" s="22"/>
+      <c r="AI270" s="22"/>
+    </row>
+    <row r="271" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C271" s="22"/>
       <c r="D271" s="22"/>
       <c r="E271" s="22"/>
@@ -10205,8 +10826,10 @@
       <c r="AE271" s="22"/>
       <c r="AF271" s="22"/>
       <c r="AG271" s="22"/>
-    </row>
-    <row r="272" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH271" s="22"/>
+      <c r="AI271" s="22"/>
+    </row>
+    <row r="272" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C272" s="22"/>
       <c r="D272" s="22"/>
       <c r="E272" s="22"/>
@@ -10238,8 +10861,10 @@
       <c r="AE272" s="22"/>
       <c r="AF272" s="22"/>
       <c r="AG272" s="22"/>
-    </row>
-    <row r="273" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH272" s="22"/>
+      <c r="AI272" s="22"/>
+    </row>
+    <row r="273" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C273" s="22"/>
       <c r="D273" s="22"/>
       <c r="E273" s="22"/>
@@ -10271,8 +10896,10 @@
       <c r="AE273" s="22"/>
       <c r="AF273" s="22"/>
       <c r="AG273" s="22"/>
-    </row>
-    <row r="274" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH273" s="22"/>
+      <c r="AI273" s="22"/>
+    </row>
+    <row r="274" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C274" s="22"/>
       <c r="D274" s="22"/>
       <c r="E274" s="22"/>
@@ -10304,8 +10931,10 @@
       <c r="AE274" s="22"/>
       <c r="AF274" s="22"/>
       <c r="AG274" s="22"/>
-    </row>
-    <row r="275" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH274" s="22"/>
+      <c r="AI274" s="22"/>
+    </row>
+    <row r="275" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C275" s="22"/>
       <c r="D275" s="22"/>
       <c r="E275" s="22"/>
@@ -10337,8 +10966,10 @@
       <c r="AE275" s="22"/>
       <c r="AF275" s="22"/>
       <c r="AG275" s="22"/>
-    </row>
-    <row r="276" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH275" s="22"/>
+      <c r="AI275" s="22"/>
+    </row>
+    <row r="276" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C276" s="22"/>
       <c r="D276" s="22"/>
       <c r="E276" s="22"/>
@@ -10370,8 +11001,10 @@
       <c r="AE276" s="22"/>
       <c r="AF276" s="22"/>
       <c r="AG276" s="22"/>
-    </row>
-    <row r="277" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH276" s="22"/>
+      <c r="AI276" s="22"/>
+    </row>
+    <row r="277" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C277" s="22"/>
       <c r="D277" s="22"/>
       <c r="E277" s="22"/>
@@ -10403,8 +11036,10 @@
       <c r="AE277" s="22"/>
       <c r="AF277" s="22"/>
       <c r="AG277" s="22"/>
-    </row>
-    <row r="278" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH277" s="22"/>
+      <c r="AI277" s="22"/>
+    </row>
+    <row r="278" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C278" s="22"/>
       <c r="D278" s="22"/>
       <c r="E278" s="22"/>
@@ -10436,8 +11071,10 @@
       <c r="AE278" s="22"/>
       <c r="AF278" s="22"/>
       <c r="AG278" s="22"/>
-    </row>
-    <row r="279" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH278" s="22"/>
+      <c r="AI278" s="22"/>
+    </row>
+    <row r="279" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C279" s="22"/>
       <c r="D279" s="22"/>
       <c r="E279" s="22"/>
@@ -10469,8 +11106,10 @@
       <c r="AE279" s="22"/>
       <c r="AF279" s="22"/>
       <c r="AG279" s="22"/>
-    </row>
-    <row r="280" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH279" s="22"/>
+      <c r="AI279" s="22"/>
+    </row>
+    <row r="280" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C280" s="22"/>
       <c r="D280" s="22"/>
       <c r="E280" s="22"/>
@@ -10502,8 +11141,10 @@
       <c r="AE280" s="22"/>
       <c r="AF280" s="22"/>
       <c r="AG280" s="22"/>
-    </row>
-    <row r="281" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH280" s="22"/>
+      <c r="AI280" s="22"/>
+    </row>
+    <row r="281" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C281" s="22"/>
       <c r="D281" s="22"/>
       <c r="E281" s="22"/>
@@ -10535,8 +11176,10 @@
       <c r="AE281" s="22"/>
       <c r="AF281" s="22"/>
       <c r="AG281" s="22"/>
-    </row>
-    <row r="282" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH281" s="22"/>
+      <c r="AI281" s="22"/>
+    </row>
+    <row r="282" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C282" s="22"/>
       <c r="D282" s="22"/>
       <c r="E282" s="22"/>
@@ -10568,8 +11211,10 @@
       <c r="AE282" s="22"/>
       <c r="AF282" s="22"/>
       <c r="AG282" s="22"/>
-    </row>
-    <row r="283" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH282" s="22"/>
+      <c r="AI282" s="22"/>
+    </row>
+    <row r="283" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C283" s="22"/>
       <c r="D283" s="22"/>
       <c r="E283" s="22"/>
@@ -10601,8 +11246,10 @@
       <c r="AE283" s="22"/>
       <c r="AF283" s="22"/>
       <c r="AG283" s="22"/>
-    </row>
-    <row r="284" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH283" s="22"/>
+      <c r="AI283" s="22"/>
+    </row>
+    <row r="284" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C284" s="22"/>
       <c r="D284" s="22"/>
       <c r="E284" s="22"/>
@@ -10634,8 +11281,10 @@
       <c r="AE284" s="22"/>
       <c r="AF284" s="22"/>
       <c r="AG284" s="22"/>
-    </row>
-    <row r="285" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH284" s="22"/>
+      <c r="AI284" s="22"/>
+    </row>
+    <row r="285" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C285" s="22"/>
       <c r="D285" s="22"/>
       <c r="E285" s="22"/>
@@ -10667,8 +11316,10 @@
       <c r="AE285" s="22"/>
       <c r="AF285" s="22"/>
       <c r="AG285" s="22"/>
-    </row>
-    <row r="286" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH285" s="22"/>
+      <c r="AI285" s="22"/>
+    </row>
+    <row r="286" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C286" s="22"/>
       <c r="D286" s="22"/>
       <c r="E286" s="22"/>
@@ -10700,8 +11351,10 @@
       <c r="AE286" s="22"/>
       <c r="AF286" s="22"/>
       <c r="AG286" s="22"/>
-    </row>
-    <row r="287" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH286" s="22"/>
+      <c r="AI286" s="22"/>
+    </row>
+    <row r="287" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C287" s="22"/>
       <c r="D287" s="22"/>
       <c r="E287" s="22"/>
@@ -10733,8 +11386,10 @@
       <c r="AE287" s="22"/>
       <c r="AF287" s="22"/>
       <c r="AG287" s="22"/>
-    </row>
-    <row r="288" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH287" s="22"/>
+      <c r="AI287" s="22"/>
+    </row>
+    <row r="288" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C288" s="22"/>
       <c r="D288" s="22"/>
       <c r="E288" s="22"/>
@@ -10766,8 +11421,10 @@
       <c r="AE288" s="22"/>
       <c r="AF288" s="22"/>
       <c r="AG288" s="22"/>
-    </row>
-    <row r="289" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH288" s="22"/>
+      <c r="AI288" s="22"/>
+    </row>
+    <row r="289" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C289" s="22"/>
       <c r="D289" s="22"/>
       <c r="E289" s="22"/>
@@ -10799,8 +11456,10 @@
       <c r="AE289" s="22"/>
       <c r="AF289" s="22"/>
       <c r="AG289" s="22"/>
-    </row>
-    <row r="290" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH289" s="22"/>
+      <c r="AI289" s="22"/>
+    </row>
+    <row r="290" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C290" s="22"/>
       <c r="D290" s="22"/>
       <c r="E290" s="22"/>
@@ -10832,8 +11491,10 @@
       <c r="AE290" s="22"/>
       <c r="AF290" s="22"/>
       <c r="AG290" s="22"/>
-    </row>
-    <row r="291" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH290" s="22"/>
+      <c r="AI290" s="22"/>
+    </row>
+    <row r="291" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C291" s="22"/>
       <c r="D291" s="22"/>
       <c r="E291" s="22"/>
@@ -10865,8 +11526,10 @@
       <c r="AE291" s="22"/>
       <c r="AF291" s="22"/>
       <c r="AG291" s="22"/>
-    </row>
-    <row r="292" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH291" s="22"/>
+      <c r="AI291" s="22"/>
+    </row>
+    <row r="292" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C292" s="22"/>
       <c r="D292" s="22"/>
       <c r="E292" s="22"/>
@@ -10898,8 +11561,10 @@
       <c r="AE292" s="22"/>
       <c r="AF292" s="22"/>
       <c r="AG292" s="22"/>
-    </row>
-    <row r="293" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH292" s="22"/>
+      <c r="AI292" s="22"/>
+    </row>
+    <row r="293" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C293" s="22"/>
       <c r="D293" s="22"/>
       <c r="E293" s="22"/>
@@ -10931,8 +11596,10 @@
       <c r="AE293" s="22"/>
       <c r="AF293" s="22"/>
       <c r="AG293" s="22"/>
-    </row>
-    <row r="294" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH293" s="22"/>
+      <c r="AI293" s="22"/>
+    </row>
+    <row r="294" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C294" s="22"/>
       <c r="D294" s="22"/>
       <c r="E294" s="22"/>
@@ -10964,8 +11631,10 @@
       <c r="AE294" s="22"/>
       <c r="AF294" s="22"/>
       <c r="AG294" s="22"/>
-    </row>
-    <row r="295" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH294" s="22"/>
+      <c r="AI294" s="22"/>
+    </row>
+    <row r="295" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C295" s="22"/>
       <c r="D295" s="22"/>
       <c r="E295" s="22"/>
@@ -10997,8 +11666,10 @@
       <c r="AE295" s="22"/>
       <c r="AF295" s="22"/>
       <c r="AG295" s="22"/>
-    </row>
-    <row r="296" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH295" s="22"/>
+      <c r="AI295" s="22"/>
+    </row>
+    <row r="296" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C296" s="22"/>
       <c r="D296" s="22"/>
       <c r="E296" s="22"/>
@@ -11030,8 +11701,10 @@
       <c r="AE296" s="22"/>
       <c r="AF296" s="22"/>
       <c r="AG296" s="22"/>
-    </row>
-    <row r="297" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH296" s="22"/>
+      <c r="AI296" s="22"/>
+    </row>
+    <row r="297" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C297" s="22"/>
       <c r="D297" s="22"/>
       <c r="E297" s="22"/>
@@ -11063,8 +11736,10 @@
       <c r="AE297" s="22"/>
       <c r="AF297" s="22"/>
       <c r="AG297" s="22"/>
-    </row>
-    <row r="298" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH297" s="22"/>
+      <c r="AI297" s="22"/>
+    </row>
+    <row r="298" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C298" s="22"/>
       <c r="D298" s="22"/>
       <c r="E298" s="22"/>
@@ -11096,8 +11771,10 @@
       <c r="AE298" s="22"/>
       <c r="AF298" s="22"/>
       <c r="AG298" s="22"/>
-    </row>
-    <row r="299" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH298" s="22"/>
+      <c r="AI298" s="22"/>
+    </row>
+    <row r="299" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C299" s="22"/>
       <c r="D299" s="22"/>
       <c r="E299" s="22"/>
@@ -11129,8 +11806,10 @@
       <c r="AE299" s="22"/>
       <c r="AF299" s="22"/>
       <c r="AG299" s="22"/>
-    </row>
-    <row r="300" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH299" s="22"/>
+      <c r="AI299" s="22"/>
+    </row>
+    <row r="300" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C300" s="22"/>
       <c r="D300" s="22"/>
       <c r="E300" s="22"/>
@@ -11162,8 +11841,10 @@
       <c r="AE300" s="22"/>
       <c r="AF300" s="22"/>
       <c r="AG300" s="22"/>
-    </row>
-    <row r="301" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH300" s="22"/>
+      <c r="AI300" s="22"/>
+    </row>
+    <row r="301" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C301" s="22"/>
       <c r="D301" s="22"/>
       <c r="E301" s="22"/>
@@ -11195,8 +11876,10 @@
       <c r="AE301" s="22"/>
       <c r="AF301" s="22"/>
       <c r="AG301" s="22"/>
-    </row>
-    <row r="302" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH301" s="22"/>
+      <c r="AI301" s="22"/>
+    </row>
+    <row r="302" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C302" s="22"/>
       <c r="D302" s="22"/>
       <c r="E302" s="22"/>
@@ -11228,8 +11911,10 @@
       <c r="AE302" s="22"/>
       <c r="AF302" s="22"/>
       <c r="AG302" s="22"/>
-    </row>
-    <row r="303" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH302" s="22"/>
+      <c r="AI302" s="22"/>
+    </row>
+    <row r="303" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C303" s="22"/>
       <c r="D303" s="22"/>
       <c r="E303" s="22"/>
@@ -11261,8 +11946,10 @@
       <c r="AE303" s="22"/>
       <c r="AF303" s="22"/>
       <c r="AG303" s="22"/>
-    </row>
-    <row r="304" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH303" s="22"/>
+      <c r="AI303" s="22"/>
+    </row>
+    <row r="304" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C304" s="22"/>
       <c r="D304" s="22"/>
       <c r="E304" s="22"/>
@@ -11294,8 +11981,10 @@
       <c r="AE304" s="22"/>
       <c r="AF304" s="22"/>
       <c r="AG304" s="22"/>
-    </row>
-    <row r="305" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH304" s="22"/>
+      <c r="AI304" s="22"/>
+    </row>
+    <row r="305" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C305" s="22"/>
       <c r="D305" s="22"/>
       <c r="E305" s="22"/>
@@ -11327,8 +12016,10 @@
       <c r="AE305" s="22"/>
       <c r="AF305" s="22"/>
       <c r="AG305" s="22"/>
-    </row>
-    <row r="306" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH305" s="22"/>
+      <c r="AI305" s="22"/>
+    </row>
+    <row r="306" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C306" s="22"/>
       <c r="D306" s="22"/>
       <c r="E306" s="22"/>
@@ -11360,8 +12051,10 @@
       <c r="AE306" s="22"/>
       <c r="AF306" s="22"/>
       <c r="AG306" s="22"/>
-    </row>
-    <row r="307" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH306" s="22"/>
+      <c r="AI306" s="22"/>
+    </row>
+    <row r="307" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C307" s="22"/>
       <c r="D307" s="22"/>
       <c r="E307" s="22"/>
@@ -11393,8 +12086,10 @@
       <c r="AE307" s="22"/>
       <c r="AF307" s="22"/>
       <c r="AG307" s="22"/>
-    </row>
-    <row r="308" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH307" s="22"/>
+      <c r="AI307" s="22"/>
+    </row>
+    <row r="308" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C308" s="22"/>
       <c r="D308" s="22"/>
       <c r="E308" s="22"/>
@@ -11426,8 +12121,10 @@
       <c r="AE308" s="22"/>
       <c r="AF308" s="22"/>
       <c r="AG308" s="22"/>
-    </row>
-    <row r="309" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH308" s="22"/>
+      <c r="AI308" s="22"/>
+    </row>
+    <row r="309" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C309" s="22"/>
       <c r="D309" s="22"/>
       <c r="E309" s="22"/>
@@ -11459,8 +12156,10 @@
       <c r="AE309" s="22"/>
       <c r="AF309" s="22"/>
       <c r="AG309" s="22"/>
-    </row>
-    <row r="310" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH309" s="22"/>
+      <c r="AI309" s="22"/>
+    </row>
+    <row r="310" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C310" s="22"/>
       <c r="D310" s="22"/>
       <c r="E310" s="22"/>
@@ -11492,8 +12191,10 @@
       <c r="AE310" s="22"/>
       <c r="AF310" s="22"/>
       <c r="AG310" s="22"/>
-    </row>
-    <row r="311" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH310" s="22"/>
+      <c r="AI310" s="22"/>
+    </row>
+    <row r="311" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C311" s="22"/>
       <c r="D311" s="22"/>
       <c r="E311" s="22"/>
@@ -11525,8 +12226,10 @@
       <c r="AE311" s="22"/>
       <c r="AF311" s="22"/>
       <c r="AG311" s="22"/>
-    </row>
-    <row r="312" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH311" s="22"/>
+      <c r="AI311" s="22"/>
+    </row>
+    <row r="312" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C312" s="22"/>
       <c r="D312" s="22"/>
       <c r="E312" s="22"/>
@@ -11558,8 +12261,10 @@
       <c r="AE312" s="22"/>
       <c r="AF312" s="22"/>
       <c r="AG312" s="22"/>
-    </row>
-    <row r="313" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH312" s="22"/>
+      <c r="AI312" s="22"/>
+    </row>
+    <row r="313" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C313" s="22"/>
       <c r="D313" s="22"/>
       <c r="E313" s="22"/>
@@ -11591,8 +12296,10 @@
       <c r="AE313" s="22"/>
       <c r="AF313" s="22"/>
       <c r="AG313" s="22"/>
-    </row>
-    <row r="314" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH313" s="22"/>
+      <c r="AI313" s="22"/>
+    </row>
+    <row r="314" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C314" s="22"/>
       <c r="D314" s="22"/>
       <c r="E314" s="22"/>
@@ -11624,8 +12331,10 @@
       <c r="AE314" s="22"/>
       <c r="AF314" s="22"/>
       <c r="AG314" s="22"/>
-    </row>
-    <row r="315" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH314" s="22"/>
+      <c r="AI314" s="22"/>
+    </row>
+    <row r="315" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C315" s="22"/>
       <c r="D315" s="22"/>
       <c r="E315" s="22"/>
@@ -11657,8 +12366,10 @@
       <c r="AE315" s="22"/>
       <c r="AF315" s="22"/>
       <c r="AG315" s="22"/>
-    </row>
-    <row r="316" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH315" s="22"/>
+      <c r="AI315" s="22"/>
+    </row>
+    <row r="316" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C316" s="22"/>
       <c r="D316" s="22"/>
       <c r="E316" s="22"/>
@@ -11690,8 +12401,10 @@
       <c r="AE316" s="22"/>
       <c r="AF316" s="22"/>
       <c r="AG316" s="22"/>
-    </row>
-    <row r="317" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH316" s="22"/>
+      <c r="AI316" s="22"/>
+    </row>
+    <row r="317" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C317" s="22"/>
       <c r="D317" s="22"/>
       <c r="E317" s="22"/>
@@ -11723,8 +12436,10 @@
       <c r="AE317" s="22"/>
       <c r="AF317" s="22"/>
       <c r="AG317" s="22"/>
-    </row>
-    <row r="318" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH317" s="22"/>
+      <c r="AI317" s="22"/>
+    </row>
+    <row r="318" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C318" s="22"/>
       <c r="D318" s="22"/>
       <c r="E318" s="22"/>
@@ -11756,8 +12471,10 @@
       <c r="AE318" s="22"/>
       <c r="AF318" s="22"/>
       <c r="AG318" s="22"/>
-    </row>
-    <row r="319" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH318" s="22"/>
+      <c r="AI318" s="22"/>
+    </row>
+    <row r="319" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C319" s="22"/>
       <c r="D319" s="22"/>
       <c r="E319" s="22"/>
@@ -11789,8 +12506,10 @@
       <c r="AE319" s="22"/>
       <c r="AF319" s="22"/>
       <c r="AG319" s="22"/>
-    </row>
-    <row r="320" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH319" s="22"/>
+      <c r="AI319" s="22"/>
+    </row>
+    <row r="320" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C320" s="22"/>
       <c r="D320" s="22"/>
       <c r="E320" s="22"/>
@@ -11822,8 +12541,10 @@
       <c r="AE320" s="22"/>
       <c r="AF320" s="22"/>
       <c r="AG320" s="22"/>
-    </row>
-    <row r="321" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH320" s="22"/>
+      <c r="AI320" s="22"/>
+    </row>
+    <row r="321" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C321" s="22"/>
       <c r="D321" s="22"/>
       <c r="E321" s="22"/>
@@ -11855,8 +12576,10 @@
       <c r="AE321" s="22"/>
       <c r="AF321" s="22"/>
       <c r="AG321" s="22"/>
-    </row>
-    <row r="322" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH321" s="22"/>
+      <c r="AI321" s="22"/>
+    </row>
+    <row r="322" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C322" s="22"/>
       <c r="D322" s="22"/>
       <c r="E322" s="22"/>
@@ -11888,8 +12611,10 @@
       <c r="AE322" s="22"/>
       <c r="AF322" s="22"/>
       <c r="AG322" s="22"/>
-    </row>
-    <row r="323" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH322" s="22"/>
+      <c r="AI322" s="22"/>
+    </row>
+    <row r="323" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C323" s="22"/>
       <c r="D323" s="22"/>
       <c r="E323" s="22"/>
@@ -11921,8 +12646,10 @@
       <c r="AE323" s="22"/>
       <c r="AF323" s="22"/>
       <c r="AG323" s="22"/>
-    </row>
-    <row r="324" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH323" s="22"/>
+      <c r="AI323" s="22"/>
+    </row>
+    <row r="324" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C324" s="22"/>
       <c r="D324" s="22"/>
       <c r="E324" s="22"/>
@@ -11954,8 +12681,10 @@
       <c r="AE324" s="22"/>
       <c r="AF324" s="22"/>
       <c r="AG324" s="22"/>
-    </row>
-    <row r="325" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH324" s="22"/>
+      <c r="AI324" s="22"/>
+    </row>
+    <row r="325" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C325" s="22"/>
       <c r="D325" s="22"/>
       <c r="E325" s="22"/>
@@ -11987,8 +12716,10 @@
       <c r="AE325" s="22"/>
       <c r="AF325" s="22"/>
       <c r="AG325" s="22"/>
-    </row>
-    <row r="326" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH325" s="22"/>
+      <c r="AI325" s="22"/>
+    </row>
+    <row r="326" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C326" s="22"/>
       <c r="D326" s="22"/>
       <c r="E326" s="22"/>
@@ -12020,8 +12751,10 @@
       <c r="AE326" s="22"/>
       <c r="AF326" s="22"/>
       <c r="AG326" s="22"/>
-    </row>
-    <row r="327" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH326" s="22"/>
+      <c r="AI326" s="22"/>
+    </row>
+    <row r="327" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C327" s="22"/>
       <c r="D327" s="22"/>
       <c r="E327" s="22"/>
@@ -12053,8 +12786,10 @@
       <c r="AE327" s="22"/>
       <c r="AF327" s="22"/>
       <c r="AG327" s="22"/>
-    </row>
-    <row r="328" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH327" s="22"/>
+      <c r="AI327" s="22"/>
+    </row>
+    <row r="328" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C328" s="22"/>
       <c r="D328" s="22"/>
       <c r="E328" s="22"/>
@@ -12086,8 +12821,10 @@
       <c r="AE328" s="22"/>
       <c r="AF328" s="22"/>
       <c r="AG328" s="22"/>
-    </row>
-    <row r="329" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH328" s="22"/>
+      <c r="AI328" s="22"/>
+    </row>
+    <row r="329" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C329" s="22"/>
       <c r="D329" s="22"/>
       <c r="E329" s="22"/>
@@ -12119,8 +12856,10 @@
       <c r="AE329" s="22"/>
       <c r="AF329" s="22"/>
       <c r="AG329" s="22"/>
-    </row>
-    <row r="330" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH329" s="22"/>
+      <c r="AI329" s="22"/>
+    </row>
+    <row r="330" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C330" s="22"/>
       <c r="D330" s="22"/>
       <c r="E330" s="22"/>
@@ -12152,8 +12891,10 @@
       <c r="AE330" s="22"/>
       <c r="AF330" s="22"/>
       <c r="AG330" s="22"/>
-    </row>
-    <row r="331" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH330" s="22"/>
+      <c r="AI330" s="22"/>
+    </row>
+    <row r="331" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C331" s="22"/>
       <c r="D331" s="22"/>
       <c r="E331" s="22"/>
@@ -12185,8 +12926,10 @@
       <c r="AE331" s="22"/>
       <c r="AF331" s="22"/>
       <c r="AG331" s="22"/>
-    </row>
-    <row r="332" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH331" s="22"/>
+      <c r="AI331" s="22"/>
+    </row>
+    <row r="332" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C332" s="22"/>
       <c r="D332" s="22"/>
       <c r="E332" s="22"/>
@@ -12218,8 +12961,10 @@
       <c r="AE332" s="22"/>
       <c r="AF332" s="22"/>
       <c r="AG332" s="22"/>
-    </row>
-    <row r="333" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH332" s="22"/>
+      <c r="AI332" s="22"/>
+    </row>
+    <row r="333" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C333" s="22"/>
       <c r="D333" s="22"/>
       <c r="E333" s="22"/>
@@ -12251,8 +12996,10 @@
       <c r="AE333" s="22"/>
       <c r="AF333" s="22"/>
       <c r="AG333" s="22"/>
-    </row>
-    <row r="334" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH333" s="22"/>
+      <c r="AI333" s="22"/>
+    </row>
+    <row r="334" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C334" s="22"/>
       <c r="D334" s="22"/>
       <c r="E334" s="22"/>
@@ -12284,8 +13031,10 @@
       <c r="AE334" s="22"/>
       <c r="AF334" s="22"/>
       <c r="AG334" s="22"/>
-    </row>
-    <row r="335" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH334" s="22"/>
+      <c r="AI334" s="22"/>
+    </row>
+    <row r="335" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C335" s="22"/>
       <c r="D335" s="22"/>
       <c r="E335" s="22"/>
@@ -12317,8 +13066,10 @@
       <c r="AE335" s="22"/>
       <c r="AF335" s="22"/>
       <c r="AG335" s="22"/>
-    </row>
-    <row r="336" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH335" s="22"/>
+      <c r="AI335" s="22"/>
+    </row>
+    <row r="336" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C336" s="22"/>
       <c r="D336" s="22"/>
       <c r="E336" s="22"/>
@@ -12350,8 +13101,10 @@
       <c r="AE336" s="22"/>
       <c r="AF336" s="22"/>
       <c r="AG336" s="22"/>
-    </row>
-    <row r="337" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH336" s="22"/>
+      <c r="AI336" s="22"/>
+    </row>
+    <row r="337" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C337" s="22"/>
       <c r="D337" s="22"/>
       <c r="E337" s="22"/>
@@ -12383,8 +13136,10 @@
       <c r="AE337" s="22"/>
       <c r="AF337" s="22"/>
       <c r="AG337" s="22"/>
-    </row>
-    <row r="338" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH337" s="22"/>
+      <c r="AI337" s="22"/>
+    </row>
+    <row r="338" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C338" s="22"/>
       <c r="D338" s="22"/>
       <c r="E338" s="22"/>
@@ -12416,8 +13171,10 @@
       <c r="AE338" s="22"/>
       <c r="AF338" s="22"/>
       <c r="AG338" s="22"/>
-    </row>
-    <row r="339" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH338" s="22"/>
+      <c r="AI338" s="22"/>
+    </row>
+    <row r="339" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C339" s="22"/>
       <c r="D339" s="22"/>
       <c r="E339" s="22"/>
@@ -12449,8 +13206,10 @@
       <c r="AE339" s="22"/>
       <c r="AF339" s="22"/>
       <c r="AG339" s="22"/>
-    </row>
-    <row r="340" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH339" s="22"/>
+      <c r="AI339" s="22"/>
+    </row>
+    <row r="340" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C340" s="22"/>
       <c r="D340" s="22"/>
       <c r="E340" s="22"/>
@@ -12482,8 +13241,10 @@
       <c r="AE340" s="22"/>
       <c r="AF340" s="22"/>
       <c r="AG340" s="22"/>
-    </row>
-    <row r="341" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH340" s="22"/>
+      <c r="AI340" s="22"/>
+    </row>
+    <row r="341" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C341" s="22"/>
       <c r="D341" s="22"/>
       <c r="E341" s="22"/>
@@ -12515,8 +13276,10 @@
       <c r="AE341" s="22"/>
       <c r="AF341" s="22"/>
       <c r="AG341" s="22"/>
-    </row>
-    <row r="342" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH341" s="22"/>
+      <c r="AI341" s="22"/>
+    </row>
+    <row r="342" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C342" s="22"/>
       <c r="D342" s="22"/>
       <c r="E342" s="22"/>
@@ -12548,8 +13311,10 @@
       <c r="AE342" s="22"/>
       <c r="AF342" s="22"/>
       <c r="AG342" s="22"/>
-    </row>
-    <row r="343" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH342" s="22"/>
+      <c r="AI342" s="22"/>
+    </row>
+    <row r="343" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C343" s="22"/>
       <c r="D343" s="22"/>
       <c r="E343" s="22"/>
@@ -12581,8 +13346,10 @@
       <c r="AE343" s="22"/>
       <c r="AF343" s="22"/>
       <c r="AG343" s="22"/>
-    </row>
-    <row r="344" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH343" s="22"/>
+      <c r="AI343" s="22"/>
+    </row>
+    <row r="344" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C344" s="22"/>
       <c r="D344" s="22"/>
       <c r="E344" s="22"/>
@@ -12614,8 +13381,10 @@
       <c r="AE344" s="22"/>
       <c r="AF344" s="22"/>
       <c r="AG344" s="22"/>
-    </row>
-    <row r="345" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH344" s="22"/>
+      <c r="AI344" s="22"/>
+    </row>
+    <row r="345" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C345" s="22"/>
       <c r="D345" s="22"/>
       <c r="E345" s="22"/>
@@ -12647,8 +13416,10 @@
       <c r="AE345" s="22"/>
       <c r="AF345" s="22"/>
       <c r="AG345" s="22"/>
-    </row>
-    <row r="346" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH345" s="22"/>
+      <c r="AI345" s="22"/>
+    </row>
+    <row r="346" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C346" s="22"/>
       <c r="D346" s="22"/>
       <c r="E346" s="22"/>
@@ -12680,8 +13451,10 @@
       <c r="AE346" s="22"/>
       <c r="AF346" s="22"/>
       <c r="AG346" s="22"/>
-    </row>
-    <row r="347" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH346" s="22"/>
+      <c r="AI346" s="22"/>
+    </row>
+    <row r="347" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C347" s="22"/>
       <c r="D347" s="22"/>
       <c r="E347" s="22"/>
@@ -12713,8 +13486,10 @@
       <c r="AE347" s="22"/>
       <c r="AF347" s="22"/>
       <c r="AG347" s="22"/>
-    </row>
-    <row r="348" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH347" s="22"/>
+      <c r="AI347" s="22"/>
+    </row>
+    <row r="348" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C348" s="22"/>
       <c r="D348" s="22"/>
       <c r="E348" s="22"/>
@@ -12746,8 +13521,10 @@
       <c r="AE348" s="22"/>
       <c r="AF348" s="22"/>
       <c r="AG348" s="22"/>
-    </row>
-    <row r="349" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH348" s="22"/>
+      <c r="AI348" s="22"/>
+    </row>
+    <row r="349" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C349" s="22"/>
       <c r="D349" s="22"/>
       <c r="E349" s="22"/>
@@ -12779,8 +13556,10 @@
       <c r="AE349" s="22"/>
       <c r="AF349" s="22"/>
       <c r="AG349" s="22"/>
-    </row>
-    <row r="350" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH349" s="22"/>
+      <c r="AI349" s="22"/>
+    </row>
+    <row r="350" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C350" s="22"/>
       <c r="D350" s="22"/>
       <c r="E350" s="22"/>
@@ -12812,8 +13591,10 @@
       <c r="AE350" s="22"/>
       <c r="AF350" s="22"/>
       <c r="AG350" s="22"/>
-    </row>
-    <row r="351" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH350" s="22"/>
+      <c r="AI350" s="22"/>
+    </row>
+    <row r="351" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C351" s="22"/>
       <c r="D351" s="22"/>
       <c r="E351" s="22"/>
@@ -12845,8 +13626,10 @@
       <c r="AE351" s="22"/>
       <c r="AF351" s="22"/>
       <c r="AG351" s="22"/>
-    </row>
-    <row r="352" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH351" s="22"/>
+      <c r="AI351" s="22"/>
+    </row>
+    <row r="352" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C352" s="22"/>
       <c r="D352" s="22"/>
       <c r="E352" s="22"/>
@@ -12878,8 +13661,10 @@
       <c r="AE352" s="22"/>
       <c r="AF352" s="22"/>
       <c r="AG352" s="22"/>
-    </row>
-    <row r="353" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH352" s="22"/>
+      <c r="AI352" s="22"/>
+    </row>
+    <row r="353" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C353" s="22"/>
       <c r="D353" s="22"/>
       <c r="E353" s="22"/>
@@ -12911,8 +13696,10 @@
       <c r="AE353" s="22"/>
       <c r="AF353" s="22"/>
       <c r="AG353" s="22"/>
-    </row>
-    <row r="354" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH353" s="22"/>
+      <c r="AI353" s="22"/>
+    </row>
+    <row r="354" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C354" s="22"/>
       <c r="D354" s="22"/>
       <c r="E354" s="22"/>
@@ -12944,8 +13731,10 @@
       <c r="AE354" s="22"/>
       <c r="AF354" s="22"/>
       <c r="AG354" s="22"/>
-    </row>
-    <row r="355" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH354" s="22"/>
+      <c r="AI354" s="22"/>
+    </row>
+    <row r="355" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C355" s="22"/>
       <c r="D355" s="22"/>
       <c r="E355" s="22"/>
@@ -12977,8 +13766,10 @@
       <c r="AE355" s="22"/>
       <c r="AF355" s="22"/>
       <c r="AG355" s="22"/>
-    </row>
-    <row r="356" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH355" s="22"/>
+      <c r="AI355" s="22"/>
+    </row>
+    <row r="356" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C356" s="22"/>
       <c r="D356" s="22"/>
       <c r="E356" s="22"/>
@@ -13010,8 +13801,10 @@
       <c r="AE356" s="22"/>
       <c r="AF356" s="22"/>
       <c r="AG356" s="22"/>
-    </row>
-    <row r="357" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH356" s="22"/>
+      <c r="AI356" s="22"/>
+    </row>
+    <row r="357" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C357" s="22"/>
       <c r="D357" s="22"/>
       <c r="E357" s="22"/>
@@ -13043,8 +13836,10 @@
       <c r="AE357" s="22"/>
       <c r="AF357" s="22"/>
       <c r="AG357" s="22"/>
-    </row>
-    <row r="358" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH357" s="22"/>
+      <c r="AI357" s="22"/>
+    </row>
+    <row r="358" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C358" s="22"/>
       <c r="D358" s="22"/>
       <c r="E358" s="22"/>
@@ -13076,8 +13871,10 @@
       <c r="AE358" s="22"/>
       <c r="AF358" s="22"/>
       <c r="AG358" s="22"/>
-    </row>
-    <row r="359" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH358" s="22"/>
+      <c r="AI358" s="22"/>
+    </row>
+    <row r="359" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C359" s="22"/>
       <c r="D359" s="22"/>
       <c r="E359" s="22"/>
@@ -13109,8 +13906,10 @@
       <c r="AE359" s="22"/>
       <c r="AF359" s="22"/>
       <c r="AG359" s="22"/>
-    </row>
-    <row r="360" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH359" s="22"/>
+      <c r="AI359" s="22"/>
+    </row>
+    <row r="360" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C360" s="22"/>
       <c r="D360" s="22"/>
       <c r="E360" s="22"/>
@@ -13142,8 +13941,10 @@
       <c r="AE360" s="22"/>
       <c r="AF360" s="22"/>
       <c r="AG360" s="22"/>
-    </row>
-    <row r="361" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH360" s="22"/>
+      <c r="AI360" s="22"/>
+    </row>
+    <row r="361" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C361" s="22"/>
       <c r="D361" s="22"/>
       <c r="E361" s="22"/>
@@ -13175,8 +13976,10 @@
       <c r="AE361" s="22"/>
       <c r="AF361" s="22"/>
       <c r="AG361" s="22"/>
-    </row>
-    <row r="362" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH361" s="22"/>
+      <c r="AI361" s="22"/>
+    </row>
+    <row r="362" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C362" s="22"/>
       <c r="D362" s="22"/>
       <c r="E362" s="22"/>
@@ -13208,8 +14011,10 @@
       <c r="AE362" s="22"/>
       <c r="AF362" s="22"/>
       <c r="AG362" s="22"/>
-    </row>
-    <row r="363" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH362" s="22"/>
+      <c r="AI362" s="22"/>
+    </row>
+    <row r="363" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C363" s="22"/>
       <c r="D363" s="22"/>
       <c r="E363" s="22"/>
@@ -13241,8 +14046,10 @@
       <c r="AE363" s="22"/>
       <c r="AF363" s="22"/>
       <c r="AG363" s="22"/>
-    </row>
-    <row r="364" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH363" s="22"/>
+      <c r="AI363" s="22"/>
+    </row>
+    <row r="364" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C364" s="22"/>
       <c r="D364" s="22"/>
       <c r="E364" s="22"/>
@@ -13274,8 +14081,10 @@
       <c r="AE364" s="22"/>
       <c r="AF364" s="22"/>
       <c r="AG364" s="22"/>
-    </row>
-    <row r="365" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH364" s="22"/>
+      <c r="AI364" s="22"/>
+    </row>
+    <row r="365" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C365" s="22"/>
       <c r="D365" s="22"/>
       <c r="E365" s="22"/>
@@ -13307,8 +14116,10 @@
       <c r="AE365" s="22"/>
       <c r="AF365" s="22"/>
       <c r="AG365" s="22"/>
-    </row>
-    <row r="366" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH365" s="22"/>
+      <c r="AI365" s="22"/>
+    </row>
+    <row r="366" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C366" s="22"/>
       <c r="D366" s="22"/>
       <c r="E366" s="22"/>
@@ -13340,8 +14151,10 @@
       <c r="AE366" s="22"/>
       <c r="AF366" s="22"/>
       <c r="AG366" s="22"/>
-    </row>
-    <row r="367" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH366" s="22"/>
+      <c r="AI366" s="22"/>
+    </row>
+    <row r="367" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C367" s="22"/>
       <c r="D367" s="22"/>
       <c r="E367" s="22"/>
@@ -13373,8 +14186,10 @@
       <c r="AE367" s="22"/>
       <c r="AF367" s="22"/>
       <c r="AG367" s="22"/>
-    </row>
-    <row r="368" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH367" s="22"/>
+      <c r="AI367" s="22"/>
+    </row>
+    <row r="368" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C368" s="22"/>
       <c r="D368" s="22"/>
       <c r="E368" s="22"/>
@@ -13406,8 +14221,10 @@
       <c r="AE368" s="22"/>
       <c r="AF368" s="22"/>
       <c r="AG368" s="22"/>
-    </row>
-    <row r="369" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH368" s="22"/>
+      <c r="AI368" s="22"/>
+    </row>
+    <row r="369" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C369" s="22"/>
       <c r="D369" s="22"/>
       <c r="E369" s="22"/>
@@ -13439,8 +14256,10 @@
       <c r="AE369" s="22"/>
       <c r="AF369" s="22"/>
       <c r="AG369" s="22"/>
-    </row>
-    <row r="370" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH369" s="22"/>
+      <c r="AI369" s="22"/>
+    </row>
+    <row r="370" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C370" s="22"/>
       <c r="D370" s="22"/>
       <c r="E370" s="22"/>
@@ -13472,8 +14291,10 @@
       <c r="AE370" s="22"/>
       <c r="AF370" s="22"/>
       <c r="AG370" s="22"/>
-    </row>
-    <row r="371" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH370" s="22"/>
+      <c r="AI370" s="22"/>
+    </row>
+    <row r="371" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C371" s="22"/>
       <c r="D371" s="22"/>
       <c r="E371" s="22"/>
@@ -13505,8 +14326,10 @@
       <c r="AE371" s="22"/>
       <c r="AF371" s="22"/>
       <c r="AG371" s="22"/>
-    </row>
-    <row r="372" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH371" s="22"/>
+      <c r="AI371" s="22"/>
+    </row>
+    <row r="372" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C372" s="22"/>
       <c r="D372" s="22"/>
       <c r="E372" s="22"/>
@@ -13538,8 +14361,10 @@
       <c r="AE372" s="22"/>
       <c r="AF372" s="22"/>
       <c r="AG372" s="22"/>
-    </row>
-    <row r="373" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH372" s="22"/>
+      <c r="AI372" s="22"/>
+    </row>
+    <row r="373" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C373" s="22"/>
       <c r="D373" s="22"/>
       <c r="E373" s="22"/>
@@ -13571,8 +14396,10 @@
       <c r="AE373" s="22"/>
       <c r="AF373" s="22"/>
       <c r="AG373" s="22"/>
-    </row>
-    <row r="374" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH373" s="22"/>
+      <c r="AI373" s="22"/>
+    </row>
+    <row r="374" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C374" s="22"/>
       <c r="D374" s="22"/>
       <c r="E374" s="22"/>
@@ -13604,8 +14431,10 @@
       <c r="AE374" s="22"/>
       <c r="AF374" s="22"/>
       <c r="AG374" s="22"/>
-    </row>
-    <row r="375" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH374" s="22"/>
+      <c r="AI374" s="22"/>
+    </row>
+    <row r="375" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C375" s="22"/>
       <c r="D375" s="22"/>
       <c r="E375" s="22"/>
@@ -13637,8 +14466,10 @@
       <c r="AE375" s="22"/>
       <c r="AF375" s="22"/>
       <c r="AG375" s="22"/>
-    </row>
-    <row r="376" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH375" s="22"/>
+      <c r="AI375" s="22"/>
+    </row>
+    <row r="376" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C376" s="22"/>
       <c r="D376" s="22"/>
       <c r="E376" s="22"/>
@@ -13670,8 +14501,10 @@
       <c r="AE376" s="22"/>
       <c r="AF376" s="22"/>
       <c r="AG376" s="22"/>
-    </row>
-    <row r="377" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH376" s="22"/>
+      <c r="AI376" s="22"/>
+    </row>
+    <row r="377" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C377" s="22"/>
       <c r="D377" s="22"/>
       <c r="E377" s="22"/>
@@ -13703,8 +14536,10 @@
       <c r="AE377" s="22"/>
       <c r="AF377" s="22"/>
       <c r="AG377" s="22"/>
-    </row>
-    <row r="378" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH377" s="22"/>
+      <c r="AI377" s="22"/>
+    </row>
+    <row r="378" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C378" s="22"/>
       <c r="D378" s="22"/>
       <c r="E378" s="22"/>
@@ -13736,8 +14571,10 @@
       <c r="AE378" s="22"/>
       <c r="AF378" s="22"/>
       <c r="AG378" s="22"/>
-    </row>
-    <row r="379" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH378" s="22"/>
+      <c r="AI378" s="22"/>
+    </row>
+    <row r="379" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C379" s="22"/>
       <c r="D379" s="22"/>
       <c r="E379" s="22"/>
@@ -13769,8 +14606,10 @@
       <c r="AE379" s="22"/>
       <c r="AF379" s="22"/>
       <c r="AG379" s="22"/>
-    </row>
-    <row r="380" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH379" s="22"/>
+      <c r="AI379" s="22"/>
+    </row>
+    <row r="380" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C380" s="22"/>
       <c r="D380" s="22"/>
       <c r="E380" s="22"/>
@@ -13802,8 +14641,10 @@
       <c r="AE380" s="22"/>
       <c r="AF380" s="22"/>
       <c r="AG380" s="22"/>
-    </row>
-    <row r="381" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH380" s="22"/>
+      <c r="AI380" s="22"/>
+    </row>
+    <row r="381" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C381" s="22"/>
       <c r="D381" s="22"/>
       <c r="E381" s="22"/>
@@ -13835,8 +14676,10 @@
       <c r="AE381" s="22"/>
       <c r="AF381" s="22"/>
       <c r="AG381" s="22"/>
-    </row>
-    <row r="382" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH381" s="22"/>
+      <c r="AI381" s="22"/>
+    </row>
+    <row r="382" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C382" s="22"/>
       <c r="D382" s="22"/>
       <c r="E382" s="22"/>
@@ -13868,8 +14711,10 @@
       <c r="AE382" s="22"/>
       <c r="AF382" s="22"/>
       <c r="AG382" s="22"/>
-    </row>
-    <row r="383" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH382" s="22"/>
+      <c r="AI382" s="22"/>
+    </row>
+    <row r="383" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C383" s="22"/>
       <c r="D383" s="22"/>
       <c r="E383" s="22"/>
@@ -13901,8 +14746,10 @@
       <c r="AE383" s="22"/>
       <c r="AF383" s="22"/>
       <c r="AG383" s="22"/>
-    </row>
-    <row r="384" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH383" s="22"/>
+      <c r="AI383" s="22"/>
+    </row>
+    <row r="384" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C384" s="22"/>
       <c r="D384" s="22"/>
       <c r="E384" s="22"/>
@@ -13934,8 +14781,10 @@
       <c r="AE384" s="22"/>
       <c r="AF384" s="22"/>
       <c r="AG384" s="22"/>
-    </row>
-    <row r="385" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH384" s="22"/>
+      <c r="AI384" s="22"/>
+    </row>
+    <row r="385" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C385" s="22"/>
       <c r="D385" s="22"/>
       <c r="E385" s="22"/>
@@ -13967,8 +14816,10 @@
       <c r="AE385" s="22"/>
       <c r="AF385" s="22"/>
       <c r="AG385" s="22"/>
-    </row>
-    <row r="386" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH385" s="22"/>
+      <c r="AI385" s="22"/>
+    </row>
+    <row r="386" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C386" s="22"/>
       <c r="D386" s="22"/>
       <c r="E386" s="22"/>
@@ -14000,8 +14851,10 @@
       <c r="AE386" s="22"/>
       <c r="AF386" s="22"/>
       <c r="AG386" s="22"/>
-    </row>
-    <row r="387" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH386" s="22"/>
+      <c r="AI386" s="22"/>
+    </row>
+    <row r="387" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C387" s="22"/>
       <c r="D387" s="22"/>
       <c r="E387" s="22"/>
@@ -14033,8 +14886,10 @@
       <c r="AE387" s="22"/>
       <c r="AF387" s="22"/>
       <c r="AG387" s="22"/>
-    </row>
-    <row r="388" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH387" s="22"/>
+      <c r="AI387" s="22"/>
+    </row>
+    <row r="388" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C388" s="22"/>
       <c r="D388" s="22"/>
       <c r="E388" s="22"/>
@@ -14066,8 +14921,10 @@
       <c r="AE388" s="22"/>
       <c r="AF388" s="22"/>
       <c r="AG388" s="22"/>
-    </row>
-    <row r="389" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH388" s="22"/>
+      <c r="AI388" s="22"/>
+    </row>
+    <row r="389" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C389" s="22"/>
       <c r="D389" s="22"/>
       <c r="E389" s="22"/>
@@ -14099,8 +14956,10 @@
       <c r="AE389" s="22"/>
       <c r="AF389" s="22"/>
       <c r="AG389" s="22"/>
-    </row>
-    <row r="390" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH389" s="22"/>
+      <c r="AI389" s="22"/>
+    </row>
+    <row r="390" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C390" s="22"/>
       <c r="D390" s="22"/>
       <c r="E390" s="22"/>
@@ -14132,8 +14991,10 @@
       <c r="AE390" s="22"/>
       <c r="AF390" s="22"/>
       <c r="AG390" s="22"/>
-    </row>
-    <row r="391" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH390" s="22"/>
+      <c r="AI390" s="22"/>
+    </row>
+    <row r="391" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C391" s="22"/>
       <c r="D391" s="22"/>
       <c r="E391" s="22"/>
@@ -14165,8 +15026,10 @@
       <c r="AE391" s="22"/>
       <c r="AF391" s="22"/>
       <c r="AG391" s="22"/>
-    </row>
-    <row r="392" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH391" s="22"/>
+      <c r="AI391" s="22"/>
+    </row>
+    <row r="392" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C392" s="22"/>
       <c r="D392" s="22"/>
       <c r="E392" s="22"/>
@@ -14198,8 +15061,10 @@
       <c r="AE392" s="22"/>
       <c r="AF392" s="22"/>
       <c r="AG392" s="22"/>
-    </row>
-    <row r="393" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH392" s="22"/>
+      <c r="AI392" s="22"/>
+    </row>
+    <row r="393" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C393" s="22"/>
       <c r="D393" s="22"/>
       <c r="E393" s="22"/>
@@ -14231,8 +15096,10 @@
       <c r="AE393" s="22"/>
       <c r="AF393" s="22"/>
       <c r="AG393" s="22"/>
-    </row>
-    <row r="394" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH393" s="22"/>
+      <c r="AI393" s="22"/>
+    </row>
+    <row r="394" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C394" s="22"/>
       <c r="D394" s="22"/>
       <c r="E394" s="22"/>
@@ -14264,8 +15131,10 @@
       <c r="AE394" s="22"/>
       <c r="AF394" s="22"/>
       <c r="AG394" s="22"/>
-    </row>
-    <row r="395" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH394" s="22"/>
+      <c r="AI394" s="22"/>
+    </row>
+    <row r="395" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C395" s="22"/>
       <c r="D395" s="22"/>
       <c r="E395" s="22"/>
@@ -14297,8 +15166,10 @@
       <c r="AE395" s="22"/>
       <c r="AF395" s="22"/>
       <c r="AG395" s="22"/>
-    </row>
-    <row r="396" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH395" s="22"/>
+      <c r="AI395" s="22"/>
+    </row>
+    <row r="396" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C396" s="22"/>
       <c r="D396" s="22"/>
       <c r="E396" s="22"/>
@@ -14330,8 +15201,10 @@
       <c r="AE396" s="22"/>
       <c r="AF396" s="22"/>
       <c r="AG396" s="22"/>
-    </row>
-    <row r="397" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH396" s="22"/>
+      <c r="AI396" s="22"/>
+    </row>
+    <row r="397" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C397" s="22"/>
       <c r="D397" s="22"/>
       <c r="E397" s="22"/>
@@ -14363,8 +15236,10 @@
       <c r="AE397" s="22"/>
       <c r="AF397" s="22"/>
       <c r="AG397" s="22"/>
-    </row>
-    <row r="398" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH397" s="22"/>
+      <c r="AI397" s="22"/>
+    </row>
+    <row r="398" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C398" s="22"/>
       <c r="D398" s="22"/>
       <c r="E398" s="22"/>
@@ -14396,8 +15271,10 @@
       <c r="AE398" s="22"/>
       <c r="AF398" s="22"/>
       <c r="AG398" s="22"/>
-    </row>
-    <row r="399" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH398" s="22"/>
+      <c r="AI398" s="22"/>
+    </row>
+    <row r="399" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C399" s="22"/>
       <c r="D399" s="22"/>
       <c r="E399" s="22"/>
@@ -14429,8 +15306,10 @@
       <c r="AE399" s="22"/>
       <c r="AF399" s="22"/>
       <c r="AG399" s="22"/>
-    </row>
-    <row r="400" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH399" s="22"/>
+      <c r="AI399" s="22"/>
+    </row>
+    <row r="400" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C400" s="22"/>
       <c r="D400" s="22"/>
       <c r="E400" s="22"/>
@@ -14462,8 +15341,10 @@
       <c r="AE400" s="22"/>
       <c r="AF400" s="22"/>
       <c r="AG400" s="22"/>
-    </row>
-    <row r="401" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH400" s="22"/>
+      <c r="AI400" s="22"/>
+    </row>
+    <row r="401" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C401" s="22"/>
       <c r="D401" s="22"/>
       <c r="E401" s="22"/>
@@ -14495,8 +15376,10 @@
       <c r="AE401" s="22"/>
       <c r="AF401" s="22"/>
       <c r="AG401" s="22"/>
-    </row>
-    <row r="402" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH401" s="22"/>
+      <c r="AI401" s="22"/>
+    </row>
+    <row r="402" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C402" s="22"/>
       <c r="D402" s="22"/>
       <c r="E402" s="22"/>
@@ -14528,8 +15411,10 @@
       <c r="AE402" s="22"/>
       <c r="AF402" s="22"/>
       <c r="AG402" s="22"/>
-    </row>
-    <row r="403" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH402" s="22"/>
+      <c r="AI402" s="22"/>
+    </row>
+    <row r="403" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C403" s="22"/>
       <c r="D403" s="22"/>
       <c r="E403" s="22"/>
@@ -14561,8 +15446,10 @@
       <c r="AE403" s="22"/>
       <c r="AF403" s="22"/>
       <c r="AG403" s="22"/>
-    </row>
-    <row r="404" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH403" s="22"/>
+      <c r="AI403" s="22"/>
+    </row>
+    <row r="404" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C404" s="22"/>
       <c r="D404" s="22"/>
       <c r="E404" s="22"/>
@@ -14594,8 +15481,10 @@
       <c r="AE404" s="22"/>
       <c r="AF404" s="22"/>
       <c r="AG404" s="22"/>
-    </row>
-    <row r="405" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH404" s="22"/>
+      <c r="AI404" s="22"/>
+    </row>
+    <row r="405" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C405" s="22"/>
       <c r="D405" s="22"/>
       <c r="E405" s="22"/>
@@ -14627,8 +15516,10 @@
       <c r="AE405" s="22"/>
       <c r="AF405" s="22"/>
       <c r="AG405" s="22"/>
-    </row>
-    <row r="406" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH405" s="22"/>
+      <c r="AI405" s="22"/>
+    </row>
+    <row r="406" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C406" s="22"/>
       <c r="D406" s="22"/>
       <c r="E406" s="22"/>
@@ -14660,8 +15551,10 @@
       <c r="AE406" s="22"/>
       <c r="AF406" s="22"/>
       <c r="AG406" s="22"/>
-    </row>
-    <row r="407" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH406" s="22"/>
+      <c r="AI406" s="22"/>
+    </row>
+    <row r="407" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C407" s="22"/>
       <c r="D407" s="22"/>
       <c r="E407" s="22"/>
@@ -14693,8 +15586,10 @@
       <c r="AE407" s="22"/>
       <c r="AF407" s="22"/>
       <c r="AG407" s="22"/>
-    </row>
-    <row r="408" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH407" s="22"/>
+      <c r="AI407" s="22"/>
+    </row>
+    <row r="408" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C408" s="22"/>
       <c r="D408" s="22"/>
       <c r="E408" s="22"/>
@@ -14726,8 +15621,10 @@
       <c r="AE408" s="22"/>
       <c r="AF408" s="22"/>
       <c r="AG408" s="22"/>
-    </row>
-    <row r="409" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH408" s="22"/>
+      <c r="AI408" s="22"/>
+    </row>
+    <row r="409" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C409" s="22"/>
       <c r="D409" s="22"/>
       <c r="E409" s="22"/>
@@ -14759,8 +15656,10 @@
       <c r="AE409" s="22"/>
       <c r="AF409" s="22"/>
       <c r="AG409" s="22"/>
-    </row>
-    <row r="410" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH409" s="22"/>
+      <c r="AI409" s="22"/>
+    </row>
+    <row r="410" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C410" s="22"/>
       <c r="D410" s="22"/>
       <c r="E410" s="22"/>
@@ -14792,8 +15691,10 @@
       <c r="AE410" s="22"/>
       <c r="AF410" s="22"/>
       <c r="AG410" s="22"/>
-    </row>
-    <row r="411" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH410" s="22"/>
+      <c r="AI410" s="22"/>
+    </row>
+    <row r="411" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C411" s="22"/>
       <c r="D411" s="22"/>
       <c r="E411" s="22"/>
@@ -14825,8 +15726,10 @@
       <c r="AE411" s="22"/>
       <c r="AF411" s="22"/>
       <c r="AG411" s="22"/>
-    </row>
-    <row r="412" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH411" s="22"/>
+      <c r="AI411" s="22"/>
+    </row>
+    <row r="412" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C412" s="22"/>
       <c r="D412" s="22"/>
       <c r="E412" s="22"/>
@@ -14858,8 +15761,10 @@
       <c r="AE412" s="22"/>
       <c r="AF412" s="22"/>
       <c r="AG412" s="22"/>
-    </row>
-    <row r="413" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH412" s="22"/>
+      <c r="AI412" s="22"/>
+    </row>
+    <row r="413" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C413" s="22"/>
       <c r="D413" s="22"/>
       <c r="E413" s="22"/>
@@ -14891,8 +15796,10 @@
       <c r="AE413" s="22"/>
       <c r="AF413" s="22"/>
       <c r="AG413" s="22"/>
-    </row>
-    <row r="414" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH413" s="22"/>
+      <c r="AI413" s="22"/>
+    </row>
+    <row r="414" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C414" s="22"/>
       <c r="D414" s="22"/>
       <c r="E414" s="22"/>
@@ -14924,8 +15831,10 @@
       <c r="AE414" s="22"/>
       <c r="AF414" s="22"/>
       <c r="AG414" s="22"/>
-    </row>
-    <row r="415" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH414" s="22"/>
+      <c r="AI414" s="22"/>
+    </row>
+    <row r="415" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C415" s="22"/>
       <c r="D415" s="22"/>
       <c r="E415" s="22"/>
@@ -14957,8 +15866,10 @@
       <c r="AE415" s="22"/>
       <c r="AF415" s="22"/>
       <c r="AG415" s="22"/>
-    </row>
-    <row r="416" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH415" s="22"/>
+      <c r="AI415" s="22"/>
+    </row>
+    <row r="416" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C416" s="22"/>
       <c r="D416" s="22"/>
       <c r="E416" s="22"/>
@@ -14990,8 +15901,10 @@
       <c r="AE416" s="22"/>
       <c r="AF416" s="22"/>
       <c r="AG416" s="22"/>
-    </row>
-    <row r="417" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH416" s="22"/>
+      <c r="AI416" s="22"/>
+    </row>
+    <row r="417" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C417" s="22"/>
       <c r="D417" s="22"/>
       <c r="E417" s="22"/>
@@ -15023,8 +15936,10 @@
       <c r="AE417" s="22"/>
       <c r="AF417" s="22"/>
       <c r="AG417" s="22"/>
-    </row>
-    <row r="418" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH417" s="22"/>
+      <c r="AI417" s="22"/>
+    </row>
+    <row r="418" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C418" s="22"/>
       <c r="D418" s="22"/>
       <c r="E418" s="22"/>
@@ -15056,8 +15971,10 @@
       <c r="AE418" s="22"/>
       <c r="AF418" s="22"/>
       <c r="AG418" s="22"/>
-    </row>
-    <row r="419" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH418" s="22"/>
+      <c r="AI418" s="22"/>
+    </row>
+    <row r="419" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C419" s="22"/>
       <c r="D419" s="22"/>
       <c r="E419" s="22"/>
@@ -15089,8 +16006,10 @@
       <c r="AE419" s="22"/>
       <c r="AF419" s="22"/>
       <c r="AG419" s="22"/>
-    </row>
-    <row r="420" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH419" s="22"/>
+      <c r="AI419" s="22"/>
+    </row>
+    <row r="420" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C420" s="22"/>
       <c r="D420" s="22"/>
       <c r="E420" s="22"/>
@@ -15122,8 +16041,10 @@
       <c r="AE420" s="22"/>
       <c r="AF420" s="22"/>
       <c r="AG420" s="22"/>
-    </row>
-    <row r="421" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH420" s="22"/>
+      <c r="AI420" s="22"/>
+    </row>
+    <row r="421" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C421" s="22"/>
       <c r="D421" s="22"/>
       <c r="E421" s="22"/>
@@ -15155,8 +16076,10 @@
       <c r="AE421" s="22"/>
       <c r="AF421" s="22"/>
       <c r="AG421" s="22"/>
-    </row>
-    <row r="422" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH421" s="22"/>
+      <c r="AI421" s="22"/>
+    </row>
+    <row r="422" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C422" s="22"/>
       <c r="D422" s="22"/>
       <c r="E422" s="22"/>
@@ -15188,8 +16111,10 @@
       <c r="AE422" s="22"/>
       <c r="AF422" s="22"/>
       <c r="AG422" s="22"/>
-    </row>
-    <row r="423" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH422" s="22"/>
+      <c r="AI422" s="22"/>
+    </row>
+    <row r="423" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C423" s="22"/>
       <c r="D423" s="22"/>
       <c r="E423" s="22"/>
@@ -15221,8 +16146,10 @@
       <c r="AE423" s="22"/>
       <c r="AF423" s="22"/>
       <c r="AG423" s="22"/>
-    </row>
-    <row r="424" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH423" s="22"/>
+      <c r="AI423" s="22"/>
+    </row>
+    <row r="424" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C424" s="22"/>
       <c r="D424" s="22"/>
       <c r="E424" s="22"/>
@@ -15254,8 +16181,10 @@
       <c r="AE424" s="22"/>
       <c r="AF424" s="22"/>
       <c r="AG424" s="22"/>
-    </row>
-    <row r="425" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH424" s="22"/>
+      <c r="AI424" s="22"/>
+    </row>
+    <row r="425" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C425" s="22"/>
       <c r="D425" s="22"/>
       <c r="E425" s="22"/>
@@ -15287,8 +16216,10 @@
       <c r="AE425" s="22"/>
       <c r="AF425" s="22"/>
       <c r="AG425" s="22"/>
-    </row>
-    <row r="426" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH425" s="22"/>
+      <c r="AI425" s="22"/>
+    </row>
+    <row r="426" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C426" s="22"/>
       <c r="D426" s="22"/>
       <c r="E426" s="22"/>
@@ -15320,8 +16251,10 @@
       <c r="AE426" s="22"/>
       <c r="AF426" s="22"/>
       <c r="AG426" s="22"/>
-    </row>
-    <row r="427" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH426" s="22"/>
+      <c r="AI426" s="22"/>
+    </row>
+    <row r="427" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C427" s="22"/>
       <c r="D427" s="22"/>
       <c r="E427" s="22"/>
@@ -15353,8 +16286,10 @@
       <c r="AE427" s="22"/>
       <c r="AF427" s="22"/>
       <c r="AG427" s="22"/>
-    </row>
-    <row r="428" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH427" s="22"/>
+      <c r="AI427" s="22"/>
+    </row>
+    <row r="428" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C428" s="22"/>
       <c r="D428" s="22"/>
       <c r="E428" s="22"/>
@@ -15386,8 +16321,10 @@
       <c r="AE428" s="22"/>
       <c r="AF428" s="22"/>
       <c r="AG428" s="22"/>
-    </row>
-    <row r="429" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH428" s="22"/>
+      <c r="AI428" s="22"/>
+    </row>
+    <row r="429" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C429" s="22"/>
       <c r="D429" s="22"/>
       <c r="E429" s="22"/>
@@ -15419,8 +16356,10 @@
       <c r="AE429" s="22"/>
       <c r="AF429" s="22"/>
       <c r="AG429" s="22"/>
-    </row>
-    <row r="430" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH429" s="22"/>
+      <c r="AI429" s="22"/>
+    </row>
+    <row r="430" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C430" s="22"/>
       <c r="D430" s="22"/>
       <c r="E430" s="22"/>
@@ -15452,8 +16391,10 @@
       <c r="AE430" s="22"/>
       <c r="AF430" s="22"/>
       <c r="AG430" s="22"/>
-    </row>
-    <row r="431" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH430" s="22"/>
+      <c r="AI430" s="22"/>
+    </row>
+    <row r="431" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C431" s="22"/>
       <c r="D431" s="22"/>
       <c r="E431" s="22"/>
@@ -15485,8 +16426,10 @@
       <c r="AE431" s="22"/>
       <c r="AF431" s="22"/>
       <c r="AG431" s="22"/>
-    </row>
-    <row r="432" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH431" s="22"/>
+      <c r="AI431" s="22"/>
+    </row>
+    <row r="432" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C432" s="22"/>
       <c r="D432" s="22"/>
       <c r="E432" s="22"/>
@@ -15518,8 +16461,10 @@
       <c r="AE432" s="22"/>
       <c r="AF432" s="22"/>
       <c r="AG432" s="22"/>
-    </row>
-    <row r="433" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH432" s="22"/>
+      <c r="AI432" s="22"/>
+    </row>
+    <row r="433" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C433" s="22"/>
       <c r="D433" s="22"/>
       <c r="E433" s="22"/>
@@ -15551,8 +16496,10 @@
       <c r="AE433" s="22"/>
       <c r="AF433" s="22"/>
       <c r="AG433" s="22"/>
-    </row>
-    <row r="434" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH433" s="22"/>
+      <c r="AI433" s="22"/>
+    </row>
+    <row r="434" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C434" s="22"/>
       <c r="D434" s="22"/>
       <c r="E434" s="22"/>
@@ -15584,8 +16531,10 @@
       <c r="AE434" s="22"/>
       <c r="AF434" s="22"/>
       <c r="AG434" s="22"/>
-    </row>
-    <row r="435" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH434" s="22"/>
+      <c r="AI434" s="22"/>
+    </row>
+    <row r="435" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C435" s="22"/>
       <c r="D435" s="22"/>
       <c r="E435" s="22"/>
@@ -15617,8 +16566,10 @@
       <c r="AE435" s="22"/>
       <c r="AF435" s="22"/>
       <c r="AG435" s="22"/>
-    </row>
-    <row r="436" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH435" s="22"/>
+      <c r="AI435" s="22"/>
+    </row>
+    <row r="436" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C436" s="22"/>
       <c r="D436" s="22"/>
       <c r="E436" s="22"/>
@@ -15650,8 +16601,10 @@
       <c r="AE436" s="22"/>
       <c r="AF436" s="22"/>
       <c r="AG436" s="22"/>
-    </row>
-    <row r="437" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH436" s="22"/>
+      <c r="AI436" s="22"/>
+    </row>
+    <row r="437" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C437" s="22"/>
       <c r="D437" s="22"/>
       <c r="E437" s="22"/>
@@ -15683,8 +16636,10 @@
       <c r="AE437" s="22"/>
       <c r="AF437" s="22"/>
       <c r="AG437" s="22"/>
-    </row>
-    <row r="438" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH437" s="22"/>
+      <c r="AI437" s="22"/>
+    </row>
+    <row r="438" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C438" s="22"/>
       <c r="D438" s="22"/>
       <c r="E438" s="22"/>
@@ -15716,8 +16671,10 @@
       <c r="AE438" s="22"/>
       <c r="AF438" s="22"/>
       <c r="AG438" s="22"/>
-    </row>
-    <row r="439" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH438" s="22"/>
+      <c r="AI438" s="22"/>
+    </row>
+    <row r="439" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C439" s="22"/>
       <c r="D439" s="22"/>
       <c r="E439" s="22"/>
@@ -15749,8 +16706,10 @@
       <c r="AE439" s="22"/>
       <c r="AF439" s="22"/>
       <c r="AG439" s="22"/>
-    </row>
-    <row r="440" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH439" s="22"/>
+      <c r="AI439" s="22"/>
+    </row>
+    <row r="440" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C440" s="22"/>
       <c r="D440" s="22"/>
       <c r="E440" s="22"/>
@@ -15782,8 +16741,10 @@
       <c r="AE440" s="22"/>
       <c r="AF440" s="22"/>
       <c r="AG440" s="22"/>
-    </row>
-    <row r="441" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH440" s="22"/>
+      <c r="AI440" s="22"/>
+    </row>
+    <row r="441" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C441" s="22"/>
       <c r="D441" s="22"/>
       <c r="E441" s="22"/>
@@ -15815,8 +16776,10 @@
       <c r="AE441" s="22"/>
       <c r="AF441" s="22"/>
       <c r="AG441" s="22"/>
-    </row>
-    <row r="442" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH441" s="22"/>
+      <c r="AI441" s="22"/>
+    </row>
+    <row r="442" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C442" s="22"/>
       <c r="D442" s="22"/>
       <c r="E442" s="22"/>
@@ -15848,8 +16811,10 @@
       <c r="AE442" s="22"/>
       <c r="AF442" s="22"/>
       <c r="AG442" s="22"/>
-    </row>
-    <row r="443" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH442" s="22"/>
+      <c r="AI442" s="22"/>
+    </row>
+    <row r="443" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C443" s="22"/>
       <c r="D443" s="22"/>
       <c r="E443" s="22"/>
@@ -15881,8 +16846,10 @@
       <c r="AE443" s="22"/>
       <c r="AF443" s="22"/>
       <c r="AG443" s="22"/>
-    </row>
-    <row r="444" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH443" s="22"/>
+      <c r="AI443" s="22"/>
+    </row>
+    <row r="444" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C444" s="22"/>
       <c r="D444" s="22"/>
       <c r="E444" s="22"/>
@@ -15914,8 +16881,10 @@
       <c r="AE444" s="22"/>
       <c r="AF444" s="22"/>
       <c r="AG444" s="22"/>
-    </row>
-    <row r="445" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH444" s="22"/>
+      <c r="AI444" s="22"/>
+    </row>
+    <row r="445" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C445" s="22"/>
       <c r="D445" s="22"/>
       <c r="E445" s="22"/>
@@ -15947,8 +16916,10 @@
       <c r="AE445" s="22"/>
       <c r="AF445" s="22"/>
       <c r="AG445" s="22"/>
-    </row>
-    <row r="446" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH445" s="22"/>
+      <c r="AI445" s="22"/>
+    </row>
+    <row r="446" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C446" s="22"/>
       <c r="D446" s="22"/>
       <c r="E446" s="22"/>
@@ -15980,8 +16951,10 @@
       <c r="AE446" s="22"/>
       <c r="AF446" s="22"/>
       <c r="AG446" s="22"/>
-    </row>
-    <row r="447" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH446" s="22"/>
+      <c r="AI446" s="22"/>
+    </row>
+    <row r="447" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C447" s="22"/>
       <c r="D447" s="22"/>
       <c r="E447" s="22"/>
@@ -16013,8 +16986,10 @@
       <c r="AE447" s="22"/>
       <c r="AF447" s="22"/>
       <c r="AG447" s="22"/>
-    </row>
-    <row r="448" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH447" s="22"/>
+      <c r="AI447" s="22"/>
+    </row>
+    <row r="448" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C448" s="22"/>
       <c r="D448" s="22"/>
       <c r="E448" s="22"/>
@@ -16046,8 +17021,10 @@
       <c r="AE448" s="22"/>
       <c r="AF448" s="22"/>
       <c r="AG448" s="22"/>
-    </row>
-    <row r="449" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH448" s="22"/>
+      <c r="AI448" s="22"/>
+    </row>
+    <row r="449" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C449" s="22"/>
       <c r="D449" s="22"/>
       <c r="E449" s="22"/>
@@ -16079,8 +17056,10 @@
       <c r="AE449" s="22"/>
       <c r="AF449" s="22"/>
       <c r="AG449" s="22"/>
-    </row>
-    <row r="450" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH449" s="22"/>
+      <c r="AI449" s="22"/>
+    </row>
+    <row r="450" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C450" s="22"/>
       <c r="D450" s="22"/>
       <c r="E450" s="22"/>
@@ -16112,8 +17091,10 @@
       <c r="AE450" s="22"/>
       <c r="AF450" s="22"/>
       <c r="AG450" s="22"/>
-    </row>
-    <row r="451" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH450" s="22"/>
+      <c r="AI450" s="22"/>
+    </row>
+    <row r="451" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C451" s="22"/>
       <c r="D451" s="22"/>
       <c r="E451" s="22"/>
@@ -16145,8 +17126,10 @@
       <c r="AE451" s="22"/>
       <c r="AF451" s="22"/>
       <c r="AG451" s="22"/>
-    </row>
-    <row r="452" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH451" s="22"/>
+      <c r="AI451" s="22"/>
+    </row>
+    <row r="452" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C452" s="22"/>
       <c r="D452" s="22"/>
       <c r="E452" s="22"/>
@@ -16178,8 +17161,10 @@
       <c r="AE452" s="22"/>
       <c r="AF452" s="22"/>
       <c r="AG452" s="22"/>
-    </row>
-    <row r="453" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH452" s="22"/>
+      <c r="AI452" s="22"/>
+    </row>
+    <row r="453" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C453" s="22"/>
       <c r="D453" s="22"/>
       <c r="E453" s="22"/>
@@ -16211,8 +17196,10 @@
       <c r="AE453" s="22"/>
       <c r="AF453" s="22"/>
       <c r="AG453" s="22"/>
-    </row>
-    <row r="454" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH453" s="22"/>
+      <c r="AI453" s="22"/>
+    </row>
+    <row r="454" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C454" s="22"/>
       <c r="D454" s="22"/>
       <c r="E454" s="22"/>
@@ -16244,8 +17231,10 @@
       <c r="AE454" s="22"/>
       <c r="AF454" s="22"/>
       <c r="AG454" s="22"/>
-    </row>
-    <row r="455" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH454" s="22"/>
+      <c r="AI454" s="22"/>
+    </row>
+    <row r="455" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C455" s="22"/>
       <c r="D455" s="22"/>
       <c r="E455" s="22"/>
@@ -16277,8 +17266,10 @@
       <c r="AE455" s="22"/>
       <c r="AF455" s="22"/>
       <c r="AG455" s="22"/>
-    </row>
-    <row r="456" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH455" s="22"/>
+      <c r="AI455" s="22"/>
+    </row>
+    <row r="456" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C456" s="22"/>
       <c r="D456" s="22"/>
       <c r="E456" s="22"/>
@@ -16310,8 +17301,10 @@
       <c r="AE456" s="22"/>
       <c r="AF456" s="22"/>
       <c r="AG456" s="22"/>
-    </row>
-    <row r="457" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH456" s="22"/>
+      <c r="AI456" s="22"/>
+    </row>
+    <row r="457" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C457" s="22"/>
       <c r="D457" s="22"/>
       <c r="E457" s="22"/>
@@ -16343,8 +17336,10 @@
       <c r="AE457" s="22"/>
       <c r="AF457" s="22"/>
       <c r="AG457" s="22"/>
-    </row>
-    <row r="458" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH457" s="22"/>
+      <c r="AI457" s="22"/>
+    </row>
+    <row r="458" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C458" s="22"/>
       <c r="D458" s="22"/>
       <c r="E458" s="22"/>
@@ -16376,8 +17371,10 @@
       <c r="AE458" s="22"/>
       <c r="AF458" s="22"/>
       <c r="AG458" s="22"/>
-    </row>
-    <row r="459" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH458" s="22"/>
+      <c r="AI458" s="22"/>
+    </row>
+    <row r="459" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C459" s="22"/>
       <c r="D459" s="22"/>
       <c r="E459" s="22"/>
@@ -16409,8 +17406,10 @@
       <c r="AE459" s="22"/>
       <c r="AF459" s="22"/>
       <c r="AG459" s="22"/>
-    </row>
-    <row r="460" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH459" s="22"/>
+      <c r="AI459" s="22"/>
+    </row>
+    <row r="460" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C460" s="22"/>
       <c r="D460" s="22"/>
       <c r="E460" s="22"/>
@@ -16442,8 +17441,10 @@
       <c r="AE460" s="22"/>
       <c r="AF460" s="22"/>
       <c r="AG460" s="22"/>
-    </row>
-    <row r="461" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH460" s="22"/>
+      <c r="AI460" s="22"/>
+    </row>
+    <row r="461" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C461" s="22"/>
       <c r="D461" s="22"/>
       <c r="E461" s="22"/>
@@ -16475,8 +17476,10 @@
       <c r="AE461" s="22"/>
       <c r="AF461" s="22"/>
       <c r="AG461" s="22"/>
-    </row>
-    <row r="462" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH461" s="22"/>
+      <c r="AI461" s="22"/>
+    </row>
+    <row r="462" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C462" s="22"/>
       <c r="D462" s="22"/>
       <c r="E462" s="22"/>
@@ -16508,8 +17511,10 @@
       <c r="AE462" s="22"/>
       <c r="AF462" s="22"/>
       <c r="AG462" s="22"/>
-    </row>
-    <row r="463" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH462" s="22"/>
+      <c r="AI462" s="22"/>
+    </row>
+    <row r="463" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C463" s="22"/>
       <c r="D463" s="22"/>
       <c r="E463" s="22"/>
@@ -16541,8 +17546,10 @@
       <c r="AE463" s="22"/>
       <c r="AF463" s="22"/>
       <c r="AG463" s="22"/>
-    </row>
-    <row r="464" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH463" s="22"/>
+      <c r="AI463" s="22"/>
+    </row>
+    <row r="464" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C464" s="22"/>
       <c r="D464" s="22"/>
       <c r="E464" s="22"/>
@@ -16574,8 +17581,10 @@
       <c r="AE464" s="22"/>
       <c r="AF464" s="22"/>
       <c r="AG464" s="22"/>
-    </row>
-    <row r="465" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH464" s="22"/>
+      <c r="AI464" s="22"/>
+    </row>
+    <row r="465" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C465" s="22"/>
       <c r="D465" s="22"/>
       <c r="E465" s="22"/>
@@ -16607,8 +17616,10 @@
       <c r="AE465" s="22"/>
       <c r="AF465" s="22"/>
       <c r="AG465" s="22"/>
-    </row>
-    <row r="466" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH465" s="22"/>
+      <c r="AI465" s="22"/>
+    </row>
+    <row r="466" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C466" s="22"/>
       <c r="D466" s="22"/>
       <c r="E466" s="22"/>
@@ -16640,8 +17651,10 @@
       <c r="AE466" s="22"/>
       <c r="AF466" s="22"/>
       <c r="AG466" s="22"/>
-    </row>
-    <row r="467" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH466" s="22"/>
+      <c r="AI466" s="22"/>
+    </row>
+    <row r="467" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C467" s="22"/>
       <c r="D467" s="22"/>
       <c r="E467" s="22"/>
@@ -16673,8 +17686,10 @@
       <c r="AE467" s="22"/>
       <c r="AF467" s="22"/>
       <c r="AG467" s="22"/>
-    </row>
-    <row r="468" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH467" s="22"/>
+      <c r="AI467" s="22"/>
+    </row>
+    <row r="468" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C468" s="22"/>
       <c r="D468" s="22"/>
       <c r="E468" s="22"/>
@@ -16706,8 +17721,10 @@
       <c r="AE468" s="22"/>
       <c r="AF468" s="22"/>
       <c r="AG468" s="22"/>
-    </row>
-    <row r="469" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH468" s="22"/>
+      <c r="AI468" s="22"/>
+    </row>
+    <row r="469" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C469" s="22"/>
       <c r="D469" s="22"/>
       <c r="E469" s="22"/>
@@ -16739,8 +17756,10 @@
       <c r="AE469" s="22"/>
       <c r="AF469" s="22"/>
       <c r="AG469" s="22"/>
-    </row>
-    <row r="470" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH469" s="22"/>
+      <c r="AI469" s="22"/>
+    </row>
+    <row r="470" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C470" s="22"/>
       <c r="D470" s="22"/>
       <c r="E470" s="22"/>
@@ -16772,8 +17791,10 @@
       <c r="AE470" s="22"/>
       <c r="AF470" s="22"/>
       <c r="AG470" s="22"/>
-    </row>
-    <row r="471" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH470" s="22"/>
+      <c r="AI470" s="22"/>
+    </row>
+    <row r="471" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C471" s="22"/>
       <c r="D471" s="22"/>
       <c r="E471" s="22"/>
@@ -16805,8 +17826,10 @@
       <c r="AE471" s="22"/>
       <c r="AF471" s="22"/>
       <c r="AG471" s="22"/>
-    </row>
-    <row r="472" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH471" s="22"/>
+      <c r="AI471" s="22"/>
+    </row>
+    <row r="472" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C472" s="22"/>
       <c r="D472" s="22"/>
       <c r="E472" s="22"/>
@@ -16838,8 +17861,10 @@
       <c r="AE472" s="22"/>
       <c r="AF472" s="22"/>
       <c r="AG472" s="22"/>
-    </row>
-    <row r="473" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH472" s="22"/>
+      <c r="AI472" s="22"/>
+    </row>
+    <row r="473" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C473" s="22"/>
       <c r="D473" s="22"/>
       <c r="E473" s="22"/>
@@ -16871,8 +17896,10 @@
       <c r="AE473" s="22"/>
       <c r="AF473" s="22"/>
       <c r="AG473" s="22"/>
-    </row>
-    <row r="474" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH473" s="22"/>
+      <c r="AI473" s="22"/>
+    </row>
+    <row r="474" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C474" s="22"/>
       <c r="D474" s="22"/>
       <c r="E474" s="22"/>
@@ -16904,8 +17931,10 @@
       <c r="AE474" s="22"/>
       <c r="AF474" s="22"/>
       <c r="AG474" s="22"/>
-    </row>
-    <row r="475" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH474" s="22"/>
+      <c r="AI474" s="22"/>
+    </row>
+    <row r="475" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C475" s="22"/>
       <c r="D475" s="22"/>
       <c r="E475" s="22"/>
@@ -16937,8 +17966,10 @@
       <c r="AE475" s="22"/>
       <c r="AF475" s="22"/>
       <c r="AG475" s="22"/>
-    </row>
-    <row r="476" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH475" s="22"/>
+      <c r="AI475" s="22"/>
+    </row>
+    <row r="476" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C476" s="22"/>
       <c r="D476" s="22"/>
       <c r="E476" s="22"/>
@@ -16970,8 +18001,10 @@
       <c r="AE476" s="22"/>
       <c r="AF476" s="22"/>
       <c r="AG476" s="22"/>
-    </row>
-    <row r="477" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH476" s="22"/>
+      <c r="AI476" s="22"/>
+    </row>
+    <row r="477" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C477" s="22"/>
       <c r="D477" s="22"/>
       <c r="E477" s="22"/>
@@ -17003,8 +18036,10 @@
       <c r="AE477" s="22"/>
       <c r="AF477" s="22"/>
       <c r="AG477" s="22"/>
-    </row>
-    <row r="478" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH477" s="22"/>
+      <c r="AI477" s="22"/>
+    </row>
+    <row r="478" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C478" s="22"/>
       <c r="D478" s="22"/>
       <c r="E478" s="22"/>
@@ -17036,8 +18071,10 @@
       <c r="AE478" s="22"/>
       <c r="AF478" s="22"/>
       <c r="AG478" s="22"/>
-    </row>
-    <row r="479" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH478" s="22"/>
+      <c r="AI478" s="22"/>
+    </row>
+    <row r="479" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C479" s="22"/>
       <c r="D479" s="22"/>
       <c r="E479" s="22"/>
@@ -17069,8 +18106,10 @@
       <c r="AE479" s="22"/>
       <c r="AF479" s="22"/>
       <c r="AG479" s="22"/>
-    </row>
-    <row r="480" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH479" s="22"/>
+      <c r="AI479" s="22"/>
+    </row>
+    <row r="480" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C480" s="22"/>
       <c r="D480" s="22"/>
       <c r="E480" s="22"/>
@@ -17102,8 +18141,10 @@
       <c r="AE480" s="22"/>
       <c r="AF480" s="22"/>
       <c r="AG480" s="22"/>
-    </row>
-    <row r="481" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH480" s="22"/>
+      <c r="AI480" s="22"/>
+    </row>
+    <row r="481" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C481" s="22"/>
       <c r="D481" s="22"/>
       <c r="E481" s="22"/>
@@ -17135,8 +18176,10 @@
       <c r="AE481" s="22"/>
       <c r="AF481" s="22"/>
       <c r="AG481" s="22"/>
-    </row>
-    <row r="482" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH481" s="22"/>
+      <c r="AI481" s="22"/>
+    </row>
+    <row r="482" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C482" s="22"/>
       <c r="D482" s="22"/>
       <c r="E482" s="22"/>
@@ -17168,8 +18211,10 @@
       <c r="AE482" s="22"/>
       <c r="AF482" s="22"/>
       <c r="AG482" s="22"/>
-    </row>
-    <row r="483" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH482" s="22"/>
+      <c r="AI482" s="22"/>
+    </row>
+    <row r="483" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C483" s="22"/>
       <c r="D483" s="22"/>
       <c r="E483" s="22"/>
@@ -17201,8 +18246,10 @@
       <c r="AE483" s="22"/>
       <c r="AF483" s="22"/>
       <c r="AG483" s="22"/>
-    </row>
-    <row r="484" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH483" s="22"/>
+      <c r="AI483" s="22"/>
+    </row>
+    <row r="484" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C484" s="22"/>
       <c r="D484" s="22"/>
       <c r="E484" s="22"/>
@@ -17234,8 +18281,10 @@
       <c r="AE484" s="22"/>
       <c r="AF484" s="22"/>
       <c r="AG484" s="22"/>
-    </row>
-    <row r="485" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH484" s="22"/>
+      <c r="AI484" s="22"/>
+    </row>
+    <row r="485" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C485" s="22"/>
       <c r="D485" s="22"/>
       <c r="E485" s="22"/>
@@ -17267,8 +18316,10 @@
       <c r="AE485" s="22"/>
       <c r="AF485" s="22"/>
       <c r="AG485" s="22"/>
-    </row>
-    <row r="486" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH485" s="22"/>
+      <c r="AI485" s="22"/>
+    </row>
+    <row r="486" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C486" s="22"/>
       <c r="D486" s="22"/>
       <c r="E486" s="22"/>
@@ -17300,8 +18351,10 @@
       <c r="AE486" s="22"/>
       <c r="AF486" s="22"/>
       <c r="AG486" s="22"/>
-    </row>
-    <row r="487" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH486" s="22"/>
+      <c r="AI486" s="22"/>
+    </row>
+    <row r="487" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C487" s="22"/>
       <c r="D487" s="22"/>
       <c r="E487" s="22"/>
@@ -17333,8 +18386,10 @@
       <c r="AE487" s="22"/>
       <c r="AF487" s="22"/>
       <c r="AG487" s="22"/>
-    </row>
-    <row r="488" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH487" s="22"/>
+      <c r="AI487" s="22"/>
+    </row>
+    <row r="488" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C488" s="22"/>
       <c r="D488" s="22"/>
       <c r="E488" s="22"/>
@@ -17366,8 +18421,10 @@
       <c r="AE488" s="22"/>
       <c r="AF488" s="22"/>
       <c r="AG488" s="22"/>
-    </row>
-    <row r="489" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH488" s="22"/>
+      <c r="AI488" s="22"/>
+    </row>
+    <row r="489" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C489" s="22"/>
       <c r="D489" s="22"/>
       <c r="E489" s="22"/>
@@ -17399,8 +18456,10 @@
       <c r="AE489" s="22"/>
       <c r="AF489" s="22"/>
       <c r="AG489" s="22"/>
-    </row>
-    <row r="490" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH489" s="22"/>
+      <c r="AI489" s="22"/>
+    </row>
+    <row r="490" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C490" s="22"/>
       <c r="D490" s="22"/>
       <c r="E490" s="22"/>
@@ -17432,8 +18491,10 @@
       <c r="AE490" s="22"/>
       <c r="AF490" s="22"/>
       <c r="AG490" s="22"/>
-    </row>
-    <row r="491" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH490" s="22"/>
+      <c r="AI490" s="22"/>
+    </row>
+    <row r="491" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C491" s="22"/>
       <c r="D491" s="22"/>
       <c r="E491" s="22"/>
@@ -17465,8 +18526,10 @@
       <c r="AE491" s="22"/>
       <c r="AF491" s="22"/>
       <c r="AG491" s="22"/>
-    </row>
-    <row r="492" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH491" s="22"/>
+      <c r="AI491" s="22"/>
+    </row>
+    <row r="492" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C492" s="22"/>
       <c r="D492" s="22"/>
       <c r="E492" s="22"/>
@@ -17498,8 +18561,10 @@
       <c r="AE492" s="22"/>
       <c r="AF492" s="22"/>
       <c r="AG492" s="22"/>
-    </row>
-    <row r="493" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH492" s="22"/>
+      <c r="AI492" s="22"/>
+    </row>
+    <row r="493" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C493" s="22"/>
       <c r="D493" s="22"/>
       <c r="E493" s="22"/>
@@ -17531,8 +18596,10 @@
       <c r="AE493" s="22"/>
       <c r="AF493" s="22"/>
       <c r="AG493" s="22"/>
-    </row>
-    <row r="494" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH493" s="22"/>
+      <c r="AI493" s="22"/>
+    </row>
+    <row r="494" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C494" s="22"/>
       <c r="D494" s="22"/>
       <c r="E494" s="22"/>
@@ -17564,8 +18631,10 @@
       <c r="AE494" s="22"/>
       <c r="AF494" s="22"/>
       <c r="AG494" s="22"/>
-    </row>
-    <row r="495" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH494" s="22"/>
+      <c r="AI494" s="22"/>
+    </row>
+    <row r="495" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C495" s="22"/>
       <c r="D495" s="22"/>
       <c r="E495" s="22"/>
@@ -17597,8 +18666,10 @@
       <c r="AE495" s="22"/>
       <c r="AF495" s="22"/>
       <c r="AG495" s="22"/>
-    </row>
-    <row r="496" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH495" s="22"/>
+      <c r="AI495" s="22"/>
+    </row>
+    <row r="496" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C496" s="22"/>
       <c r="D496" s="22"/>
       <c r="E496" s="22"/>
@@ -17630,8 +18701,10 @@
       <c r="AE496" s="22"/>
       <c r="AF496" s="22"/>
       <c r="AG496" s="22"/>
-    </row>
-    <row r="497" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH496" s="22"/>
+      <c r="AI496" s="22"/>
+    </row>
+    <row r="497" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C497" s="22"/>
       <c r="D497" s="22"/>
       <c r="E497" s="22"/>
@@ -17663,8 +18736,10 @@
       <c r="AE497" s="22"/>
       <c r="AF497" s="22"/>
       <c r="AG497" s="22"/>
-    </row>
-    <row r="498" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH497" s="22"/>
+      <c r="AI497" s="22"/>
+    </row>
+    <row r="498" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C498" s="22"/>
       <c r="D498" s="22"/>
       <c r="E498" s="22"/>
@@ -17696,8 +18771,10 @@
       <c r="AE498" s="22"/>
       <c r="AF498" s="22"/>
       <c r="AG498" s="22"/>
-    </row>
-    <row r="499" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH498" s="22"/>
+      <c r="AI498" s="22"/>
+    </row>
+    <row r="499" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C499" s="22"/>
       <c r="D499" s="22"/>
       <c r="E499" s="22"/>
@@ -17729,8 +18806,10 @@
       <c r="AE499" s="22"/>
       <c r="AF499" s="22"/>
       <c r="AG499" s="22"/>
-    </row>
-    <row r="500" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH499" s="22"/>
+      <c r="AI499" s="22"/>
+    </row>
+    <row r="500" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C500" s="22"/>
       <c r="D500" s="22"/>
       <c r="E500" s="22"/>
@@ -17762,8 +18841,10 @@
       <c r="AE500" s="22"/>
       <c r="AF500" s="22"/>
       <c r="AG500" s="22"/>
-    </row>
-    <row r="501" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH500" s="22"/>
+      <c r="AI500" s="22"/>
+    </row>
+    <row r="501" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C501" s="22"/>
       <c r="D501" s="22"/>
       <c r="E501" s="22"/>
@@ -17795,8 +18876,10 @@
       <c r="AE501" s="22"/>
       <c r="AF501" s="22"/>
       <c r="AG501" s="22"/>
-    </row>
-    <row r="502" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH501" s="22"/>
+      <c r="AI501" s="22"/>
+    </row>
+    <row r="502" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C502" s="22"/>
       <c r="D502" s="22"/>
       <c r="E502" s="22"/>
@@ -17828,8 +18911,10 @@
       <c r="AE502" s="22"/>
       <c r="AF502" s="22"/>
       <c r="AG502" s="22"/>
-    </row>
-    <row r="503" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH502" s="22"/>
+      <c r="AI502" s="22"/>
+    </row>
+    <row r="503" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C503" s="22"/>
       <c r="D503" s="22"/>
       <c r="E503" s="22"/>
@@ -17861,8 +18946,10 @@
       <c r="AE503" s="22"/>
       <c r="AF503" s="22"/>
       <c r="AG503" s="22"/>
-    </row>
-    <row r="504" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH503" s="22"/>
+      <c r="AI503" s="22"/>
+    </row>
+    <row r="504" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C504" s="22"/>
       <c r="D504" s="22"/>
       <c r="E504" s="22"/>
@@ -17894,8 +18981,10 @@
       <c r="AE504" s="22"/>
       <c r="AF504" s="22"/>
       <c r="AG504" s="22"/>
-    </row>
-    <row r="505" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH504" s="22"/>
+      <c r="AI504" s="22"/>
+    </row>
+    <row r="505" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C505" s="22"/>
       <c r="D505" s="22"/>
       <c r="E505" s="22"/>
@@ -17927,8 +19016,10 @@
       <c r="AE505" s="22"/>
       <c r="AF505" s="22"/>
       <c r="AG505" s="22"/>
-    </row>
-    <row r="506" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH505" s="22"/>
+      <c r="AI505" s="22"/>
+    </row>
+    <row r="506" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C506" s="22"/>
       <c r="D506" s="22"/>
       <c r="E506" s="22"/>
@@ -17960,8 +19051,10 @@
       <c r="AE506" s="22"/>
       <c r="AF506" s="22"/>
       <c r="AG506" s="22"/>
-    </row>
-    <row r="507" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH506" s="22"/>
+      <c r="AI506" s="22"/>
+    </row>
+    <row r="507" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C507" s="22"/>
       <c r="D507" s="22"/>
       <c r="E507" s="22"/>
@@ -17993,8 +19086,10 @@
       <c r="AE507" s="22"/>
       <c r="AF507" s="22"/>
       <c r="AG507" s="22"/>
-    </row>
-    <row r="508" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH507" s="22"/>
+      <c r="AI507" s="22"/>
+    </row>
+    <row r="508" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C508" s="22"/>
       <c r="D508" s="22"/>
       <c r="E508" s="22"/>
@@ -18026,8 +19121,10 @@
       <c r="AE508" s="22"/>
       <c r="AF508" s="22"/>
       <c r="AG508" s="22"/>
-    </row>
-    <row r="509" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH508" s="22"/>
+      <c r="AI508" s="22"/>
+    </row>
+    <row r="509" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C509" s="22"/>
       <c r="D509" s="22"/>
       <c r="E509" s="22"/>
@@ -18059,8 +19156,10 @@
       <c r="AE509" s="22"/>
       <c r="AF509" s="22"/>
       <c r="AG509" s="22"/>
-    </row>
-    <row r="510" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH509" s="22"/>
+      <c r="AI509" s="22"/>
+    </row>
+    <row r="510" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C510" s="22"/>
       <c r="D510" s="22"/>
       <c r="E510" s="22"/>
@@ -18092,8 +19191,10 @@
       <c r="AE510" s="22"/>
       <c r="AF510" s="22"/>
       <c r="AG510" s="22"/>
-    </row>
-    <row r="511" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH510" s="22"/>
+      <c r="AI510" s="22"/>
+    </row>
+    <row r="511" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C511" s="22"/>
       <c r="D511" s="22"/>
       <c r="E511" s="22"/>
@@ -18125,8 +19226,10 @@
       <c r="AE511" s="22"/>
       <c r="AF511" s="22"/>
       <c r="AG511" s="22"/>
-    </row>
-    <row r="512" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH511" s="22"/>
+      <c r="AI511" s="22"/>
+    </row>
+    <row r="512" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C512" s="22"/>
       <c r="D512" s="22"/>
       <c r="E512" s="22"/>
@@ -18158,8 +19261,10 @@
       <c r="AE512" s="22"/>
       <c r="AF512" s="22"/>
       <c r="AG512" s="22"/>
-    </row>
-    <row r="513" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH512" s="22"/>
+      <c r="AI512" s="22"/>
+    </row>
+    <row r="513" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C513" s="22"/>
       <c r="D513" s="22"/>
       <c r="E513" s="22"/>
@@ -18191,8 +19296,10 @@
       <c r="AE513" s="22"/>
       <c r="AF513" s="22"/>
       <c r="AG513" s="22"/>
-    </row>
-    <row r="514" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH513" s="22"/>
+      <c r="AI513" s="22"/>
+    </row>
+    <row r="514" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C514" s="22"/>
       <c r="D514" s="22"/>
       <c r="E514" s="22"/>
@@ -18224,8 +19331,10 @@
       <c r="AE514" s="22"/>
       <c r="AF514" s="22"/>
       <c r="AG514" s="22"/>
-    </row>
-    <row r="515" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH514" s="22"/>
+      <c r="AI514" s="22"/>
+    </row>
+    <row r="515" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C515" s="22"/>
       <c r="D515" s="22"/>
       <c r="E515" s="22"/>
@@ -18257,8 +19366,10 @@
       <c r="AE515" s="22"/>
       <c r="AF515" s="22"/>
       <c r="AG515" s="22"/>
-    </row>
-    <row r="516" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH515" s="22"/>
+      <c r="AI515" s="22"/>
+    </row>
+    <row r="516" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C516" s="22"/>
       <c r="D516" s="22"/>
       <c r="E516" s="22"/>
@@ -18290,8 +19401,10 @@
       <c r="AE516" s="22"/>
       <c r="AF516" s="22"/>
       <c r="AG516" s="22"/>
-    </row>
-    <row r="517" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH516" s="22"/>
+      <c r="AI516" s="22"/>
+    </row>
+    <row r="517" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C517" s="22"/>
       <c r="D517" s="22"/>
       <c r="E517" s="22"/>
@@ -18323,8 +19436,10 @@
       <c r="AE517" s="22"/>
       <c r="AF517" s="22"/>
       <c r="AG517" s="22"/>
-    </row>
-    <row r="518" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH517" s="22"/>
+      <c r="AI517" s="22"/>
+    </row>
+    <row r="518" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C518" s="22"/>
       <c r="D518" s="22"/>
       <c r="E518" s="22"/>
@@ -18356,8 +19471,10 @@
       <c r="AE518" s="22"/>
       <c r="AF518" s="22"/>
       <c r="AG518" s="22"/>
-    </row>
-    <row r="519" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH518" s="22"/>
+      <c r="AI518" s="22"/>
+    </row>
+    <row r="519" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C519" s="22"/>
       <c r="D519" s="22"/>
       <c r="E519" s="22"/>
@@ -18389,8 +19506,10 @@
       <c r="AE519" s="22"/>
       <c r="AF519" s="22"/>
       <c r="AG519" s="22"/>
-    </row>
-    <row r="520" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH519" s="22"/>
+      <c r="AI519" s="22"/>
+    </row>
+    <row r="520" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C520" s="22"/>
       <c r="D520" s="22"/>
       <c r="E520" s="22"/>
@@ -18422,8 +19541,10 @@
       <c r="AE520" s="22"/>
       <c r="AF520" s="22"/>
       <c r="AG520" s="22"/>
-    </row>
-    <row r="521" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH520" s="22"/>
+      <c r="AI520" s="22"/>
+    </row>
+    <row r="521" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C521" s="22"/>
       <c r="D521" s="22"/>
       <c r="E521" s="22"/>
@@ -18455,8 +19576,10 @@
       <c r="AE521" s="22"/>
       <c r="AF521" s="22"/>
       <c r="AG521" s="22"/>
-    </row>
-    <row r="522" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH521" s="22"/>
+      <c r="AI521" s="22"/>
+    </row>
+    <row r="522" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C522" s="22"/>
       <c r="D522" s="22"/>
       <c r="E522" s="22"/>
@@ -18488,8 +19611,10 @@
       <c r="AE522" s="22"/>
       <c r="AF522" s="22"/>
       <c r="AG522" s="22"/>
-    </row>
-    <row r="523" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH522" s="22"/>
+      <c r="AI522" s="22"/>
+    </row>
+    <row r="523" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C523" s="22"/>
       <c r="D523" s="22"/>
       <c r="E523" s="22"/>
@@ -18521,8 +19646,10 @@
       <c r="AE523" s="22"/>
       <c r="AF523" s="22"/>
       <c r="AG523" s="22"/>
-    </row>
-    <row r="524" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH523" s="22"/>
+      <c r="AI523" s="22"/>
+    </row>
+    <row r="524" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C524" s="22"/>
       <c r="D524" s="22"/>
       <c r="E524" s="22"/>
@@ -18554,8 +19681,10 @@
       <c r="AE524" s="22"/>
       <c r="AF524" s="22"/>
       <c r="AG524" s="22"/>
-    </row>
-    <row r="525" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH524" s="22"/>
+      <c r="AI524" s="22"/>
+    </row>
+    <row r="525" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C525" s="22"/>
       <c r="D525" s="22"/>
       <c r="E525" s="22"/>
@@ -18587,8 +19716,10 @@
       <c r="AE525" s="22"/>
       <c r="AF525" s="22"/>
       <c r="AG525" s="22"/>
-    </row>
-    <row r="526" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH525" s="22"/>
+      <c r="AI525" s="22"/>
+    </row>
+    <row r="526" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C526" s="22"/>
       <c r="D526" s="22"/>
       <c r="E526" s="22"/>
@@ -18620,8 +19751,10 @@
       <c r="AE526" s="22"/>
       <c r="AF526" s="22"/>
       <c r="AG526" s="22"/>
-    </row>
-    <row r="527" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH526" s="22"/>
+      <c r="AI526" s="22"/>
+    </row>
+    <row r="527" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C527" s="22"/>
       <c r="D527" s="22"/>
       <c r="E527" s="22"/>
@@ -18653,8 +19786,10 @@
       <c r="AE527" s="22"/>
       <c r="AF527" s="22"/>
       <c r="AG527" s="22"/>
-    </row>
-    <row r="528" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH527" s="22"/>
+      <c r="AI527" s="22"/>
+    </row>
+    <row r="528" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C528" s="22"/>
       <c r="D528" s="22"/>
       <c r="E528" s="22"/>
@@ -18686,8 +19821,10 @@
       <c r="AE528" s="22"/>
       <c r="AF528" s="22"/>
       <c r="AG528" s="22"/>
-    </row>
-    <row r="529" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH528" s="22"/>
+      <c r="AI528" s="22"/>
+    </row>
+    <row r="529" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C529" s="22"/>
       <c r="D529" s="22"/>
       <c r="E529" s="22"/>
@@ -18719,8 +19856,10 @@
       <c r="AE529" s="22"/>
       <c r="AF529" s="22"/>
       <c r="AG529" s="22"/>
-    </row>
-    <row r="530" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH529" s="22"/>
+      <c r="AI529" s="22"/>
+    </row>
+    <row r="530" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C530" s="22"/>
       <c r="D530" s="22"/>
       <c r="E530" s="22"/>
@@ -18752,8 +19891,10 @@
       <c r="AE530" s="22"/>
       <c r="AF530" s="22"/>
       <c r="AG530" s="22"/>
-    </row>
-    <row r="531" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH530" s="22"/>
+      <c r="AI530" s="22"/>
+    </row>
+    <row r="531" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C531" s="22"/>
       <c r="D531" s="22"/>
       <c r="E531" s="22"/>
@@ -18785,8 +19926,10 @@
       <c r="AE531" s="22"/>
       <c r="AF531" s="22"/>
       <c r="AG531" s="22"/>
-    </row>
-    <row r="532" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH531" s="22"/>
+      <c r="AI531" s="22"/>
+    </row>
+    <row r="532" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C532" s="22"/>
       <c r="D532" s="22"/>
       <c r="E532" s="22"/>
@@ -18818,8 +19961,10 @@
       <c r="AE532" s="22"/>
       <c r="AF532" s="22"/>
       <c r="AG532" s="22"/>
-    </row>
-    <row r="533" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH532" s="22"/>
+      <c r="AI532" s="22"/>
+    </row>
+    <row r="533" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C533" s="22"/>
       <c r="D533" s="22"/>
       <c r="E533" s="22"/>
@@ -18851,8 +19996,10 @@
       <c r="AE533" s="22"/>
       <c r="AF533" s="22"/>
       <c r="AG533" s="22"/>
-    </row>
-    <row r="534" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH533" s="22"/>
+      <c r="AI533" s="22"/>
+    </row>
+    <row r="534" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C534" s="22"/>
       <c r="D534" s="22"/>
       <c r="E534" s="22"/>
@@ -18884,8 +20031,10 @@
       <c r="AE534" s="22"/>
       <c r="AF534" s="22"/>
       <c r="AG534" s="22"/>
-    </row>
-    <row r="535" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH534" s="22"/>
+      <c r="AI534" s="22"/>
+    </row>
+    <row r="535" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C535" s="22"/>
       <c r="D535" s="22"/>
       <c r="E535" s="22"/>
@@ -18917,8 +20066,10 @@
       <c r="AE535" s="22"/>
       <c r="AF535" s="22"/>
       <c r="AG535" s="22"/>
-    </row>
-    <row r="536" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH535" s="22"/>
+      <c r="AI535" s="22"/>
+    </row>
+    <row r="536" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C536" s="22"/>
       <c r="D536" s="22"/>
       <c r="E536" s="22"/>
@@ -18950,8 +20101,10 @@
       <c r="AE536" s="22"/>
       <c r="AF536" s="22"/>
       <c r="AG536" s="22"/>
-    </row>
-    <row r="537" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH536" s="22"/>
+      <c r="AI536" s="22"/>
+    </row>
+    <row r="537" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C537" s="22"/>
       <c r="D537" s="22"/>
       <c r="E537" s="22"/>
@@ -18983,8 +20136,10 @@
       <c r="AE537" s="22"/>
       <c r="AF537" s="22"/>
       <c r="AG537" s="22"/>
-    </row>
-    <row r="538" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH537" s="22"/>
+      <c r="AI537" s="22"/>
+    </row>
+    <row r="538" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C538" s="22"/>
       <c r="D538" s="22"/>
       <c r="E538" s="22"/>
@@ -19016,8 +20171,10 @@
       <c r="AE538" s="22"/>
       <c r="AF538" s="22"/>
       <c r="AG538" s="22"/>
-    </row>
-    <row r="539" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH538" s="22"/>
+      <c r="AI538" s="22"/>
+    </row>
+    <row r="539" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C539" s="22"/>
       <c r="D539" s="22"/>
       <c r="E539" s="22"/>
@@ -19049,8 +20206,10 @@
       <c r="AE539" s="22"/>
       <c r="AF539" s="22"/>
       <c r="AG539" s="22"/>
-    </row>
-    <row r="540" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH539" s="22"/>
+      <c r="AI539" s="22"/>
+    </row>
+    <row r="540" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C540" s="22"/>
       <c r="D540" s="22"/>
       <c r="E540" s="22"/>
@@ -19082,8 +20241,10 @@
       <c r="AE540" s="22"/>
       <c r="AF540" s="22"/>
       <c r="AG540" s="22"/>
-    </row>
-    <row r="541" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH540" s="22"/>
+      <c r="AI540" s="22"/>
+    </row>
+    <row r="541" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C541" s="22"/>
       <c r="D541" s="22"/>
       <c r="E541" s="22"/>
@@ -19115,8 +20276,10 @@
       <c r="AE541" s="22"/>
       <c r="AF541" s="22"/>
       <c r="AG541" s="22"/>
-    </row>
-    <row r="542" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH541" s="22"/>
+      <c r="AI541" s="22"/>
+    </row>
+    <row r="542" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C542" s="22"/>
       <c r="D542" s="22"/>
       <c r="E542" s="22"/>
@@ -19148,8 +20311,10 @@
       <c r="AE542" s="22"/>
       <c r="AF542" s="22"/>
       <c r="AG542" s="22"/>
-    </row>
-    <row r="543" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH542" s="22"/>
+      <c r="AI542" s="22"/>
+    </row>
+    <row r="543" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C543" s="22"/>
       <c r="D543" s="22"/>
       <c r="E543" s="22"/>
@@ -19181,8 +20346,10 @@
       <c r="AE543" s="22"/>
       <c r="AF543" s="22"/>
       <c r="AG543" s="22"/>
-    </row>
-    <row r="544" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH543" s="22"/>
+      <c r="AI543" s="22"/>
+    </row>
+    <row r="544" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C544" s="22"/>
       <c r="D544" s="22"/>
       <c r="E544" s="22"/>
@@ -19214,8 +20381,10 @@
       <c r="AE544" s="22"/>
       <c r="AF544" s="22"/>
       <c r="AG544" s="22"/>
-    </row>
-    <row r="545" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH544" s="22"/>
+      <c r="AI544" s="22"/>
+    </row>
+    <row r="545" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C545" s="22"/>
       <c r="D545" s="22"/>
       <c r="E545" s="22"/>
@@ -19247,8 +20416,10 @@
       <c r="AE545" s="22"/>
       <c r="AF545" s="22"/>
       <c r="AG545" s="22"/>
-    </row>
-    <row r="546" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH545" s="22"/>
+      <c r="AI545" s="22"/>
+    </row>
+    <row r="546" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C546" s="22"/>
       <c r="D546" s="22"/>
       <c r="E546" s="22"/>
@@ -19280,8 +20451,10 @@
       <c r="AE546" s="22"/>
       <c r="AF546" s="22"/>
       <c r="AG546" s="22"/>
-    </row>
-    <row r="547" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH546" s="22"/>
+      <c r="AI546" s="22"/>
+    </row>
+    <row r="547" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C547" s="22"/>
       <c r="D547" s="22"/>
       <c r="E547" s="22"/>
@@ -19313,8 +20486,10 @@
       <c r="AE547" s="22"/>
       <c r="AF547" s="22"/>
       <c r="AG547" s="22"/>
-    </row>
-    <row r="548" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH547" s="22"/>
+      <c r="AI547" s="22"/>
+    </row>
+    <row r="548" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C548" s="22"/>
       <c r="D548" s="22"/>
       <c r="E548" s="22"/>
@@ -19346,8 +20521,10 @@
       <c r="AE548" s="22"/>
       <c r="AF548" s="22"/>
       <c r="AG548" s="22"/>
-    </row>
-    <row r="549" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH548" s="22"/>
+      <c r="AI548" s="22"/>
+    </row>
+    <row r="549" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C549" s="22"/>
       <c r="D549" s="22"/>
       <c r="E549" s="22"/>
@@ -19379,8 +20556,10 @@
       <c r="AE549" s="22"/>
       <c r="AF549" s="22"/>
       <c r="AG549" s="22"/>
-    </row>
-    <row r="550" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH549" s="22"/>
+      <c r="AI549" s="22"/>
+    </row>
+    <row r="550" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C550" s="22"/>
       <c r="D550" s="22"/>
       <c r="E550" s="22"/>
@@ -19412,8 +20591,10 @@
       <c r="AE550" s="22"/>
       <c r="AF550" s="22"/>
       <c r="AG550" s="22"/>
-    </row>
-    <row r="551" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH550" s="22"/>
+      <c r="AI550" s="22"/>
+    </row>
+    <row r="551" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C551" s="22"/>
       <c r="D551" s="22"/>
       <c r="E551" s="22"/>
@@ -19445,8 +20626,10 @@
       <c r="AE551" s="22"/>
       <c r="AF551" s="22"/>
       <c r="AG551" s="22"/>
-    </row>
-    <row r="552" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH551" s="22"/>
+      <c r="AI551" s="22"/>
+    </row>
+    <row r="552" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C552" s="22"/>
       <c r="D552" s="22"/>
       <c r="E552" s="22"/>
@@ -19478,8 +20661,10 @@
       <c r="AE552" s="22"/>
       <c r="AF552" s="22"/>
       <c r="AG552" s="22"/>
-    </row>
-    <row r="553" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH552" s="22"/>
+      <c r="AI552" s="22"/>
+    </row>
+    <row r="553" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C553" s="22"/>
       <c r="D553" s="22"/>
       <c r="E553" s="22"/>
@@ -19511,8 +20696,10 @@
       <c r="AE553" s="22"/>
       <c r="AF553" s="22"/>
       <c r="AG553" s="22"/>
-    </row>
-    <row r="554" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH553" s="22"/>
+      <c r="AI553" s="22"/>
+    </row>
+    <row r="554" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C554" s="22"/>
       <c r="D554" s="22"/>
       <c r="E554" s="22"/>
@@ -19544,8 +20731,10 @@
       <c r="AE554" s="22"/>
       <c r="AF554" s="22"/>
       <c r="AG554" s="22"/>
-    </row>
-    <row r="555" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH554" s="22"/>
+      <c r="AI554" s="22"/>
+    </row>
+    <row r="555" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C555" s="22"/>
       <c r="D555" s="22"/>
       <c r="E555" s="22"/>
@@ -19577,8 +20766,10 @@
       <c r="AE555" s="22"/>
       <c r="AF555" s="22"/>
       <c r="AG555" s="22"/>
-    </row>
-    <row r="556" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH555" s="22"/>
+      <c r="AI555" s="22"/>
+    </row>
+    <row r="556" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C556" s="22"/>
       <c r="D556" s="22"/>
       <c r="E556" s="22"/>
@@ -19610,8 +20801,10 @@
       <c r="AE556" s="22"/>
       <c r="AF556" s="22"/>
       <c r="AG556" s="22"/>
-    </row>
-    <row r="557" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH556" s="22"/>
+      <c r="AI556" s="22"/>
+    </row>
+    <row r="557" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C557" s="22"/>
       <c r="D557" s="22"/>
       <c r="E557" s="22"/>
@@ -19643,8 +20836,10 @@
       <c r="AE557" s="22"/>
       <c r="AF557" s="22"/>
       <c r="AG557" s="22"/>
-    </row>
-    <row r="558" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH557" s="22"/>
+      <c r="AI557" s="22"/>
+    </row>
+    <row r="558" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C558" s="22"/>
       <c r="D558" s="22"/>
       <c r="E558" s="22"/>
@@ -19676,8 +20871,10 @@
       <c r="AE558" s="22"/>
       <c r="AF558" s="22"/>
       <c r="AG558" s="22"/>
-    </row>
-    <row r="559" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH558" s="22"/>
+      <c r="AI558" s="22"/>
+    </row>
+    <row r="559" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C559" s="22"/>
       <c r="D559" s="22"/>
       <c r="E559" s="22"/>
@@ -19709,8 +20906,10 @@
       <c r="AE559" s="22"/>
       <c r="AF559" s="22"/>
       <c r="AG559" s="22"/>
-    </row>
-    <row r="560" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH559" s="22"/>
+      <c r="AI559" s="22"/>
+    </row>
+    <row r="560" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C560" s="22"/>
       <c r="D560" s="22"/>
       <c r="E560" s="22"/>
@@ -19742,8 +20941,10 @@
       <c r="AE560" s="22"/>
       <c r="AF560" s="22"/>
       <c r="AG560" s="22"/>
-    </row>
-    <row r="561" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH560" s="22"/>
+      <c r="AI560" s="22"/>
+    </row>
+    <row r="561" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C561" s="22"/>
       <c r="D561" s="22"/>
       <c r="E561" s="22"/>
@@ -19775,8 +20976,10 @@
       <c r="AE561" s="22"/>
       <c r="AF561" s="22"/>
       <c r="AG561" s="22"/>
-    </row>
-    <row r="562" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH561" s="22"/>
+      <c r="AI561" s="22"/>
+    </row>
+    <row r="562" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C562" s="22"/>
       <c r="D562" s="22"/>
       <c r="E562" s="22"/>
@@ -19808,8 +21011,10 @@
       <c r="AE562" s="22"/>
       <c r="AF562" s="22"/>
       <c r="AG562" s="22"/>
-    </row>
-    <row r="563" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH562" s="22"/>
+      <c r="AI562" s="22"/>
+    </row>
+    <row r="563" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C563" s="22"/>
       <c r="D563" s="22"/>
       <c r="E563" s="22"/>
@@ -19841,8 +21046,10 @@
       <c r="AE563" s="22"/>
       <c r="AF563" s="22"/>
       <c r="AG563" s="22"/>
-    </row>
-    <row r="564" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH563" s="22"/>
+      <c r="AI563" s="22"/>
+    </row>
+    <row r="564" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C564" s="22"/>
       <c r="D564" s="22"/>
       <c r="E564" s="22"/>
@@ -19874,8 +21081,10 @@
       <c r="AE564" s="22"/>
       <c r="AF564" s="22"/>
       <c r="AG564" s="22"/>
-    </row>
-    <row r="565" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH564" s="22"/>
+      <c r="AI564" s="22"/>
+    </row>
+    <row r="565" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C565" s="22"/>
       <c r="D565" s="22"/>
       <c r="E565" s="22"/>
@@ -19907,8 +21116,10 @@
       <c r="AE565" s="22"/>
       <c r="AF565" s="22"/>
       <c r="AG565" s="22"/>
-    </row>
-    <row r="566" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH565" s="22"/>
+      <c r="AI565" s="22"/>
+    </row>
+    <row r="566" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C566" s="22"/>
       <c r="D566" s="22"/>
       <c r="E566" s="22"/>
@@ -19940,8 +21151,10 @@
       <c r="AE566" s="22"/>
       <c r="AF566" s="22"/>
       <c r="AG566" s="22"/>
-    </row>
-    <row r="567" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH566" s="22"/>
+      <c r="AI566" s="22"/>
+    </row>
+    <row r="567" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C567" s="22"/>
       <c r="D567" s="22"/>
       <c r="E567" s="22"/>
@@ -19973,8 +21186,10 @@
       <c r="AE567" s="22"/>
       <c r="AF567" s="22"/>
       <c r="AG567" s="22"/>
-    </row>
-    <row r="568" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH567" s="22"/>
+      <c r="AI567" s="22"/>
+    </row>
+    <row r="568" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C568" s="22"/>
       <c r="D568" s="22"/>
       <c r="E568" s="22"/>
@@ -20006,8 +21221,10 @@
       <c r="AE568" s="22"/>
       <c r="AF568" s="22"/>
       <c r="AG568" s="22"/>
-    </row>
-    <row r="569" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH568" s="22"/>
+      <c r="AI568" s="22"/>
+    </row>
+    <row r="569" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C569" s="22"/>
       <c r="D569" s="22"/>
       <c r="E569" s="22"/>
@@ -20039,8 +21256,10 @@
       <c r="AE569" s="22"/>
       <c r="AF569" s="22"/>
       <c r="AG569" s="22"/>
-    </row>
-    <row r="570" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH569" s="22"/>
+      <c r="AI569" s="22"/>
+    </row>
+    <row r="570" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C570" s="22"/>
       <c r="D570" s="22"/>
       <c r="E570" s="22"/>
@@ -20072,8 +21291,10 @@
       <c r="AE570" s="22"/>
       <c r="AF570" s="22"/>
       <c r="AG570" s="22"/>
-    </row>
-    <row r="571" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH570" s="22"/>
+      <c r="AI570" s="22"/>
+    </row>
+    <row r="571" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C571" s="22"/>
       <c r="D571" s="22"/>
       <c r="E571" s="22"/>
@@ -20105,8 +21326,10 @@
       <c r="AE571" s="22"/>
       <c r="AF571" s="22"/>
       <c r="AG571" s="22"/>
-    </row>
-    <row r="572" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH571" s="22"/>
+      <c r="AI571" s="22"/>
+    </row>
+    <row r="572" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C572" s="22"/>
       <c r="D572" s="22"/>
       <c r="E572" s="22"/>
@@ -20138,8 +21361,10 @@
       <c r="AE572" s="22"/>
       <c r="AF572" s="22"/>
       <c r="AG572" s="22"/>
-    </row>
-    <row r="573" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH572" s="22"/>
+      <c r="AI572" s="22"/>
+    </row>
+    <row r="573" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C573" s="22"/>
       <c r="D573" s="22"/>
       <c r="E573" s="22"/>
@@ -20171,8 +21396,10 @@
       <c r="AE573" s="22"/>
       <c r="AF573" s="22"/>
       <c r="AG573" s="22"/>
-    </row>
-    <row r="574" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH573" s="22"/>
+      <c r="AI573" s="22"/>
+    </row>
+    <row r="574" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C574" s="22"/>
       <c r="D574" s="22"/>
       <c r="E574" s="22"/>
@@ -20204,8 +21431,10 @@
       <c r="AE574" s="22"/>
       <c r="AF574" s="22"/>
       <c r="AG574" s="22"/>
-    </row>
-    <row r="575" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH574" s="22"/>
+      <c r="AI574" s="22"/>
+    </row>
+    <row r="575" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C575" s="22"/>
       <c r="D575" s="22"/>
       <c r="E575" s="22"/>
@@ -20237,8 +21466,10 @@
       <c r="AE575" s="22"/>
       <c r="AF575" s="22"/>
       <c r="AG575" s="22"/>
-    </row>
-    <row r="576" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH575" s="22"/>
+      <c r="AI575" s="22"/>
+    </row>
+    <row r="576" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C576" s="22"/>
       <c r="D576" s="22"/>
       <c r="E576" s="22"/>
@@ -20270,8 +21501,10 @@
       <c r="AE576" s="22"/>
       <c r="AF576" s="22"/>
       <c r="AG576" s="22"/>
-    </row>
-    <row r="577" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH576" s="22"/>
+      <c r="AI576" s="22"/>
+    </row>
+    <row r="577" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C577" s="22"/>
       <c r="D577" s="22"/>
       <c r="E577" s="22"/>
@@ -20303,8 +21536,10 @@
       <c r="AE577" s="22"/>
       <c r="AF577" s="22"/>
       <c r="AG577" s="22"/>
-    </row>
-    <row r="578" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH577" s="22"/>
+      <c r="AI577" s="22"/>
+    </row>
+    <row r="578" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C578" s="22"/>
       <c r="D578" s="22"/>
       <c r="E578" s="22"/>
@@ -20336,8 +21571,10 @@
       <c r="AE578" s="22"/>
       <c r="AF578" s="22"/>
       <c r="AG578" s="22"/>
-    </row>
-    <row r="579" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH578" s="22"/>
+      <c r="AI578" s="22"/>
+    </row>
+    <row r="579" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C579" s="22"/>
       <c r="D579" s="22"/>
       <c r="E579" s="22"/>
@@ -20369,8 +21606,10 @@
       <c r="AE579" s="22"/>
       <c r="AF579" s="22"/>
       <c r="AG579" s="22"/>
-    </row>
-    <row r="580" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH579" s="22"/>
+      <c r="AI579" s="22"/>
+    </row>
+    <row r="580" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C580" s="22"/>
       <c r="D580" s="22"/>
       <c r="E580" s="22"/>
@@ -20402,8 +21641,10 @@
       <c r="AE580" s="22"/>
       <c r="AF580" s="22"/>
       <c r="AG580" s="22"/>
-    </row>
-    <row r="581" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH580" s="22"/>
+      <c r="AI580" s="22"/>
+    </row>
+    <row r="581" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C581" s="22"/>
       <c r="D581" s="22"/>
       <c r="E581" s="22"/>
@@ -20435,8 +21676,10 @@
       <c r="AE581" s="22"/>
       <c r="AF581" s="22"/>
       <c r="AG581" s="22"/>
-    </row>
-    <row r="582" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH581" s="22"/>
+      <c r="AI581" s="22"/>
+    </row>
+    <row r="582" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C582" s="22"/>
       <c r="D582" s="22"/>
       <c r="E582" s="22"/>
@@ -20468,8 +21711,10 @@
       <c r="AE582" s="22"/>
       <c r="AF582" s="22"/>
       <c r="AG582" s="22"/>
-    </row>
-    <row r="583" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH582" s="22"/>
+      <c r="AI582" s="22"/>
+    </row>
+    <row r="583" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C583" s="22"/>
       <c r="D583" s="22"/>
       <c r="E583" s="22"/>
@@ -20501,8 +21746,10 @@
       <c r="AE583" s="22"/>
       <c r="AF583" s="22"/>
       <c r="AG583" s="22"/>
-    </row>
-    <row r="584" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH583" s="22"/>
+      <c r="AI583" s="22"/>
+    </row>
+    <row r="584" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C584" s="22"/>
       <c r="D584" s="22"/>
       <c r="E584" s="22"/>
@@ -20534,8 +21781,10 @@
       <c r="AE584" s="22"/>
       <c r="AF584" s="22"/>
       <c r="AG584" s="22"/>
-    </row>
-    <row r="585" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH584" s="22"/>
+      <c r="AI584" s="22"/>
+    </row>
+    <row r="585" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C585" s="22"/>
       <c r="D585" s="22"/>
       <c r="E585" s="22"/>
@@ -20567,8 +21816,10 @@
       <c r="AE585" s="22"/>
       <c r="AF585" s="22"/>
       <c r="AG585" s="22"/>
-    </row>
-    <row r="586" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH585" s="22"/>
+      <c r="AI585" s="22"/>
+    </row>
+    <row r="586" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C586" s="22"/>
       <c r="D586" s="22"/>
       <c r="E586" s="22"/>
@@ -20600,8 +21851,10 @@
       <c r="AE586" s="22"/>
       <c r="AF586" s="22"/>
       <c r="AG586" s="22"/>
-    </row>
-    <row r="587" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH586" s="22"/>
+      <c r="AI586" s="22"/>
+    </row>
+    <row r="587" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C587" s="22"/>
       <c r="D587" s="22"/>
       <c r="E587" s="22"/>
@@ -20633,8 +21886,10 @@
       <c r="AE587" s="22"/>
       <c r="AF587" s="22"/>
       <c r="AG587" s="22"/>
-    </row>
-    <row r="588" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH587" s="22"/>
+      <c r="AI587" s="22"/>
+    </row>
+    <row r="588" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C588" s="22"/>
       <c r="D588" s="22"/>
       <c r="E588" s="22"/>
@@ -20666,8 +21921,10 @@
       <c r="AE588" s="22"/>
       <c r="AF588" s="22"/>
       <c r="AG588" s="22"/>
-    </row>
-    <row r="589" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH588" s="22"/>
+      <c r="AI588" s="22"/>
+    </row>
+    <row r="589" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C589" s="22"/>
       <c r="D589" s="22"/>
       <c r="E589" s="22"/>
@@ -20699,8 +21956,10 @@
       <c r="AE589" s="22"/>
       <c r="AF589" s="22"/>
       <c r="AG589" s="22"/>
-    </row>
-    <row r="590" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH589" s="22"/>
+      <c r="AI589" s="22"/>
+    </row>
+    <row r="590" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C590" s="22"/>
       <c r="D590" s="22"/>
       <c r="E590" s="22"/>
@@ -20732,8 +21991,10 @@
       <c r="AE590" s="22"/>
       <c r="AF590" s="22"/>
       <c r="AG590" s="22"/>
-    </row>
-    <row r="591" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH590" s="22"/>
+      <c r="AI590" s="22"/>
+    </row>
+    <row r="591" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C591" s="22"/>
       <c r="D591" s="22"/>
       <c r="E591" s="22"/>
@@ -20765,8 +22026,10 @@
       <c r="AE591" s="22"/>
       <c r="AF591" s="22"/>
       <c r="AG591" s="22"/>
-    </row>
-    <row r="592" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH591" s="22"/>
+      <c r="AI591" s="22"/>
+    </row>
+    <row r="592" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C592" s="22"/>
       <c r="D592" s="22"/>
       <c r="E592" s="22"/>
@@ -20798,8 +22061,10 @@
       <c r="AE592" s="22"/>
       <c r="AF592" s="22"/>
       <c r="AG592" s="22"/>
-    </row>
-    <row r="593" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH592" s="22"/>
+      <c r="AI592" s="22"/>
+    </row>
+    <row r="593" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C593" s="22"/>
       <c r="D593" s="22"/>
       <c r="E593" s="22"/>
@@ -20831,8 +22096,10 @@
       <c r="AE593" s="22"/>
       <c r="AF593" s="22"/>
       <c r="AG593" s="22"/>
-    </row>
-    <row r="594" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH593" s="22"/>
+      <c r="AI593" s="22"/>
+    </row>
+    <row r="594" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C594" s="22"/>
       <c r="D594" s="22"/>
       <c r="E594" s="22"/>
@@ -20864,8 +22131,10 @@
       <c r="AE594" s="22"/>
       <c r="AF594" s="22"/>
       <c r="AG594" s="22"/>
-    </row>
-    <row r="595" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH594" s="22"/>
+      <c r="AI594" s="22"/>
+    </row>
+    <row r="595" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C595" s="22"/>
       <c r="D595" s="22"/>
       <c r="E595" s="22"/>
@@ -20897,8 +22166,10 @@
       <c r="AE595" s="22"/>
       <c r="AF595" s="22"/>
       <c r="AG595" s="22"/>
-    </row>
-    <row r="596" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH595" s="22"/>
+      <c r="AI595" s="22"/>
+    </row>
+    <row r="596" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C596" s="22"/>
       <c r="D596" s="22"/>
       <c r="E596" s="22"/>
@@ -20930,8 +22201,10 @@
       <c r="AE596" s="22"/>
       <c r="AF596" s="22"/>
       <c r="AG596" s="22"/>
-    </row>
-    <row r="597" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH596" s="22"/>
+      <c r="AI596" s="22"/>
+    </row>
+    <row r="597" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C597" s="22"/>
       <c r="D597" s="22"/>
       <c r="E597" s="22"/>
@@ -20963,8 +22236,10 @@
       <c r="AE597" s="22"/>
       <c r="AF597" s="22"/>
       <c r="AG597" s="22"/>
-    </row>
-    <row r="598" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH597" s="22"/>
+      <c r="AI597" s="22"/>
+    </row>
+    <row r="598" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C598" s="22"/>
       <c r="D598" s="22"/>
       <c r="E598" s="22"/>
@@ -20996,8 +22271,10 @@
       <c r="AE598" s="22"/>
       <c r="AF598" s="22"/>
       <c r="AG598" s="22"/>
-    </row>
-    <row r="599" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH598" s="22"/>
+      <c r="AI598" s="22"/>
+    </row>
+    <row r="599" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C599" s="22"/>
       <c r="D599" s="22"/>
       <c r="E599" s="22"/>
@@ -21029,8 +22306,10 @@
       <c r="AE599" s="22"/>
       <c r="AF599" s="22"/>
       <c r="AG599" s="22"/>
-    </row>
-    <row r="600" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH599" s="22"/>
+      <c r="AI599" s="22"/>
+    </row>
+    <row r="600" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C600" s="22"/>
       <c r="D600" s="22"/>
       <c r="E600" s="22"/>
@@ -21062,8 +22341,10 @@
       <c r="AE600" s="22"/>
       <c r="AF600" s="22"/>
       <c r="AG600" s="22"/>
-    </row>
-    <row r="601" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH600" s="22"/>
+      <c r="AI600" s="22"/>
+    </row>
+    <row r="601" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C601" s="22"/>
       <c r="D601" s="22"/>
       <c r="E601" s="22"/>
@@ -21095,8 +22376,10 @@
       <c r="AE601" s="22"/>
       <c r="AF601" s="22"/>
       <c r="AG601" s="22"/>
-    </row>
-    <row r="602" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH601" s="22"/>
+      <c r="AI601" s="22"/>
+    </row>
+    <row r="602" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C602" s="22"/>
       <c r="D602" s="22"/>
       <c r="E602" s="22"/>
@@ -21128,8 +22411,10 @@
       <c r="AE602" s="22"/>
       <c r="AF602" s="22"/>
       <c r="AG602" s="22"/>
-    </row>
-    <row r="603" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH602" s="22"/>
+      <c r="AI602" s="22"/>
+    </row>
+    <row r="603" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C603" s="22"/>
       <c r="D603" s="22"/>
       <c r="E603" s="22"/>
@@ -21161,8 +22446,10 @@
       <c r="AE603" s="22"/>
       <c r="AF603" s="22"/>
       <c r="AG603" s="22"/>
-    </row>
-    <row r="604" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH603" s="22"/>
+      <c r="AI603" s="22"/>
+    </row>
+    <row r="604" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C604" s="22"/>
       <c r="D604" s="22"/>
       <c r="E604" s="22"/>
@@ -21194,8 +22481,10 @@
       <c r="AE604" s="22"/>
       <c r="AF604" s="22"/>
       <c r="AG604" s="22"/>
-    </row>
-    <row r="605" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH604" s="22"/>
+      <c r="AI604" s="22"/>
+    </row>
+    <row r="605" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C605" s="22"/>
       <c r="D605" s="22"/>
       <c r="E605" s="22"/>
@@ -21227,8 +22516,10 @@
       <c r="AE605" s="22"/>
       <c r="AF605" s="22"/>
       <c r="AG605" s="22"/>
-    </row>
-    <row r="606" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH605" s="22"/>
+      <c r="AI605" s="22"/>
+    </row>
+    <row r="606" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C606" s="22"/>
       <c r="D606" s="22"/>
       <c r="E606" s="22"/>
@@ -21260,8 +22551,10 @@
       <c r="AE606" s="22"/>
       <c r="AF606" s="22"/>
       <c r="AG606" s="22"/>
-    </row>
-    <row r="607" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH606" s="22"/>
+      <c r="AI606" s="22"/>
+    </row>
+    <row r="607" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C607" s="22"/>
       <c r="D607" s="22"/>
       <c r="E607" s="22"/>
@@ -21293,8 +22586,10 @@
       <c r="AE607" s="22"/>
       <c r="AF607" s="22"/>
       <c r="AG607" s="22"/>
-    </row>
-    <row r="608" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH607" s="22"/>
+      <c r="AI607" s="22"/>
+    </row>
+    <row r="608" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C608" s="22"/>
       <c r="D608" s="22"/>
       <c r="E608" s="22"/>
@@ -21326,8 +22621,10 @@
       <c r="AE608" s="22"/>
       <c r="AF608" s="22"/>
       <c r="AG608" s="22"/>
-    </row>
-    <row r="609" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH608" s="22"/>
+      <c r="AI608" s="22"/>
+    </row>
+    <row r="609" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C609" s="22"/>
       <c r="D609" s="22"/>
       <c r="E609" s="22"/>
@@ -21359,8 +22656,10 @@
       <c r="AE609" s="22"/>
       <c r="AF609" s="22"/>
       <c r="AG609" s="22"/>
-    </row>
-    <row r="610" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH609" s="22"/>
+      <c r="AI609" s="22"/>
+    </row>
+    <row r="610" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C610" s="22"/>
       <c r="D610" s="22"/>
       <c r="E610" s="22"/>
@@ -21392,8 +22691,10 @@
       <c r="AE610" s="22"/>
       <c r="AF610" s="22"/>
       <c r="AG610" s="22"/>
-    </row>
-    <row r="611" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH610" s="22"/>
+      <c r="AI610" s="22"/>
+    </row>
+    <row r="611" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C611" s="22"/>
       <c r="D611" s="22"/>
       <c r="E611" s="22"/>
@@ -21425,8 +22726,10 @@
       <c r="AE611" s="22"/>
       <c r="AF611" s="22"/>
       <c r="AG611" s="22"/>
-    </row>
-    <row r="612" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH611" s="22"/>
+      <c r="AI611" s="22"/>
+    </row>
+    <row r="612" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C612" s="22"/>
       <c r="D612" s="22"/>
       <c r="E612" s="22"/>
@@ -21458,8 +22761,10 @@
       <c r="AE612" s="22"/>
       <c r="AF612" s="22"/>
       <c r="AG612" s="22"/>
-    </row>
-    <row r="613" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH612" s="22"/>
+      <c r="AI612" s="22"/>
+    </row>
+    <row r="613" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C613" s="22"/>
       <c r="D613" s="22"/>
       <c r="E613" s="22"/>
@@ -21491,8 +22796,10 @@
       <c r="AE613" s="22"/>
       <c r="AF613" s="22"/>
       <c r="AG613" s="22"/>
-    </row>
-    <row r="614" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH613" s="22"/>
+      <c r="AI613" s="22"/>
+    </row>
+    <row r="614" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C614" s="22"/>
       <c r="D614" s="22"/>
       <c r="E614" s="22"/>
@@ -21524,8 +22831,10 @@
       <c r="AE614" s="22"/>
       <c r="AF614" s="22"/>
       <c r="AG614" s="22"/>
-    </row>
-    <row r="615" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH614" s="22"/>
+      <c r="AI614" s="22"/>
+    </row>
+    <row r="615" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C615" s="22"/>
       <c r="D615" s="22"/>
       <c r="E615" s="22"/>
@@ -21557,8 +22866,10 @@
       <c r="AE615" s="22"/>
       <c r="AF615" s="22"/>
       <c r="AG615" s="22"/>
-    </row>
-    <row r="616" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH615" s="22"/>
+      <c r="AI615" s="22"/>
+    </row>
+    <row r="616" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C616" s="22"/>
       <c r="D616" s="22"/>
       <c r="E616" s="22"/>
@@ -21590,8 +22901,10 @@
       <c r="AE616" s="22"/>
       <c r="AF616" s="22"/>
       <c r="AG616" s="22"/>
-    </row>
-    <row r="617" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH616" s="22"/>
+      <c r="AI616" s="22"/>
+    </row>
+    <row r="617" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C617" s="22"/>
       <c r="D617" s="22"/>
       <c r="E617" s="22"/>
@@ -21623,8 +22936,10 @@
       <c r="AE617" s="22"/>
       <c r="AF617" s="22"/>
       <c r="AG617" s="22"/>
-    </row>
-    <row r="618" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH617" s="22"/>
+      <c r="AI617" s="22"/>
+    </row>
+    <row r="618" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C618" s="22"/>
       <c r="D618" s="22"/>
       <c r="E618" s="22"/>
@@ -21656,8 +22971,10 @@
       <c r="AE618" s="22"/>
       <c r="AF618" s="22"/>
       <c r="AG618" s="22"/>
-    </row>
-    <row r="619" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH618" s="22"/>
+      <c r="AI618" s="22"/>
+    </row>
+    <row r="619" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C619" s="22"/>
       <c r="D619" s="22"/>
       <c r="E619" s="22"/>
@@ -21689,8 +23006,10 @@
       <c r="AE619" s="22"/>
       <c r="AF619" s="22"/>
       <c r="AG619" s="22"/>
-    </row>
-    <row r="620" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH619" s="22"/>
+      <c r="AI619" s="22"/>
+    </row>
+    <row r="620" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C620" s="22"/>
       <c r="D620" s="22"/>
       <c r="E620" s="22"/>
@@ -21722,8 +23041,10 @@
       <c r="AE620" s="22"/>
       <c r="AF620" s="22"/>
       <c r="AG620" s="22"/>
-    </row>
-    <row r="621" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH620" s="22"/>
+      <c r="AI620" s="22"/>
+    </row>
+    <row r="621" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C621" s="22"/>
       <c r="D621" s="22"/>
       <c r="E621" s="22"/>
@@ -21755,8 +23076,10 @@
       <c r="AE621" s="22"/>
       <c r="AF621" s="22"/>
       <c r="AG621" s="22"/>
-    </row>
-    <row r="622" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH621" s="22"/>
+      <c r="AI621" s="22"/>
+    </row>
+    <row r="622" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C622" s="22"/>
       <c r="D622" s="22"/>
       <c r="E622" s="22"/>
@@ -21788,8 +23111,10 @@
       <c r="AE622" s="22"/>
       <c r="AF622" s="22"/>
       <c r="AG622" s="22"/>
-    </row>
-    <row r="623" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH622" s="22"/>
+      <c r="AI622" s="22"/>
+    </row>
+    <row r="623" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C623" s="22"/>
       <c r="D623" s="22"/>
       <c r="E623" s="22"/>
@@ -21821,8 +23146,10 @@
       <c r="AE623" s="22"/>
       <c r="AF623" s="22"/>
       <c r="AG623" s="22"/>
-    </row>
-    <row r="624" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH623" s="22"/>
+      <c r="AI623" s="22"/>
+    </row>
+    <row r="624" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C624" s="22"/>
       <c r="D624" s="22"/>
       <c r="E624" s="22"/>
@@ -21854,8 +23181,10 @@
       <c r="AE624" s="22"/>
       <c r="AF624" s="22"/>
       <c r="AG624" s="22"/>
-    </row>
-    <row r="625" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH624" s="22"/>
+      <c r="AI624" s="22"/>
+    </row>
+    <row r="625" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C625" s="22"/>
       <c r="D625" s="22"/>
       <c r="E625" s="22"/>
@@ -21887,8 +23216,10 @@
       <c r="AE625" s="22"/>
       <c r="AF625" s="22"/>
       <c r="AG625" s="22"/>
-    </row>
-    <row r="626" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH625" s="22"/>
+      <c r="AI625" s="22"/>
+    </row>
+    <row r="626" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C626" s="22"/>
       <c r="D626" s="22"/>
       <c r="E626" s="22"/>
@@ -21920,8 +23251,10 @@
       <c r="AE626" s="22"/>
       <c r="AF626" s="22"/>
       <c r="AG626" s="22"/>
-    </row>
-    <row r="627" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH626" s="22"/>
+      <c r="AI626" s="22"/>
+    </row>
+    <row r="627" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C627" s="22"/>
       <c r="D627" s="22"/>
       <c r="E627" s="22"/>
@@ -21953,8 +23286,10 @@
       <c r="AE627" s="22"/>
       <c r="AF627" s="22"/>
       <c r="AG627" s="22"/>
-    </row>
-    <row r="628" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH627" s="22"/>
+      <c r="AI627" s="22"/>
+    </row>
+    <row r="628" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C628" s="22"/>
       <c r="D628" s="22"/>
       <c r="E628" s="22"/>
@@ -21986,6 +23321,8 @@
       <c r="AE628" s="22"/>
       <c r="AF628" s="22"/>
       <c r="AG628" s="22"/>
+      <c r="AH628" s="22"/>
+      <c r="AI628" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/NXT.L.xlsx
+++ b/NXT.L.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45F38D6-6478-4D05-8D07-DC3EB156D646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0900B529-0BDB-44DA-A91B-4E4485C7E712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{0F543347-D4D0-4782-A0BE-24D35C709E73}"/>
+    <workbookView xWindow="225" yWindow="3855" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{0F543347-D4D0-4782-A0BE-24D35C709E73}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -843,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1223644F-2F30-431F-A16F-D9DF0AFF1D5B}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1007,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4EA1A9-CAE9-46C3-8DE3-A737E516BE83}">
   <dimension ref="A1:AU628"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/NXT.L.xlsx
+++ b/NXT.L.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0900B529-0BDB-44DA-A91B-4E4485C7E712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B8C5A9-AC0C-4B76-B137-458888AD29AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="3855" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{0F543347-D4D0-4782-A0BE-24D35C709E73}"/>
+    <workbookView xWindow="225" yWindow="390" windowWidth="38175" windowHeight="15240" xr2:uid="{0F543347-D4D0-4782-A0BE-24D35C709E73}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -843,7 +843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1223644F-2F30-431F-A16F-D9DF0AFF1D5B}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -868,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="3">
-        <v>118.8</v>
+        <v>127.35</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -891,7 +891,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>13911.48</v>
+        <v>14912.684999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -934,7 +934,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>14251.679999999998</v>
+        <v>15252.884999999998</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1007,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4EA1A9-CAE9-46C3-8DE3-A737E516BE83}">
   <dimension ref="A1:AU628"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
